--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1387782456496158</v>
+        <v>0.1406939706071777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07422119320922882</v>
+        <v>0.04411022157822307</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009478516539948469</v>
+        <v>0.009861029805819417</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03580119501954638</v>
+        <v>0.07377084541159404</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002350789765721237</v>
+        <v>0.04720839812836049</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01621780822677799</v>
+        <v>0.02149205787884697</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06694853016354853</v>
+        <v>0.07359825035133229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04021144808741076</v>
+        <v>0.07290525928783323</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06399400920317209</v>
+        <v>0.06881742027532141</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05357330561319769</v>
+        <v>0.03896051264594459</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08665348004197193</v>
+        <v>0.06975025983555386</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07464091609290521</v>
+        <v>0.04537134024524792</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06399313130572475</v>
+        <v>0.02866263180431763</v>
       </c>
       <c r="R2" t="n">
-        <v>0.044258634826893</v>
+        <v>0.05959309374781366</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004595068099913203</v>
+        <v>0.02572339235738338</v>
       </c>
       <c r="T2" t="n">
-        <v>0.005644882601048293</v>
+        <v>0.01729306487271714</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08369948887886558</v>
+        <v>0.06370807567401336</v>
       </c>
       <c r="V2" t="n">
-        <v>0.008248761078203919</v>
+        <v>0.003896211098023816</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06666543898638545</v>
+        <v>0.03896535235369882</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02429532842793953</v>
+        <v>0.07224415915939973</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01050687539943914</v>
+        <v>0.009136731394776198</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06949967287775831</v>
+        <v>0.04626757735419762</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0785401179329875</v>
+        <v>0.06181246098810165</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01596140762141203</v>
+        <v>0.006851653751479885</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.09158186888698275</v>
+        <v>0.1048539867316382</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3109622845562632</v>
+        <v>0.4088219139863837</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08044781719086562</v>
+        <v>0.004032968963240769</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02926775646906094</v>
+        <v>0.04750928241025529</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09621956777478231</v>
+        <v>0.03916471158635049</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01312440048338997</v>
+        <v>0.08299107552326909</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02183836878436991</v>
+        <v>0.03287421454453873</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07298190938517644</v>
+        <v>0.09263299716487797</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03916234897809409</v>
+        <v>0.007108721381382042</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06144276019236574</v>
+        <v>0.01831141423921842</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02620751268699568</v>
+        <v>0.04054916001571162</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005246074036546957</v>
+        <v>0.05091639280070805</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09140306532501806</v>
+        <v>0.02811896012140702</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03257615848032148</v>
+        <v>0.0227211757792074</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09288883616361664</v>
+        <v>0.07586044876405247</v>
       </c>
       <c r="S3" t="n">
-        <v>0.008339435286832737</v>
+        <v>0.002146088190527892</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1020423783475483</v>
+        <v>0.1241576805976848</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02250327779356842</v>
+        <v>0.07653003932343941</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08506658852149195</v>
+        <v>0.1138506852492563</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0145556084758201</v>
+        <v>0.06587155609424454</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01983197291238466</v>
+        <v>0.003853938292913678</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0005900928849200719</v>
+        <v>0.005520239218802545</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02534639316437867</v>
+        <v>0.04286120526481125</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01940148629574968</v>
+        <v>0.005597332922621533</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.03951619036670172</v>
+        <v>0.01681971155147886</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.099383767895737</v>
+        <v>0.09101976076376014</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1689029357697066</v>
+        <v>0.1643774369937522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07677625828841211</v>
+        <v>0.09676549327757092</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06058491623575029</v>
+        <v>0.03034824590534379</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00124875941059896</v>
+        <v>0.009391926457523441</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0828139939805029</v>
+        <v>0.09275049469240419</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07623377567573206</v>
+        <v>0.06381188558235484</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05826964623247098</v>
+        <v>0.04803942405638709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002002847722593596</v>
+        <v>0.003622355367670799</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07211170189514214</v>
+        <v>0.03997016792317122</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02251656920156529</v>
+        <v>0.05143460420710907</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03453908656689365</v>
+        <v>0.05093306994493679</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05434242763246006</v>
+        <v>0.03521247452811699</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07213577029361819</v>
+        <v>0.03837555629843395</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06826564964652423</v>
+        <v>0.09167383646982384</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009729375305446505</v>
+        <v>0.00554707115094121</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06391860767027711</v>
+        <v>0.01113397624743621</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03897779544089233</v>
+        <v>0.009274775380575861</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08128516880664731</v>
+        <v>0.08526158405479289</v>
       </c>
       <c r="W4" t="n">
-        <v>0.00172668589712895</v>
+        <v>0.001718629821572918</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04067426801017306</v>
+        <v>0.09740391060468413</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.04278141157417707</v>
+        <v>0.03383366587935467</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01459235608488455</v>
+        <v>0.09061631448081731</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01422960014077638</v>
+        <v>0.005256652187118427</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01024332828733237</v>
+        <v>0.007623885481859293</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.06107233110760591</v>
+        <v>-0.03485151532418401</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.4975493994263142</v>
+        <v>0.4123908388245606</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0129861557856269</v>
+        <v>0.009691780681797012</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07935788620663783</v>
+        <v>0.01328127490194837</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08526451499396781</v>
+        <v>0.07148409537178488</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07900411844594647</v>
+        <v>0.02484076385363745</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03400415454410745</v>
+        <v>0.0570100350512899</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07744428550193434</v>
+        <v>0.07751198165163037</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006955142976115163</v>
+        <v>0.0006361881264171785</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08977127351058284</v>
+        <v>0.05980104406525297</v>
       </c>
       <c r="N5" t="n">
-        <v>0.028885994049921</v>
+        <v>0.04494173941932334</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03717969806418679</v>
+        <v>0.05801846745578244</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04888021505135139</v>
+        <v>0.03038029630895064</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03948912147338955</v>
+        <v>0.03680475343043589</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02440726655953844</v>
+        <v>0.04894235331535711</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07463466439490007</v>
+        <v>0.05257376755854006</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04216048775371187</v>
+        <v>0.03343744121114635</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08741838300397205</v>
+        <v>0.08029050088338589</v>
       </c>
       <c r="V5" t="n">
-        <v>0.07516389127347881</v>
+        <v>0.04236886176172371</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01179919410289912</v>
+        <v>0.0354701859973616</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002740988721434031</v>
+        <v>0.06840526973054122</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03553766686097946</v>
+        <v>0.04831138705704735</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001448215056950184</v>
+        <v>0.06903202333677251</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01327255783643133</v>
+        <v>0.002684444809078916</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01845375251044079</v>
+        <v>0.03408134402079471</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.08180488725963438</v>
+        <v>-0.06184762211758178</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1367737135729228</v>
+        <v>0.1346875619523865</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06463993803237621</v>
+        <v>0.08013057844086258</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03351238807105997</v>
+        <v>0.01593352601264788</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004436038455481984</v>
+        <v>0.004086043183134894</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05992863412130304</v>
+        <v>0.08808421548295169</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07144435905058494</v>
+        <v>0.08243584653480886</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0317302289109668</v>
+        <v>0.002385000277274599</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006290624861490074</v>
+        <v>0.01378788811683193</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003256222643160384</v>
+        <v>0.001154632827350804</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05922846114806519</v>
+        <v>0.05722178858837203</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07587663358110844</v>
+        <v>0.08543426727955919</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0397168056778212</v>
+        <v>0.07243456269529193</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03439087246376808</v>
+        <v>0.03308543462837757</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05295484205269817</v>
+        <v>0.03198292588834969</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06051490024599715</v>
+        <v>0.0875944955013869</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02359642843650137</v>
+        <v>0.04610277537259392</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02338839004396438</v>
+        <v>0.08255910263609735</v>
       </c>
       <c r="V6" t="n">
-        <v>0.08277683437238934</v>
+        <v>0.06126325013812293</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07598305506295912</v>
+        <v>0.04781303071520952</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03090870139256235</v>
+        <v>0.03384418044327955</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01859196057741454</v>
+        <v>0.01150259216044203</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07525511793647935</v>
+        <v>0.04141727189253064</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.06766483394946332</v>
+        <v>0.0006673905581603813</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.003913728912384774</v>
+        <v>0.0190792006263631</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.002297663130275266</v>
+        <v>0.01552484453078491</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1557507386372005</v>
+        <v>0.1707618291633661</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01617152995881992</v>
+        <v>0.001680355994626133</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02891412902611452</v>
+        <v>0.08288631740812669</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01103087551476067</v>
+        <v>0.008859601453975482</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07732203108912897</v>
+        <v>0.06256675739443691</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04324427678006833</v>
+        <v>0.001385721576501098</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05110103294486625</v>
+        <v>0.07694440394269418</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001265941250001105</v>
+        <v>0.08577841307230152</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04223399682604664</v>
+        <v>0.001062455438885866</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05015008178604578</v>
+        <v>0.02654057482424302</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03748976249698339</v>
+        <v>0.003988538378910526</v>
       </c>
       <c r="P7" t="n">
-        <v>0.007763367174659071</v>
+        <v>0.01577261649282799</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03648620751239287</v>
+        <v>0.08053379796992365</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03323802775671541</v>
+        <v>0.01943552302896313</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1015663854513604</v>
+        <v>0.01697748034931234</v>
       </c>
       <c r="T7" t="n">
-        <v>0.086584880179183</v>
+        <v>0.07688659777242456</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1081558555555391</v>
+        <v>0.03087343510534029</v>
       </c>
       <c r="V7" t="n">
-        <v>0.06771163328868041</v>
+        <v>0.08925253418377825</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04095150801185633</v>
+        <v>0.06082283706286453</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01407370967070987</v>
+        <v>0.02122069720753597</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02188237695692942</v>
+        <v>0.03968043795551963</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02069214380728775</v>
+        <v>0.007142000170267455</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01070251040195786</v>
+        <v>0.09564607661341364</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09126773655989308</v>
+        <v>0.0940628266031272</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.02024466927350672</v>
+        <v>0.001583474222683695</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1476054199522286</v>
+        <v>0.145021399272482</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06456964594681583</v>
+        <v>0.04554897856304108</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05875510818887186</v>
+        <v>0.0775824807532961</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01375161046256459</v>
+        <v>0.007651065336431099</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01351845145192192</v>
+        <v>0.006376950839215212</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06092213912719018</v>
+        <v>0.0275524120571479</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002931386987586823</v>
+        <v>0.007931077487760882</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06750981809062316</v>
+        <v>0.02237785772538514</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00109549238921654</v>
+        <v>0.06648386834508449</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05547358207382213</v>
+        <v>0.05509007272911978</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06508452533353601</v>
+        <v>0.04720439818183383</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07283919676182869</v>
+        <v>0.07167939915509743</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01212521818780258</v>
+        <v>0.005911902543767112</v>
       </c>
       <c r="R8" t="n">
-        <v>0.05877020735357631</v>
+        <v>0.08008674819500637</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06445908584558342</v>
+        <v>0.08120522486259447</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03055164479495572</v>
+        <v>0.08274461330298882</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05882785737091084</v>
+        <v>0.0385815579977745</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0589879266907684</v>
+        <v>0.05429222237095296</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03910232118266672</v>
+        <v>0.01805655808659861</v>
       </c>
       <c r="X8" t="n">
-        <v>0.07380846301481427</v>
+        <v>0.08356189855412308</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.00801087992385659</v>
+        <v>0.002869687006545503</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03918254001691421</v>
+        <v>0.0561162428980379</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0178320048046057</v>
+        <v>0.04117607302290802</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06189089399956742</v>
+        <v>0.01991870998528964</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1403076141634189</v>
+        <v>-0.1402592539175551</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3150931742709722</v>
+        <v>0.3279050546811944</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0981883531934358</v>
+        <v>0.05227399737057341</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0437370564907185</v>
+        <v>0.04528733332382745</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03939381972050354</v>
+        <v>0.02367864191141059</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05117479966699315</v>
+        <v>0.07411315447777177</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02626636132589925</v>
+        <v>0.01842182766575152</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01233861516259033</v>
+        <v>0.01407357540902772</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06293596611573991</v>
+        <v>0.03808989990651691</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02845190079494738</v>
+        <v>0.05617067589144321</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02205533028151054</v>
+        <v>0.03103531383970097</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06509077777870446</v>
+        <v>0.03160012396187133</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0004465213655163709</v>
+        <v>0.02308406009221133</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1023812601952001</v>
+        <v>0.1143583257421336</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01321291344111549</v>
+        <v>0.04619032381784616</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01043728639068421</v>
+        <v>0.02295300876453147</v>
       </c>
       <c r="T9" t="n">
-        <v>0.07536565452042962</v>
+        <v>0.001668281219747434</v>
       </c>
       <c r="U9" t="n">
-        <v>0.09300792684728729</v>
+        <v>0.04739490564091418</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02550765160821794</v>
+        <v>0.003436769719176639</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03235090387686642</v>
+        <v>0.09262381807836462</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04381179222846182</v>
+        <v>0.03525058389459595</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01035090258937551</v>
+        <v>0.008126227228864089</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01783251198280924</v>
+        <v>0.02861110118897014</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02361559915820614</v>
+        <v>0.07473990932206946</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1020460952647871</v>
+        <v>0.1168181415326799</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1328110319750868</v>
+        <v>-0.1271473925996481</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1518852470260532</v>
+        <v>0.1534769286539397</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1088557982767182</v>
+        <v>0.07557719572955651</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006137409333278754</v>
+        <v>0.01263699611487367</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03909504800441772</v>
+        <v>0.01052511627308762</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02120085990941235</v>
+        <v>0.0948323091034331</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01784224724121362</v>
+        <v>0.03747704839164832</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04292751896261966</v>
+        <v>0.0464870849401746</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001771302178297639</v>
+        <v>0.005766679136797168</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008022065849418052</v>
+        <v>0.001290756673426829</v>
       </c>
       <c r="N10" t="n">
-        <v>0.004363019745746049</v>
+        <v>0.01201281334986759</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0773641665441509</v>
+        <v>0.01350631424242474</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08003969014251096</v>
+        <v>0.06614288581532889</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03928413460617123</v>
+        <v>0.02196707151889279</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02720382760477096</v>
+        <v>0.0984962887346883</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08926672841727845</v>
+        <v>0.04610967404723351</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01117077220769161</v>
+        <v>0.0126284201280195</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06042413304500942</v>
+        <v>0.03849935314053931</v>
       </c>
       <c r="V10" t="n">
-        <v>0.006294690751320899</v>
+        <v>0.01853227370790322</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09707309174092565</v>
+        <v>0.04682321623234356</v>
       </c>
       <c r="X10" t="n">
-        <v>0.07907388720900695</v>
+        <v>0.07049053543433832</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04441505102203599</v>
+        <v>0.07353992578755725</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.09676273059358856</v>
+        <v>0.09877283454960409</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02313776853693784</v>
+        <v>0.03817868889534982</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01827405807747859</v>
+        <v>0.0597065180529114</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.05855568347270095</v>
+        <v>-0.03246178750902648</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1604654708281095</v>
+        <v>0.1687922128854378</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09141121032656674</v>
+        <v>0.1026789755592599</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02293749518496033</v>
+        <v>0.0002724565834127647</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09527506224139157</v>
+        <v>0.1150252644908565</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05954896568541786</v>
+        <v>0.1103618737509135</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01879021124483576</v>
+        <v>0.01369914899562434</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01680176935433497</v>
+        <v>0.01530664704108932</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06667581670105031</v>
+        <v>0.04388319460036118</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001353088325156872</v>
+        <v>0.01368793034035375</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002416877507123972</v>
+        <v>0.02781838563986766</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01429929794126485</v>
+        <v>0.01335711562063978</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08508992186624678</v>
+        <v>0.03349300278157123</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06242265617650272</v>
+        <v>0.04320323332779186</v>
       </c>
       <c r="R11" t="n">
-        <v>0.05293021924131499</v>
+        <v>0.01689414188708886</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1043472686477117</v>
+        <v>0.0009922622565998694</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0659826200630183</v>
+        <v>0.04817537125210947</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01003941269042092</v>
+        <v>0.005546951624644431</v>
       </c>
       <c r="V11" t="n">
-        <v>0.008884514677902246</v>
+        <v>0.00281320301463764</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03373025195328677</v>
+        <v>0.06228539326976941</v>
       </c>
       <c r="X11" t="n">
-        <v>0.05887348627389244</v>
+        <v>0.01488318474753243</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01523811386896888</v>
+        <v>0.05312877530271762</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02223086578618626</v>
+        <v>0.1025838306710048</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01257601787601449</v>
+        <v>0.1077435127721846</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.07814485636643026</v>
+        <v>0.05216614446996932</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.07747402692711103</v>
+        <v>-0.0708121977820121</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.161738292429474</v>
+        <v>0.1624668230263154</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03533795933558564</v>
+        <v>0.05167588280447245</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07258447593264059</v>
+        <v>0.06656528814290059</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06912795691381458</v>
+        <v>0.01473073473490964</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01787213484620804</v>
+        <v>0.04761990323106904</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05039817588618695</v>
+        <v>0.04801934523922857</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03540920276190156</v>
+        <v>0.02607394607426171</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02174359423504136</v>
+        <v>0.05988149290316991</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03978198688062944</v>
+        <v>0.01831315751392751</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01133245509011084</v>
+        <v>0.01500367298710759</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02891075550428037</v>
+        <v>0.04467315852586696</v>
       </c>
       <c r="P12" t="n">
-        <v>0.009065921030949364</v>
+        <v>0.01821826494633447</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04738986211476445</v>
+        <v>0.0725760763749817</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06462670956448349</v>
+        <v>0.09219870186688399</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08918539099186119</v>
+        <v>0.07613460494188162</v>
       </c>
       <c r="T12" t="n">
-        <v>0.004470357555961844</v>
+        <v>0.02208105805220983</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04858249920227128</v>
+        <v>0.04263476891865028</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02253659707217418</v>
+        <v>0.003883516380514568</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09635905376928695</v>
+        <v>0.08362387776119666</v>
       </c>
       <c r="X12" t="n">
-        <v>0.09883128484354435</v>
+        <v>0.04869149005719627</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.09937490638570895</v>
+        <v>0.07952296308506589</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02451895263675146</v>
+        <v>0.05226414779460319</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.00230130443291431</v>
+        <v>0.01054340270863708</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01025846301292873</v>
+        <v>0.005070544954930591</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3210181662158484</v>
+        <v>-0.3157292477428361</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.234941170057341</v>
+        <v>0.2293298300068156</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09099738204518228</v>
+        <v>0.08578763056110358</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007895549025411591</v>
+        <v>0.03434428491136492</v>
       </c>
       <c r="H13" t="n">
-        <v>0.035337543720503</v>
+        <v>0.09803241932630426</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08969877782351995</v>
+        <v>0.07463881832686931</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01489749225363651</v>
+        <v>0.06697824597770909</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02217523516104905</v>
+        <v>0.05926033297533775</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08626866623664944</v>
+        <v>0.03618108293072517</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001617983043609025</v>
+        <v>0.008415258971695358</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03200980181102475</v>
+        <v>0.001478437698629364</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03859924671949316</v>
+        <v>0.006639977777352537</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0259258227172392</v>
+        <v>0.04533574839178547</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.07189918067771567</v>
+        <v>0.04547235636617261</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07230749928360493</v>
+        <v>0.002208166620292893</v>
       </c>
       <c r="S13" t="n">
-        <v>0.005279013286901658</v>
+        <v>0.08150303529790662</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002360258965804261</v>
+        <v>0.007686438965608605</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03111503467968801</v>
+        <v>0.0008432963478600651</v>
       </c>
       <c r="V13" t="n">
-        <v>0.07675984857957489</v>
+        <v>0.0286959503311661</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01401837404415085</v>
+        <v>0.04604333896228097</v>
       </c>
       <c r="X13" t="n">
-        <v>0.07228153461546548</v>
+        <v>0.007969964590751912</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.00976914295289091</v>
+        <v>0.06156005897646952</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.04257462871827251</v>
+        <v>0.020388300401641</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06335886698672857</v>
+        <v>0.0794252990541411</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09285311665188417</v>
+        <v>0.1011115562368317</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.4898828087054942</v>
+        <v>-0.467953977649264</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2656857978651628</v>
+        <v>0.2565287246612219</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08932765709381826</v>
+        <v>0.02823837856329506</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02177791482229775</v>
+        <v>0.02654844066734722</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01476403390710394</v>
+        <v>0.04327174414498923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02687888523125409</v>
+        <v>0.05604484379874464</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03122102180080378</v>
+        <v>0.01546424241601628</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0291702506735609</v>
+        <v>0.02259080442791504</v>
       </c>
       <c r="L14" t="n">
-        <v>0.010350940441879</v>
+        <v>0.001448267902100756</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02369708832952368</v>
+        <v>0.01957604234281487</v>
       </c>
       <c r="N14" t="n">
-        <v>0.007568792644700945</v>
+        <v>0.01491514307669243</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00169583561855415</v>
+        <v>0.05084540860164986</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05753960840714577</v>
+        <v>0.09540999909582679</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1076420740107433</v>
+        <v>0.06138069649978255</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06795752699947674</v>
+        <v>0.09715726759338644</v>
       </c>
       <c r="S14" t="n">
-        <v>0.005202464866762966</v>
+        <v>0.05644837585775891</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04696742672398316</v>
+        <v>0.08159027882166955</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1164463007635509</v>
+        <v>0.03200178275076058</v>
       </c>
       <c r="V14" t="n">
-        <v>0.02323406658183567</v>
+        <v>0.001355504565840006</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04733585318685769</v>
+        <v>0.06835858638745651</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1084926568307029</v>
+        <v>0.05713068051775174</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07285953401869315</v>
+        <v>0.07815629170785714</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.008699573135984918</v>
+        <v>0.05478399393423402</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.008516248992818793</v>
+        <v>0.0005763473327638754</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07265424491794763</v>
+        <v>0.03670687899334654</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.05657194269285222</v>
+        <v>-0.08385027641122184</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3860702772918677</v>
+        <v>0.3389950389580527</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0225455943302255</v>
+        <v>0.01340109490389189</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02426573400659895</v>
+        <v>0.002979693849113022</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0575288072612492</v>
+        <v>0.02626910884534397</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01790676646558927</v>
+        <v>0.02861040375472795</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05728737748218016</v>
+        <v>0.006403213621903523</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08771774792180838</v>
+        <v>0.05763763210819706</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03747539075071728</v>
+        <v>0.005282299496565731</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006487328655957016</v>
+        <v>0.00555499170037079</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1058891539760593</v>
+        <v>0.04545137886886391</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03171026155314278</v>
+        <v>0.03453178905021866</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07362877235971801</v>
+        <v>0.09027476498805501</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03070966333163668</v>
+        <v>0.0321379867780013</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0008943117851525752</v>
+        <v>0.04986956662321914</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02650310717767908</v>
+        <v>0.05719436492270094</v>
       </c>
       <c r="T15" t="n">
-        <v>0.05293797307376968</v>
+        <v>0.09921172495540698</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02262027531003027</v>
+        <v>0.00202048918335684</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1122068936002883</v>
+        <v>0.1006949066260044</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0677060237155313</v>
+        <v>0.05664807259551259</v>
       </c>
       <c r="X15" t="n">
-        <v>0.002524401129245134</v>
+        <v>0.07992020891702513</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.04880077115709914</v>
+        <v>0.03121413463314984</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04413701777191705</v>
+        <v>0.09582886984834411</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.04998979497234267</v>
+        <v>0.005600892696105695</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01852683221206213</v>
+        <v>0.07326241103392156</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.04055224970404333</v>
+        <v>0.02058044575925375</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2800482628185236</v>
+        <v>0.2784722902785176</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03997733679192506</v>
+        <v>0.06636812939836083</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05744803433068073</v>
+        <v>0.0194662992167631</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02152656765409315</v>
+        <v>0.02863263994818089</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02153989069800856</v>
+        <v>0.09949625125629147</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01956134164351434</v>
+        <v>0.02668954158159552</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007675295171244475</v>
+        <v>0.004877499051918191</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04243434158645486</v>
+        <v>0.01095308454425569</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04110576825139941</v>
+        <v>0.01093485135679381</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001701107385599862</v>
+        <v>0.0205841956786501</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08504650721600397</v>
+        <v>0.0884627756298617</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03246655365221628</v>
+        <v>0.02971025255657564</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07017893097467873</v>
+        <v>0.01402188745866055</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08827205659328122</v>
+        <v>0.111332447051125</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0957585297102556</v>
+        <v>0.01048103797073125</v>
       </c>
       <c r="T16" t="n">
-        <v>0.003758697962686299</v>
+        <v>0.008020073237653368</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05778966950869425</v>
+        <v>0.07957248773585629</v>
       </c>
       <c r="V16" t="n">
-        <v>0.004665826783952227</v>
+        <v>0.002477441498300446</v>
       </c>
       <c r="W16" t="n">
-        <v>0.05526483004673372</v>
+        <v>0.09199817621942767</v>
       </c>
       <c r="X16" t="n">
-        <v>0.06252774952435583</v>
+        <v>0.04847743825224372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03289347498173454</v>
+        <v>0.03208945830063289</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.06944416173431212</v>
+        <v>0.04890508652826169</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0192693843914196</v>
+        <v>0.0757141756344001</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.06969394340675514</v>
+        <v>0.07073476989346016</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1095215095956036</v>
+        <v>0.11911472718085</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.470150404185775</v>
+        <v>0.5093038365436365</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06601403531786572</v>
+        <v>0.07902573523959071</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01857661434622978</v>
+        <v>0.0281920279337607</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01587954540216687</v>
+        <v>0.08492459025981651</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007722712897783157</v>
+        <v>0.04261637947445571</v>
       </c>
       <c r="J17" t="n">
-        <v>0.10267007299124</v>
+        <v>0.1039526126714208</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0006537620798436761</v>
+        <v>0.001600289897785241</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07321745965117307</v>
+        <v>0.1050673809376117</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03278620098668448</v>
+        <v>0.003730121096321154</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01909927590222629</v>
+        <v>0.06678461715066605</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005537279059638437</v>
+        <v>0.01121364294167011</v>
       </c>
       <c r="P17" t="n">
-        <v>0.07980898818408118</v>
+        <v>0.006209577161095273</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03440335419057018</v>
+        <v>0.05327150340716737</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04267656495548298</v>
+        <v>0.01204081638517104</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08009656158005581</v>
+        <v>0.06905687566868729</v>
       </c>
       <c r="T17" t="n">
-        <v>0.002075950536294774</v>
+        <v>0.007001967841901022</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07283513761150562</v>
+        <v>0.02595762708191682</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1270690419157085</v>
+        <v>0.1044333780382186</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05913654394474805</v>
+        <v>0.04029554905110233</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06489637572041382</v>
+        <v>0.06896756270160342</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01381920098602741</v>
+        <v>0.0009589946614925112</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02131294764803341</v>
+        <v>0.06200014937699475</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.003448112341337487</v>
+        <v>0.02156947040229365</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.05626426175088917</v>
+        <v>0.001129130619257442</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1581808343151193</v>
+        <v>0.1474446849492863</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2722966855202928</v>
+        <v>0.2705555339589699</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05019257560655798</v>
+        <v>0.0404035848744933</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01577141654429369</v>
+        <v>0.03340473920175463</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04906324930521615</v>
+        <v>0.04039703439324512</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03466789410775148</v>
+        <v>0.06003305376434461</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02177548762079121</v>
+        <v>0.01236297294110934</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005793366916769426</v>
+        <v>0.005745075626915829</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01300891881626623</v>
+        <v>0.0134593194128414</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01622632141134934</v>
+        <v>0.03642661358044551</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02138098220963554</v>
+        <v>0.0100780416172749</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04029690824155854</v>
+        <v>0.01186356239822546</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07341543538148754</v>
+        <v>0.08677978776946198</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03809438820602957</v>
+        <v>0.04387989088201223</v>
       </c>
       <c r="R18" t="n">
-        <v>0.08638063836890152</v>
+        <v>0.05443239806141216</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0371413781131952</v>
+        <v>0.08479443067161509</v>
       </c>
       <c r="T18" t="n">
-        <v>0.007446610662232583</v>
+        <v>0.04734536100884809</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04737155069919237</v>
+        <v>0.07690045491860911</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01140600464096447</v>
+        <v>0.02461517765234858</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08157949194171529</v>
+        <v>0.09770421855093822</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02965822861160727</v>
+        <v>0.06415333878067155</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.09644499300946352</v>
+        <v>0.0492681710080189</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.09019593526373268</v>
+        <v>0.09708424056338023</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.04779600311447985</v>
+        <v>0.005760189314601102</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.08489222120680863</v>
+        <v>0.003108343007432803</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1107236063966935</v>
+        <v>0.1372178443256943</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3577969948731844</v>
+        <v>0.36144305267655</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0622983209803441</v>
+        <v>0.01819257207030684</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0007845333896191341</v>
+        <v>0.04998515551589155</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01606593186413478</v>
+        <v>0.005752897744082173</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01165079493101598</v>
+        <v>0.01689395982997477</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07115881496379312</v>
+        <v>0.01035271110935736</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05046271472568117</v>
+        <v>0.02768934591958519</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006532799379321802</v>
+        <v>0.07679924309309005</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020897870770314</v>
+        <v>0.003054139791861567</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04077068227388964</v>
+        <v>0.1136155579581706</v>
       </c>
       <c r="O19" t="n">
-        <v>0.08519639346218742</v>
+        <v>0.02221970081725467</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01332840263868907</v>
+        <v>0.04242223214039111</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.008974956823152119</v>
+        <v>0.02478141720523773</v>
       </c>
       <c r="R19" t="n">
-        <v>0.006814468010828604</v>
+        <v>0.03545809928493961</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02660441401572937</v>
+        <v>0.01188450991258976</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0009922515926104891</v>
+        <v>0.009569335007163945</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08127813136357891</v>
+        <v>0.03412635711288075</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1234500374702521</v>
+        <v>0.1130798970650085</v>
       </c>
       <c r="W19" t="n">
-        <v>0.009338795983331769</v>
+        <v>0.02682881204936498</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1001237201516866</v>
+        <v>0.1048231133205742</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01291145752732719</v>
+        <v>0.02519892431731878</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1010250285026655</v>
+        <v>0.09003192603213241</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03658952896860192</v>
+        <v>0.02809604752053665</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.03155803390452796</v>
+        <v>0.1091440451822868</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1152853191793344</v>
+        <v>0.097961454324279</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.272560037026965</v>
+        <v>0.277755195452418</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02187514313567427</v>
+        <v>0.01922463343954645</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01820192769192112</v>
+        <v>0.003938355900752792</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04223596158912633</v>
+        <v>0.02651258441867609</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03026229126461986</v>
+        <v>0.05424994749591632</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01295171544195008</v>
+        <v>0.0624302883391593</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04203201951831546</v>
+        <v>0.03463104764839962</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03210296030189538</v>
+        <v>0.007429439281250659</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003466804530347656</v>
+        <v>0.01108797701420342</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02361668218065975</v>
+        <v>0.02069731589336651</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02779498254337158</v>
+        <v>0.03496465490940311</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0268419320681451</v>
+        <v>0.1032908859990423</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.004972703543120864</v>
+        <v>0.04154377692237949</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1004263086558148</v>
+        <v>0.1006722240760202</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07704486279298869</v>
+        <v>0.0764689591318123</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05763039747252394</v>
+        <v>0.01827106164226939</v>
       </c>
       <c r="U20" t="n">
-        <v>0.009036149983454575</v>
+        <v>0.0719214162869931</v>
       </c>
       <c r="V20" t="n">
-        <v>0.008732872839322219</v>
+        <v>0.02941457793967674</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1087296244337653</v>
+        <v>0.07626280189469786</v>
       </c>
       <c r="X20" t="n">
-        <v>0.08030066774672225</v>
+        <v>0.05902344002553785</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.05379095815107682</v>
+        <v>0.04807399357024453</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.08535139656497549</v>
+        <v>0.08045356179305391</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.02363435666645547</v>
+        <v>0.01179440424810114</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1089672808837531</v>
+        <v>0.007642652129496792</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.03414849403269118</v>
+        <v>0.02764477448937599</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3310056131652615</v>
+        <v>0.3410414234753699</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08161826052574243</v>
+        <v>0.01609683780052194</v>
       </c>
       <c r="G21" t="n">
-        <v>0.007382976444034894</v>
+        <v>0.01229762862679845</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01663195850332634</v>
+        <v>0.01655962467276124</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09297749569651466</v>
+        <v>0.09162889489626941</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07314334459982054</v>
+        <v>0.1032227430743445</v>
       </c>
       <c r="K21" t="n">
-        <v>0.004831685368582873</v>
+        <v>0.008865459170145803</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04433903016242945</v>
+        <v>0.03205529056691812</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03278423148480507</v>
+        <v>0.04739312322274805</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01245305148141915</v>
+        <v>0.03415131514046874</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02734595017561704</v>
+        <v>0.02982248222338153</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02032392329006469</v>
+        <v>0.03147699745928046</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03078492283169984</v>
+        <v>0.02716284437723948</v>
       </c>
       <c r="R21" t="n">
-        <v>0.08014675794569458</v>
+        <v>0.03989672385127123</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09295316900830944</v>
+        <v>0.03124802950319154</v>
       </c>
       <c r="T21" t="n">
-        <v>0.007596199932466568</v>
+        <v>0.03519456198898537</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0587699846960692</v>
+        <v>0.05830371324539571</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1111891434477177</v>
+        <v>0.1125403643671652</v>
       </c>
       <c r="W21" t="n">
-        <v>0.06126739324251613</v>
+        <v>0.04435411808234071</v>
       </c>
       <c r="X21" t="n">
-        <v>0.00536410992609102</v>
+        <v>0.04523365384208305</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0374469982054188</v>
+        <v>0.06870039401493343</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.04190226018813811</v>
+        <v>0.006614724689395911</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.04960332215858903</v>
+        <v>0.03098920245546742</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.009143830684932359</v>
+        <v>0.07619127272889277</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.06364033829107107</v>
+        <v>0.04241477322348758</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2993996094193916</v>
+        <v>0.3026615799312755</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06138648060905983</v>
+        <v>0.02438598842972878</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01033597088683165</v>
+        <v>0.04354634799074238</v>
       </c>
       <c r="H22" t="n">
-        <v>0.005222585845199208</v>
+        <v>0.008585507159774955</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06938325036564151</v>
+        <v>0.04660281819405119</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01171116015117876</v>
+        <v>0.01870007059588954</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0566212352729862</v>
+        <v>0.03807204560599831</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04418531722355828</v>
+        <v>0.0438419513983736</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004589590184364745</v>
+        <v>0.04051168418673662</v>
       </c>
       <c r="N22" t="n">
-        <v>0.008238055789710227</v>
+        <v>0.004805953310458697</v>
       </c>
       <c r="O22" t="n">
-        <v>0.06814627842189074</v>
+        <v>0.07378117944214786</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08751862748843717</v>
+        <v>0.08921388763684478</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.05117375839048317</v>
+        <v>0.07623560961488249</v>
       </c>
       <c r="R22" t="n">
-        <v>0.001141322956189777</v>
+        <v>0.002806650608777629</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06932902245740725</v>
+        <v>0.05325642114930713</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03677769201967825</v>
+        <v>0.03189356684300339</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01437523745394538</v>
+        <v>0.0328378761612895</v>
       </c>
       <c r="V22" t="n">
-        <v>0.02492347630399998</v>
+        <v>0.04824113998159491</v>
       </c>
       <c r="W22" t="n">
-        <v>0.08451833666298382</v>
+        <v>0.0899914268087639</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0605875817596265</v>
+        <v>0.08140780614245513</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0298512737621094</v>
+        <v>0.05745901753527914</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.09373345226775866</v>
+        <v>0.04019900011347964</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05675353439303268</v>
+        <v>0.001001392378613134</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0494967593339269</v>
+        <v>0.05262265871180721</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.4060362937940235</v>
+        <v>0.3751572056583774</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07882455271082046</v>
+        <v>0.03839612575450648</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00323967455851585</v>
+        <v>0.02863222172735747</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06967232492341235</v>
+        <v>0.04979556179736773</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02735751601764395</v>
+        <v>0.003652502215405644</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08025361377802551</v>
+        <v>0.01019070936499427</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01722300061641329</v>
+        <v>0.01958760368489701</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03629976267056382</v>
+        <v>0.08231459340342684</v>
       </c>
       <c r="M23" t="n">
-        <v>0.007262572460924319</v>
+        <v>0.00906445805833811</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06273430916835505</v>
+        <v>0.08748635629685256</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004047066892635405</v>
+        <v>0.01953587375253042</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0772826911006788</v>
+        <v>0.01051536784676014</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01490188660428756</v>
+        <v>0.03134376040751165</v>
       </c>
       <c r="R23" t="n">
-        <v>0.008918140902708994</v>
+        <v>0.009685103052717128</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06305968976529486</v>
+        <v>0.09802364088527606</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01930819299781528</v>
+        <v>0.02652491274323291</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09635512126401684</v>
+        <v>0.01267777613854995</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1336214284173096</v>
+        <v>0.1106078909173371</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01714137956483653</v>
+        <v>0.01481444085755382</v>
       </c>
       <c r="X23" t="n">
-        <v>0.05122086637802403</v>
+        <v>0.009978810457386618</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.004550216064405363</v>
+        <v>0.08596401528913615</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02802208109635897</v>
+        <v>0.08192853478654438</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01159209718906808</v>
+        <v>0.09952077645070713</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.08711181485788512</v>
+        <v>0.05975896411161032</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.275890223794139</v>
+        <v>0.2805317659094446</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08051248653262986</v>
+        <v>0.04706352505293744</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03368873360070786</v>
+        <v>0.004813018847783635</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01359028334737073</v>
+        <v>0.01020243765827771</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1100501898448602</v>
+        <v>0.08426953568356207</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01961236481438918</v>
+        <v>0.006050609618699764</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02526620275258963</v>
+        <v>0.03912674507087834</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01495123714823304</v>
+        <v>0.02597800691473376</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005583644246834764</v>
+        <v>0.01330010206854743</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01630400597931025</v>
+        <v>0.01702125123109716</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01414073621118114</v>
+        <v>0.04056634963870311</v>
       </c>
       <c r="P24" t="n">
-        <v>0.09276030666350012</v>
+        <v>0.07592303749565019</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01113317374357619</v>
+        <v>0.06023446864693942</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0679600755050925</v>
+        <v>0.05887491085604617</v>
       </c>
       <c r="S24" t="n">
-        <v>0.02838276530420765</v>
+        <v>0.01996865646461886</v>
       </c>
       <c r="T24" t="n">
-        <v>0.06431304567738182</v>
+        <v>0.01343859306037054</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05729852152521759</v>
+        <v>0.07065949514888052</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01539348354017447</v>
+        <v>0.01784075777319192</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04484010879009775</v>
+        <v>0.04974897164066903</v>
       </c>
       <c r="X24" t="n">
-        <v>0.110817072863546</v>
+        <v>0.05626069919095247</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.06893124985441866</v>
+        <v>0.08532052044526087</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.05877315535224614</v>
+        <v>0.08506951557695719</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.006506856407888752</v>
+        <v>0.05089585566938539</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.03919030029454555</v>
+        <v>0.06737293624585705</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.09839942277662199</v>
+        <v>0.09187565468843437</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3231640270093549</v>
+        <v>0.3269421772977408</v>
       </c>
       <c r="F25" t="n">
-        <v>0.077316177650139</v>
+        <v>0.02507416582901454</v>
       </c>
       <c r="G25" t="n">
-        <v>0.008864363907072882</v>
+        <v>0.03860599557085097</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05292992747415108</v>
+        <v>0.09466461189404837</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02670732332457808</v>
+        <v>0.03098739817824112</v>
       </c>
       <c r="J25" t="n">
-        <v>0.08623913179086572</v>
+        <v>0.03995532138437413</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04328910256821999</v>
+        <v>0.03100481379556853</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02013216203425966</v>
+        <v>0.005726619962218167</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03136729554031704</v>
+        <v>0.001805969695993119</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01602005462940395</v>
+        <v>0.007196595185599789</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03113115731619728</v>
+        <v>0.003794588607916912</v>
       </c>
       <c r="P25" t="n">
-        <v>0.03087695455348956</v>
+        <v>0.0222203455669003</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02918612927659059</v>
+        <v>0.008421356047486542</v>
       </c>
       <c r="R25" t="n">
-        <v>0.04925667026426415</v>
+        <v>0.008110270575547035</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01696481467590079</v>
+        <v>0.08432220937616414</v>
       </c>
       <c r="T25" t="n">
-        <v>0.002113861311524796</v>
+        <v>0.05838731054434794</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07799342346981011</v>
+        <v>0.0754875759103615</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1258515863035519</v>
+        <v>0.1016114673155478</v>
       </c>
       <c r="W25" t="n">
-        <v>0.06958168201138239</v>
+        <v>0.03843215642324598</v>
       </c>
       <c r="X25" t="n">
-        <v>0.08667555743074268</v>
+        <v>0.05833127139936507</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0068671099804128</v>
+        <v>0.02189995132764972</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.03071454004099276</v>
+        <v>0.07028147913761586</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.009747200808600127</v>
+        <v>0.1002783238318782</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.07017377363753269</v>
+        <v>0.07340020244006411</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1688137257914719</v>
+        <v>0.2011942122054161</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2263926798557839</v>
+        <v>0.2199185908751693</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04181339987525105</v>
+        <v>0.03060428077478982</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009345971816741148</v>
+        <v>0.06646104599529201</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07466557813242931</v>
+        <v>0.02667515465444771</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05442608560424439</v>
+        <v>0.07678161781856224</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01537215541530832</v>
+        <v>0.03433821779838047</v>
       </c>
       <c r="K26" t="n">
-        <v>0.005494796986068727</v>
+        <v>0.02019429092182729</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0467231514738573</v>
+        <v>0.03852599244965247</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01722983366174765</v>
+        <v>0.04864819968643248</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03416732578289877</v>
+        <v>0.0007131770753912501</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04082786869057376</v>
+        <v>0.05585951211676491</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07277895261833446</v>
+        <v>0.04128133667057488</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02366008930987502</v>
+        <v>0.0697930989802711</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07176506318476193</v>
+        <v>0.08125338349516699</v>
       </c>
       <c r="S26" t="n">
-        <v>0.07390327435103346</v>
+        <v>0.07261066182983569</v>
       </c>
       <c r="T26" t="n">
-        <v>0.05605423842894858</v>
+        <v>0.008170455034120006</v>
       </c>
       <c r="U26" t="n">
-        <v>0.006744506937352437</v>
+        <v>0.003048032776824963</v>
       </c>
       <c r="V26" t="n">
-        <v>0.07683088056402525</v>
+        <v>0.03497364113804795</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0436124339309051</v>
+        <v>0.05648365141450522</v>
       </c>
       <c r="X26" t="n">
-        <v>0.08084516424583318</v>
+        <v>0.06495440152481709</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0565733674165478</v>
+        <v>0.07195393500964271</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07809083567627029</v>
+        <v>0.02579218712019258</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01539783847712449</v>
+        <v>0.06686036326618472</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.003677187419867743</v>
+        <v>0.00402336244827552</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.07783806798066437</v>
+        <v>0.07060795724642746</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.3954321221195494</v>
+        <v>0.3529935765515394</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08693208685103057</v>
+        <v>0.06869044375407322</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0208484187780342</v>
+        <v>0.004831562371410711</v>
       </c>
       <c r="H27" t="n">
-        <v>0.006574282926119654</v>
+        <v>0.05765272465450286</v>
       </c>
       <c r="I27" t="n">
-        <v>0.006408078959117095</v>
+        <v>0.04054308074215478</v>
       </c>
       <c r="J27" t="n">
-        <v>0.08210622651749676</v>
+        <v>0.07136227235922384</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06134350583399013</v>
+        <v>0.08539496399559449</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08026478493723573</v>
+        <v>0.03043466197775058</v>
       </c>
       <c r="M27" t="n">
-        <v>0.005878505066565653</v>
+        <v>0.04540877795710926</v>
       </c>
       <c r="N27" t="n">
-        <v>0.06248712361355379</v>
+        <v>0.01866932508815048</v>
       </c>
       <c r="O27" t="n">
-        <v>0.04662509530883006</v>
+        <v>0.01280151707538856</v>
       </c>
       <c r="P27" t="n">
-        <v>0.05802103594323618</v>
+        <v>0.01373974294965628</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05734114345774514</v>
+        <v>0.02893812896657915</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01803110512883582</v>
+        <v>0.01282229072250402</v>
       </c>
       <c r="S27" t="n">
-        <v>0.07508863573305181</v>
+        <v>0.04731865657972262</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01246478943852148</v>
+        <v>0.008482029412327913</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0009898539620587553</v>
+        <v>0.01012908274698016</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0678219389741288</v>
+        <v>0.08469534065579437</v>
       </c>
       <c r="W27" t="n">
-        <v>0.07617433783505413</v>
+        <v>0.02591652562671989</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01642918424992854</v>
+        <v>0.04974349606087311</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.006718418233911642</v>
+        <v>0.07322382582396361</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.07999921350816784</v>
+        <v>0.0882466264534016</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01022035029676334</v>
+        <v>0.07068586760281106</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.06123188444662275</v>
+        <v>0.05026905642330734</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.07893355073959545</v>
+        <v>0.05825412313763535</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1683565909453225</v>
+        <v>0.1713885681630436</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07053347457104626</v>
+        <v>0.09746181194246994</v>
       </c>
       <c r="G28" t="n">
-        <v>0.006023967746942356</v>
+        <v>0.03157685080825817</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01370200864975257</v>
+        <v>0.01935413732024662</v>
       </c>
       <c r="I28" t="n">
-        <v>0.08448766496905469</v>
+        <v>0.01839853887244978</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03364523813845025</v>
+        <v>0.02544229260391467</v>
       </c>
       <c r="K28" t="n">
-        <v>0.008382328557392085</v>
+        <v>0.0001211933677874809</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003373159812465942</v>
+        <v>0.05005158183555798</v>
       </c>
       <c r="M28" t="n">
-        <v>0.007366357885655653</v>
+        <v>0.01077843305562772</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0591971710410755</v>
+        <v>0.06601006410273087</v>
       </c>
       <c r="O28" t="n">
-        <v>0.07080520035278223</v>
+        <v>0.07962890770528945</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07179661385316155</v>
+        <v>0.03451601645751325</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.07023821881072216</v>
+        <v>0.0476320416967036</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07696235651647987</v>
+        <v>0.01466246785846532</v>
       </c>
       <c r="S28" t="n">
-        <v>0.02851333369743879</v>
+        <v>0.04556278978651177</v>
       </c>
       <c r="T28" t="n">
-        <v>0.004929727686703554</v>
+        <v>0.01225029666533263</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06331154829732925</v>
+        <v>0.09786670747287843</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01031034054140399</v>
+        <v>0.01702444816486018</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04118768403924178</v>
+        <v>0.1027243120272948</v>
       </c>
       <c r="X28" t="n">
-        <v>0.08056547123110355</v>
+        <v>0.1062727027846826</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.07956558290298861</v>
+        <v>0.05670911904289019</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.04227743712027569</v>
+        <v>0.03999067213817753</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.04369359010111304</v>
+        <v>0.0009745589620964249</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0291315234774206</v>
+        <v>0.02499005532826057</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.245283716011586</v>
+        <v>-0.2324902651729035</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2025054200051561</v>
+        <v>0.2079668269815808</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05125049053317067</v>
+        <v>0.07195638054023704</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03224183338279891</v>
+        <v>0.006246925569066499</v>
       </c>
       <c r="H29" t="n">
-        <v>0.009633925634639724</v>
+        <v>0.05026536157115451</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02079247158178181</v>
+        <v>0.03862660533418336</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1010212283374332</v>
+        <v>0.06664162831145219</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06553494156991367</v>
+        <v>0.0609881796522715</v>
       </c>
       <c r="L29" t="n">
-        <v>0.008442723422863872</v>
+        <v>0.07785957957828961</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04341766410803514</v>
+        <v>0.0003982273607850062</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0007176226110345163</v>
+        <v>0.008181416591926517</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0333817259709451</v>
+        <v>0.01045768139915652</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04604250210742467</v>
+        <v>0.03232869783711158</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0492499318529139</v>
+        <v>0.004131458512272925</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01245408842741909</v>
+        <v>0.03420756246781105</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02324684718759708</v>
+        <v>0.07102091816146203</v>
       </c>
       <c r="T29" t="n">
-        <v>0.003338136797503522</v>
+        <v>0.002336110385241314</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05811862750711436</v>
+        <v>0.07570677160092472</v>
       </c>
       <c r="V29" t="n">
-        <v>0.08713149040459237</v>
+        <v>0.08472462741363006</v>
       </c>
       <c r="W29" t="n">
-        <v>0.07057783412493751</v>
+        <v>0.0290460590675045</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04249752506076893</v>
+        <v>0.07358203969014709</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0271566997961145</v>
+        <v>0.004540361384473833</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.09957243426577193</v>
+        <v>0.053328955889779</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.02266416346877123</v>
+        <v>0.07239516907018126</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.09151509184645452</v>
+        <v>0.07102928261093777</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2156959170072593</v>
+        <v>-0.201775765398231</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1666058617757535</v>
+        <v>0.1688751283772354</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05522226926196686</v>
+        <v>0.06524264060077088</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0009632149781743569</v>
+        <v>0.03597369080182306</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06289317201013044</v>
+        <v>0.02825562472102455</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0420138137108972</v>
+        <v>0.004477944042633103</v>
       </c>
       <c r="J30" t="n">
-        <v>0.00320724977158925</v>
+        <v>0.02390730812369565</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0101429093608993</v>
+        <v>0.00766542782889299</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04188887268470264</v>
+        <v>0.02371795989246761</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0158855147346278</v>
+        <v>0.07060576817049997</v>
       </c>
       <c r="N30" t="n">
-        <v>0.06330873675588861</v>
+        <v>0.04713490298074881</v>
       </c>
       <c r="O30" t="n">
-        <v>0.04517113841957459</v>
+        <v>0.06065452975104661</v>
       </c>
       <c r="P30" t="n">
-        <v>0.04066983125827422</v>
+        <v>0.04191706701956803</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.06675985346114854</v>
+        <v>0.01738353314178437</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1057434829969337</v>
+        <v>0.079652418844812</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1053180311469247</v>
+        <v>0.0820836093142765</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01924947686524944</v>
+        <v>0.005283451842042822</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08697894211347479</v>
+        <v>0.08227748541087582</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01544612823253789</v>
+        <v>0.02142176677037349</v>
       </c>
       <c r="W30" t="n">
-        <v>0.04840268984704333</v>
+        <v>0.08187606908099325</v>
       </c>
       <c r="X30" t="n">
-        <v>0.05278687211657525</v>
+        <v>0.0420244521174882</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0342280278675074</v>
+        <v>0.004880797277892937</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.06294483365079782</v>
+        <v>0.06508208231120492</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.01130900064122039</v>
+        <v>0.07342413399648388</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.009465938113861557</v>
+        <v>0.03505733595860065</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.06318913889297892</v>
+        <v>0.05660815975405609</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2050065617937359</v>
+        <v>0.2155503771518388</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06915399741511347</v>
+        <v>0.03752397215235095</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0490916077318358</v>
+        <v>0.01024867217385581</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04056567003357827</v>
+        <v>0.09268624714414472</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0074463871250285</v>
+        <v>0.03297499118259051</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09289175537925015</v>
+        <v>0.09212993641619099</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0197926645036441</v>
+        <v>0.0418001550665682</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06413278045555636</v>
+        <v>0.05228287342589134</v>
       </c>
       <c r="M31" t="n">
-        <v>0.08985839071178896</v>
+        <v>0.0009334561422734028</v>
       </c>
       <c r="N31" t="n">
-        <v>0.00212326635576227</v>
+        <v>0.04612325948610799</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02411417947147297</v>
+        <v>0.04851666685750548</v>
       </c>
       <c r="P31" t="n">
-        <v>0.02915080734077636</v>
+        <v>0.008916459619565081</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.484013830261557e-05</v>
+        <v>0.01285300947572134</v>
       </c>
       <c r="R31" t="n">
-        <v>0.04563771902385439</v>
+        <v>0.07055034195026195</v>
       </c>
       <c r="S31" t="n">
-        <v>0.03677856940582168</v>
+        <v>0.08871254371581555</v>
       </c>
       <c r="T31" t="n">
-        <v>0.003427118452491935</v>
+        <v>0.0593408091334223</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05383497119896725</v>
+        <v>0.02359392857269628</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09620336603970066</v>
+        <v>0.09437467114032921</v>
       </c>
       <c r="W31" t="n">
-        <v>0.005199707700909721</v>
+        <v>0.01173339354126932</v>
       </c>
       <c r="X31" t="n">
-        <v>0.06294640026997578</v>
+        <v>0.0332030866740694</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.005593379739179206</v>
+        <v>0.01623922160531745</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.07267775747120464</v>
+        <v>0.02481251394231488</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.04482986746822429</v>
+        <v>0.0171519256396688</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.08450479656756059</v>
+        <v>0.0832978649420691</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.01834364142095236</v>
+        <v>0.02997592756123089</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1911372585463619</v>
+        <v>0.1967567507178393</v>
       </c>
       <c r="F32" t="n">
-        <v>0.004266227144876166</v>
+        <v>0.0637727545262938</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02713564283634472</v>
+        <v>0.003050788459766017</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0100649530860009</v>
+        <v>0.01570991897699605</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03822924385710782</v>
+        <v>0.07720266663236308</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02598981186438901</v>
+        <v>0.00211666618079077</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01274843325825396</v>
+        <v>0.01834505710446346</v>
       </c>
       <c r="L32" t="n">
-        <v>0.06576195882051596</v>
+        <v>0.06186611981096012</v>
       </c>
       <c r="M32" t="n">
-        <v>0.07135056506917756</v>
+        <v>0.06415950241171542</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0001254961675890529</v>
+        <v>0.01052222312745506</v>
       </c>
       <c r="O32" t="n">
-        <v>0.03101270455867753</v>
+        <v>0.03089089065806102</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0606072277422705</v>
+        <v>0.07317790087703409</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.04027748750643351</v>
+        <v>0.06302888506963077</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0792899883462035</v>
+        <v>0.06939466116601142</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0727403858017832</v>
+        <v>0.05319492460564987</v>
       </c>
       <c r="T32" t="n">
-        <v>0.007582412735954535</v>
+        <v>0.008215717398690578</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09160221884847937</v>
+        <v>0.0734168898877189</v>
       </c>
       <c r="V32" t="n">
-        <v>0.002269174557946468</v>
+        <v>0.02106813565281861</v>
       </c>
       <c r="W32" t="n">
-        <v>0.07370377158465667</v>
+        <v>0.06636482844566154</v>
       </c>
       <c r="X32" t="n">
-        <v>0.02910932151859288</v>
+        <v>0.07222928950684225</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01967046226020714</v>
+        <v>0.01164901132998837</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.1071952715082201</v>
+        <v>0.05556229900191492</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.06194689351924187</v>
+        <v>0.0604650388459186</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.06732034740707754</v>
+        <v>0.02459583032325541</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.09594467493010869</v>
+        <v>0.08776827616742577</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2093224885997532</v>
+        <v>0.2169028436368491</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002265423932664921</v>
+        <v>0.0008379533566858035</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01730619450563899</v>
+        <v>0.08141660710462195</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06388693542978342</v>
+        <v>0.006469737753769089</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01538260216005801</v>
+        <v>0.04013107330952239</v>
       </c>
       <c r="J33" t="n">
-        <v>0.09858317274701225</v>
+        <v>0.05927300172187299</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0579832303382971</v>
+        <v>0.006779780493138063</v>
       </c>
       <c r="L33" t="n">
-        <v>0.005771674195010428</v>
+        <v>0.01702789215414623</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04512485525882703</v>
+        <v>0.037373772915191</v>
       </c>
       <c r="N33" t="n">
-        <v>0.007528431930302896</v>
+        <v>0.02800596726032259</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0536724824852561</v>
+        <v>0.01323794190629685</v>
       </c>
       <c r="P33" t="n">
-        <v>0.08409883907800061</v>
+        <v>0.0213977687332055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.05149750814456021</v>
+        <v>0.04560194423661358</v>
       </c>
       <c r="R33" t="n">
-        <v>0.09124198717782832</v>
+        <v>0.08632203434150434</v>
       </c>
       <c r="S33" t="n">
-        <v>0.08772456099573217</v>
+        <v>0.08936421233619049</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01900682946012344</v>
+        <v>0.01473161400847658</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06351419508218487</v>
+        <v>0.0490981653812537</v>
       </c>
       <c r="V33" t="n">
-        <v>0.09795138660117718</v>
+        <v>0.09518226937172961</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01125060846284992</v>
+        <v>0.08418877932673305</v>
       </c>
       <c r="X33" t="n">
-        <v>0.03295269704955674</v>
+        <v>0.05404503384853184</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.004538486775335003</v>
+        <v>0.05794490939552156</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.05254854425969396</v>
+        <v>0.006904291466960769</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.02449008663319632</v>
+        <v>0.01135823007281796</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01167926729691018</v>
+        <v>0.09330701950489409</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1239790670731418</v>
+        <v>0.1107265907508278</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2062093776897902</v>
+        <v>0.207204392397413</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01128462393979159</v>
+        <v>0.004588052282729136</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0284650932239688</v>
+        <v>0.07643440549286709</v>
       </c>
       <c r="H34" t="n">
-        <v>0.07934865657029677</v>
+        <v>0.009669344486068512</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07425519791760837</v>
+        <v>0.03614773373151087</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06593141326206124</v>
+        <v>0.00326966528246764</v>
       </c>
       <c r="K34" t="n">
-        <v>0.001312913980703988</v>
+        <v>0.001654437931637382</v>
       </c>
       <c r="L34" t="n">
-        <v>0.07868798687845749</v>
+        <v>0.08404749316737556</v>
       </c>
       <c r="M34" t="n">
-        <v>0.07694961744216357</v>
+        <v>0.03661199412522828</v>
       </c>
       <c r="N34" t="n">
-        <v>0.003486498726197245</v>
+        <v>0.00928355203970339</v>
       </c>
       <c r="O34" t="n">
-        <v>0.04098686417630455</v>
+        <v>0.08188968458161384</v>
       </c>
       <c r="P34" t="n">
-        <v>0.05629683297647953</v>
+        <v>0.09184011984366255</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0006707065812947254</v>
+        <v>0.07871896642370162</v>
       </c>
       <c r="R34" t="n">
-        <v>0.08527861312866035</v>
+        <v>0.1002749951672913</v>
       </c>
       <c r="S34" t="n">
-        <v>0.07750616295653288</v>
+        <v>0.07440045059454223</v>
       </c>
       <c r="T34" t="n">
-        <v>0.002487985282483729</v>
+        <v>0.03619200512108138</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004640641050136445</v>
+        <v>0.006933562032426435</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01714900480343503</v>
+        <v>0.01715987096821844</v>
       </c>
       <c r="W34" t="n">
-        <v>0.07100513728045516</v>
+        <v>0.06134724154809718</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0847845723586796</v>
+        <v>0.08492190706698265</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.01134213156396422</v>
+        <v>0.005155111868360244</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.02510572427817523</v>
+        <v>0.06487163559698228</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.0722386279654286</v>
+        <v>0.029948122037449</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.03078499365672082</v>
+        <v>0.004639648610002843</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.02230504275212544</v>
+        <v>0.04539576030892353</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.4820247287442911</v>
+        <v>0.4903096804826558</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07034122510941641</v>
+        <v>0.1088180516546789</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01889490922505614</v>
+        <v>0.0463056018572553</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02231380894370332</v>
+        <v>0.05420569614598615</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01201282538826948</v>
+        <v>0.06995012366050994</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03409693040251217</v>
+        <v>0.0003176744265882184</v>
       </c>
       <c r="K35" t="n">
-        <v>0.02651438688604707</v>
+        <v>0.006310522217403578</v>
       </c>
       <c r="L35" t="n">
-        <v>0.002430865801270284</v>
+        <v>0.01586645425149995</v>
       </c>
       <c r="M35" t="n">
-        <v>0.03016173644927873</v>
+        <v>0.0485041565182318</v>
       </c>
       <c r="N35" t="n">
-        <v>0.008019399173109856</v>
+        <v>0.001921434932201995</v>
       </c>
       <c r="O35" t="n">
-        <v>0.01856187053296666</v>
+        <v>0.001034945594933408</v>
       </c>
       <c r="P35" t="n">
-        <v>0.00178519841338151</v>
+        <v>0.09092784596601024</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.009529251990066922</v>
+        <v>0.01635166208097944</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09506630270468616</v>
+        <v>0.01204843567570394</v>
       </c>
       <c r="S35" t="n">
-        <v>0.09113625331467286</v>
+        <v>0.07670705135531598</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02521849379113959</v>
+        <v>0.005298774388372044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09945228322476904</v>
+        <v>0.1014598191561231</v>
       </c>
       <c r="V35" t="n">
-        <v>0.03601668873123307</v>
+        <v>0.04772169934143709</v>
       </c>
       <c r="W35" t="n">
-        <v>0.09947802342576498</v>
+        <v>0.01253762299812323</v>
       </c>
       <c r="X35" t="n">
-        <v>0.09398191563373925</v>
+        <v>0.0193014447136505</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.04673453911465334</v>
+        <v>0.0591408703115275</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.0839330494940201</v>
+        <v>0.1091855382505777</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0007502883903683584</v>
+        <v>0.08399066507518964</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0735697538598744</v>
+        <v>0.01209390942770011</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.02360876836397567</v>
+        <v>0.03150228623555582</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2197020459385843</v>
+        <v>0.2193938357749675</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02205214047577326</v>
+        <v>0.04357840633478251</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05859123024331562</v>
+        <v>0.03222558376126342</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09299774595012104</v>
+        <v>0.06285237512933804</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02478458564406405</v>
+        <v>0.004188948242115258</v>
       </c>
       <c r="J36" t="n">
-        <v>0.004771850315195676</v>
+        <v>0.090822562274195</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01945020300016857</v>
+        <v>0.007610442335005177</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02857253857887613</v>
+        <v>0.01693124571866533</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04007679341340492</v>
+        <v>0.08092541797887906</v>
       </c>
       <c r="N36" t="n">
-        <v>0.002044679382034782</v>
+        <v>0.002215265331829899</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0157580591937596</v>
+        <v>0.01680139827976989</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1088473076065363</v>
+        <v>0.07580596767125228</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02222652104148515</v>
+        <v>0.02214686847881223</v>
       </c>
       <c r="R36" t="n">
-        <v>0.05570128354884828</v>
+        <v>0.0857412761818442</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01680922740070472</v>
+        <v>0.002708268597137009</v>
       </c>
       <c r="T36" t="n">
-        <v>0.04820319633448573</v>
+        <v>0.0309029510615714</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08860809001437643</v>
+        <v>0.02968543205800502</v>
       </c>
       <c r="V36" t="n">
-        <v>0.006711696656822645</v>
+        <v>0.01472901210481306</v>
       </c>
       <c r="W36" t="n">
-        <v>0.09229401714205551</v>
+        <v>0.08349741427505226</v>
       </c>
       <c r="X36" t="n">
-        <v>0.07225295298338268</v>
+        <v>0.09165771430568764</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.009557039341360238</v>
+        <v>0.03822491247298015</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.001111212096898745</v>
+        <v>0.07842871981947842</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.05667454009630935</v>
+        <v>0.07122496746413345</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.1119030895400206</v>
+        <v>0.01709485012338904</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.07094171955934848</v>
+        <v>0.07279564033479483</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2887286988178566</v>
+        <v>0.2708425439260529</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06819888186891992</v>
+        <v>0.09499491535443061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05149496335912121</v>
+        <v>0.01462190523583693</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04477634135972132</v>
+        <v>0.0189795509931566</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1061868248715275</v>
+        <v>0.06343876919765727</v>
       </c>
       <c r="J37" t="n">
-        <v>0.006370080213587839</v>
+        <v>0.0006750146964533035</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05901643243964658</v>
+        <v>0.0812133822106782</v>
       </c>
       <c r="L37" t="n">
-        <v>0.03200757953679811</v>
+        <v>0.05156625214180539</v>
       </c>
       <c r="M37" t="n">
-        <v>0.04589910024112082</v>
+        <v>0.0007815792102583045</v>
       </c>
       <c r="N37" t="n">
-        <v>0.00391191745600471</v>
+        <v>0.0314983062409668</v>
       </c>
       <c r="O37" t="n">
-        <v>0.04430053668771142</v>
+        <v>0.04073042669973862</v>
       </c>
       <c r="P37" t="n">
-        <v>0.05923097009430741</v>
+        <v>0.04326634232554027</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.03581140111538061</v>
+        <v>0.003053730174622894</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1178328806852043</v>
+        <v>0.1034550227991965</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1231212358834092</v>
+        <v>0.09815701267603186</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0096267147095175</v>
+        <v>0.0004780758567634281</v>
       </c>
       <c r="U37" t="n">
-        <v>0.005255846450631951</v>
+        <v>0.02444524885270255</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0156019120925089</v>
+        <v>0.02294218082077185</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02096111506890744</v>
+        <v>0.07398686732503752</v>
       </c>
       <c r="X37" t="n">
-        <v>0.02220363881053249</v>
+        <v>0.03323596132958517</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.006315741127153548</v>
+        <v>0.03601982918284355</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.06544988579227698</v>
+        <v>0.01523893193532157</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0319584891644475</v>
+        <v>0.04594658607014988</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.02446751097156294</v>
+        <v>0.101274108670451</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.04923370905428583</v>
+        <v>0.06352862012912477</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2209433167308802</v>
+        <v>0.2198840445000311</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07709107670717465</v>
+        <v>0.0696444991256646</v>
       </c>
       <c r="G38" t="n">
-        <v>0.007891225584851438</v>
+        <v>0.01943692351021717</v>
       </c>
       <c r="H38" t="n">
-        <v>0.009557813749746194</v>
+        <v>0.03811499394334293</v>
       </c>
       <c r="I38" t="n">
-        <v>0.002305325342201222</v>
+        <v>0.0003560058994792519</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04047544617457599</v>
+        <v>0.0192437717741412</v>
       </c>
       <c r="K38" t="n">
-        <v>0.03519917010676093</v>
+        <v>0.03030346342886188</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0153011528551243</v>
+        <v>0.007472492938403626</v>
       </c>
       <c r="M38" t="n">
-        <v>0.05996232893994906</v>
+        <v>0.03692147823456847</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03827155858387368</v>
+        <v>0.05375026010095574</v>
       </c>
       <c r="O38" t="n">
-        <v>0.02779124772276385</v>
+        <v>0.07529919575364398</v>
       </c>
       <c r="P38" t="n">
-        <v>0.05513268418846846</v>
+        <v>0.08119976851046123</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.08017780027567155</v>
+        <v>0.07077012540942974</v>
       </c>
       <c r="R38" t="n">
-        <v>0.06343963743499324</v>
+        <v>0.05392866607191307</v>
       </c>
       <c r="S38" t="n">
-        <v>0.02451370710353953</v>
+        <v>0.0725225937434683</v>
       </c>
       <c r="T38" t="n">
-        <v>0.05801999290618581</v>
+        <v>0.03916895563888561</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08207223822799885</v>
+        <v>0.07776841905505746</v>
       </c>
       <c r="V38" t="n">
-        <v>0.002985123562598714</v>
+        <v>0.06066793281459217</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02084444860114859</v>
+        <v>0.02043784733560609</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0002756805542702316</v>
+        <v>0.001532287895906486</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1055196018285276</v>
+        <v>0.003267875376102799</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.06246044909785353</v>
+        <v>0.06043422076230812</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.1119272911646784</v>
+        <v>0.06463253237802129</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01878499928704424</v>
+        <v>0.04312569029896865</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.008018583803510983</v>
+        <v>0.02316099129221889</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2599888068219582</v>
+        <v>0.273792775890534</v>
       </c>
       <c r="F39" t="n">
-        <v>0.091419100585782</v>
+        <v>0.06222055434954562</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03839909901897044</v>
+        <v>0.04995472504326737</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01302405712653889</v>
+        <v>0.001410700601150939</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01433411766020456</v>
+        <v>0.01097908133766499</v>
       </c>
       <c r="J39" t="n">
-        <v>0.08845571275860373</v>
+        <v>0.08572371608693129</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06738986492077015</v>
+        <v>0.05435230573743828</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03369080735272181</v>
+        <v>0.08976906889414495</v>
       </c>
       <c r="M39" t="n">
-        <v>0.01843353460718811</v>
+        <v>0.04219927501690692</v>
       </c>
       <c r="N39" t="n">
-        <v>0.02614696189841548</v>
+        <v>0.02769638474164048</v>
       </c>
       <c r="O39" t="n">
-        <v>0.08673288233137158</v>
+        <v>0.09009796780241429</v>
       </c>
       <c r="P39" t="n">
-        <v>0.07431431183384016</v>
+        <v>0.0005963944864103613</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01444616860810297</v>
+        <v>0.008253637518845707</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02125241339031284</v>
+        <v>0.01269276778125397</v>
       </c>
       <c r="S39" t="n">
-        <v>0.06172023414231319</v>
+        <v>0.02832001644080465</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02254141733213615</v>
+        <v>0.04021380009033256</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06474495138300339</v>
+        <v>0.1120947042508524</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0173848622641277</v>
+        <v>0.01673272608572076</v>
       </c>
       <c r="W39" t="n">
-        <v>0.03635954659458649</v>
+        <v>0.01415641565057398</v>
       </c>
       <c r="X39" t="n">
-        <v>0.05167721224561516</v>
+        <v>0.02595108866927171</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.01799023411749317</v>
+        <v>0.09914724774895753</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.1005446622991617</v>
+        <v>0.004758402263606999</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.005230031662089167</v>
+        <v>0.0288219788038875</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.03376781586665113</v>
+        <v>0.09385704059837686</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.03161579224514264</v>
+        <v>0.006397086235182236</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2300558093070559</v>
+        <v>0.231188116580533</v>
       </c>
       <c r="F40" t="n">
-        <v>0.009257830976037959</v>
+        <v>3.260287077369001e-05</v>
       </c>
       <c r="G40" t="n">
-        <v>0.003673168069506571</v>
+        <v>0.05009559625778502</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03920882524555298</v>
+        <v>0.05652743683672964</v>
       </c>
       <c r="I40" t="n">
-        <v>0.008424564095099736</v>
+        <v>0.0199433273550337</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01611954569929073</v>
+        <v>0.0211869183790843</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02906304947442176</v>
+        <v>0.0451187075365582</v>
       </c>
       <c r="L40" t="n">
-        <v>0.004929408031307225</v>
+        <v>0.05038844892448412</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06869080575887038</v>
+        <v>0.0519837088718911</v>
       </c>
       <c r="N40" t="n">
-        <v>0.03083435872705849</v>
+        <v>0.01892411138018997</v>
       </c>
       <c r="O40" t="n">
-        <v>0.06880934997483568</v>
+        <v>0.05575207761830729</v>
       </c>
       <c r="P40" t="n">
-        <v>0.03572750877833587</v>
+        <v>0.03515981210052669</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.06095822409131901</v>
+        <v>0.01517236585879552</v>
       </c>
       <c r="R40" t="n">
-        <v>0.07214528822076435</v>
+        <v>0.1038921307170408</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0766054614226542</v>
+        <v>0.1061368855011913</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0243043876023128</v>
+        <v>0.04065803828655041</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0655061201779441</v>
+        <v>0.003677942407341974</v>
       </c>
       <c r="V40" t="n">
-        <v>0.06884980804282971</v>
+        <v>0.02208167553069808</v>
       </c>
       <c r="W40" t="n">
-        <v>0.004421158125029154</v>
+        <v>0.007499205114557266</v>
       </c>
       <c r="X40" t="n">
-        <v>0.06066384442954915</v>
+        <v>0.06410882703486555</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.04187697928480393</v>
+        <v>0.0420448763518164</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.066945644232437</v>
+        <v>0.09553647642178566</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.06030275928347208</v>
+        <v>0.08602534535292092</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.08268191025656722</v>
+        <v>0.008053483291072279</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.005188311048994695</v>
+        <v>0.0005753516362875627</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2876590131793624</v>
+        <v>0.2971663552416153</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001701794339907925</v>
+        <v>0.00783468173058385</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03160235709016526</v>
+        <v>0.03817192253041079</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08460601980134227</v>
+        <v>0.0002043450062325501</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08620313027708557</v>
+        <v>0.09370573705987166</v>
       </c>
       <c r="J41" t="n">
-        <v>0.04312595736340558</v>
+        <v>0.01700598486163581</v>
       </c>
       <c r="K41" t="n">
-        <v>0.06251164344769579</v>
+        <v>0.06823027667869908</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0897676879443861</v>
+        <v>0.06597814309856503</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0297951687963669</v>
+        <v>0.001173227217120979</v>
       </c>
       <c r="N41" t="n">
-        <v>0.002951713985406044</v>
+        <v>0.01263510396850124</v>
       </c>
       <c r="O41" t="n">
-        <v>0.05061235523040323</v>
+        <v>0.04260420722325984</v>
       </c>
       <c r="P41" t="n">
-        <v>0.005528193003213686</v>
+        <v>0.04894084951854598</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.03140531003637252</v>
+        <v>0.04591382350031453</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0994266063858566</v>
+        <v>0.03307505269024456</v>
       </c>
       <c r="S41" t="n">
-        <v>0.04310314539085474</v>
+        <v>0.02114808436580841</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0005478679616779965</v>
+        <v>0.005313911449491758</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04194970105928656</v>
+        <v>0.004497536053362878</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01012447373062046</v>
+        <v>0.07375224775550665</v>
       </c>
       <c r="W41" t="n">
-        <v>0.1011969703546041</v>
+        <v>0.0879962959367968</v>
       </c>
       <c r="X41" t="n">
-        <v>0.09008468091071783</v>
+        <v>0.09588858453151053</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.07050853777723173</v>
+        <v>0.09370604424444294</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.01097753099964239</v>
+        <v>0.03637231090996618</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0108272394394894</v>
+        <v>0.04343813704602306</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.001441914674267246</v>
+        <v>0.06241349262310505</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.004358372004143806</v>
+        <v>0.009819843068733552</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.192064402221985</v>
+        <v>0.1904774987573204</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04741057791979747</v>
+        <v>0.03942550083962389</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01809681319763365</v>
+        <v>0.006396829759625126</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06017803153617041</v>
+        <v>0.0932325574237409</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1033535694897311</v>
+        <v>0.04852864053203934</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0289036634633328</v>
+        <v>0.005290495233869375</v>
       </c>
       <c r="K42" t="n">
-        <v>0.04292146904337017</v>
+        <v>0.002083374787167274</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02804785815620892</v>
+        <v>0.01949438135329444</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0464520524878718</v>
+        <v>0.09441706214355887</v>
       </c>
       <c r="N42" t="n">
-        <v>0.04858854604700162</v>
+        <v>0.08969831941392742</v>
       </c>
       <c r="O42" t="n">
-        <v>0.004134628345549166</v>
+        <v>0.0302755624266974</v>
       </c>
       <c r="P42" t="n">
-        <v>0.08277837114769672</v>
+        <v>0.09561630356611525</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01730820187725099</v>
+        <v>0.04032586262605663</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1057470540039768</v>
+        <v>0.09783257321889377</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1058939474407473</v>
+        <v>0.07521074271157166</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01633066077399896</v>
+        <v>0.01131262730191438</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02020040325030423</v>
+        <v>0.04844159281379647</v>
       </c>
       <c r="V42" t="n">
-        <v>0.027832078555992</v>
+        <v>0.006323470071729687</v>
       </c>
       <c r="W42" t="n">
-        <v>0.009375037188391428</v>
+        <v>0.03230185160794623</v>
       </c>
       <c r="X42" t="n">
-        <v>0.02921906701702972</v>
+        <v>0.04507017128614935</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.03474173838121822</v>
+        <v>0.007770994655403552</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.08458596321137478</v>
+        <v>0.05405552905180953</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.01548669412363019</v>
+        <v>0.05406418935619573</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.02241357334172157</v>
+        <v>0.002831367818873779</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1463651917598372</v>
+        <v>0.1322269571980616</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2054647089560354</v>
+        <v>0.2128102065705403</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08654264309617088</v>
+        <v>0.09032874530195364</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02544092045094234</v>
+        <v>0.0215299442424799</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07198851307856603</v>
+        <v>0.04603029777841647</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1001940895164295</v>
+        <v>0.09489077900259446</v>
       </c>
       <c r="J43" t="n">
-        <v>0.03763473365319925</v>
+        <v>0.02634964803907602</v>
       </c>
       <c r="K43" t="n">
-        <v>0.05400468743105632</v>
+        <v>0.03170238879399639</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03219096205417447</v>
+        <v>0.06679383733828992</v>
       </c>
       <c r="M43" t="n">
-        <v>0.03789619986815351</v>
+        <v>0.0333203137579282</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01918719074230418</v>
+        <v>0.04632540505220328</v>
       </c>
       <c r="O43" t="n">
-        <v>0.04384515206441914</v>
+        <v>0.02856202233050943</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01411316895282312</v>
+        <v>0.005345868652042599</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01950481605874367</v>
+        <v>0.006283425770626432</v>
       </c>
       <c r="R43" t="n">
-        <v>0.04861756222784498</v>
+        <v>0.01206652768385251</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08411779461768741</v>
+        <v>0.0979493574243749</v>
       </c>
       <c r="T43" t="n">
-        <v>0.02283124932291058</v>
+        <v>0.04105852969511228</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01765870073637831</v>
+        <v>0.09248921008493825</v>
       </c>
       <c r="V43" t="n">
-        <v>0.001345981401319849</v>
+        <v>0.0009692981624002815</v>
       </c>
       <c r="W43" t="n">
-        <v>0.03546513605056379</v>
+        <v>0.09446843717369412</v>
       </c>
       <c r="X43" t="n">
-        <v>0.06911863656320848</v>
+        <v>0.06391764020787701</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0418552912512495</v>
+        <v>0.01899612936428808</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.05568251587270803</v>
+        <v>0.01973855535793204</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.07235673620191903</v>
+        <v>0.05309695239302604</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.008407318787227995</v>
+        <v>0.007786686392387849</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.153582364881957</v>
+        <v>0.1449752262303823</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1637370569806458</v>
+        <v>0.1671123373289137</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05249285615526576</v>
+        <v>0.0008889517173097532</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01936289937311053</v>
+        <v>0.07116395896628878</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07380915433306139</v>
+        <v>0.09520078935234452</v>
       </c>
       <c r="I44" t="n">
-        <v>0.007895162891057459</v>
+        <v>0.01356325068962435</v>
       </c>
       <c r="J44" t="n">
-        <v>0.003055646705200792</v>
+        <v>0.01255747446724804</v>
       </c>
       <c r="K44" t="n">
-        <v>0.04359922302724125</v>
+        <v>0.0607308294636028</v>
       </c>
       <c r="L44" t="n">
-        <v>0.05804073281114943</v>
+        <v>0.05839320682495264</v>
       </c>
       <c r="M44" t="n">
-        <v>0.08279895202469591</v>
+        <v>0.03513993642252258</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0167600924845538</v>
+        <v>0.0002599599517675337</v>
       </c>
       <c r="O44" t="n">
-        <v>0.01538205564879618</v>
+        <v>0.002143156910052789</v>
       </c>
       <c r="P44" t="n">
-        <v>0.04716321065353451</v>
+        <v>0.03067191585518116</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.007236429764085007</v>
+        <v>0.03446846722676385</v>
       </c>
       <c r="R44" t="n">
-        <v>0.06173209813751809</v>
+        <v>0.06442314736267632</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0730803446737259</v>
+        <v>0.08849106053824998</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0136295649777818</v>
+        <v>0.04992070047146597</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08601996850845242</v>
+        <v>0.1006044953160087</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01741636952462998</v>
+        <v>0.02863452175113257</v>
       </c>
       <c r="W44" t="n">
-        <v>0.08238800822608552</v>
+        <v>0.02496964449458001</v>
       </c>
       <c r="X44" t="n">
-        <v>0.04937356339280546</v>
+        <v>0.03252360924386895</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.07671159275660774</v>
+        <v>0.01690559822137759</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.07240081877126758</v>
+        <v>0.1016785082018308</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.02740869015611189</v>
+        <v>0.04176858207014481</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.01224256500326174</v>
+        <v>0.03489823448100569</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.009795153487373967</v>
+        <v>0.009475087163798891</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.233828240667501</v>
+        <v>0.2421144258582628</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01080464294942625</v>
+        <v>0.005858858813456938</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09052830804793782</v>
+        <v>0.0607297825153177</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03687700780399598</v>
+        <v>0.01029668325432415</v>
       </c>
       <c r="I45" t="n">
-        <v>0.07594735908562947</v>
+        <v>0.0816632293781246</v>
       </c>
       <c r="J45" t="n">
-        <v>0.05337751710074797</v>
+        <v>0.004209220595703498</v>
       </c>
       <c r="K45" t="n">
-        <v>0.06734995091776476</v>
+        <v>0.09586790678920856</v>
       </c>
       <c r="L45" t="n">
-        <v>0.08109681740563181</v>
+        <v>0.09746485573500761</v>
       </c>
       <c r="M45" t="n">
-        <v>0.06827451169965965</v>
+        <v>0.01712104342721568</v>
       </c>
       <c r="N45" t="n">
-        <v>0.007374670057146755</v>
+        <v>0.04219597417484896</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0540909611032755</v>
+        <v>0.06475024517993636</v>
       </c>
       <c r="P45" t="n">
-        <v>0.02090372071819704</v>
+        <v>0.06046292411224716</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01435314451951989</v>
+        <v>0.01987833639305834</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0004254039156466103</v>
+        <v>0.009981532560760082</v>
       </c>
       <c r="S45" t="n">
-        <v>0.05625939430732613</v>
+        <v>0.004436311044799088</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0007266819377561536</v>
+        <v>0.01967947924106528</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0672404111899661</v>
+        <v>0.09065098275685944</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0623785090095915</v>
+        <v>0.01954696298856637</v>
       </c>
       <c r="W45" t="n">
-        <v>0.08059740174372727</v>
+        <v>0.04505112242319612</v>
       </c>
       <c r="X45" t="n">
-        <v>0.05183082042800852</v>
+        <v>0.06075169153377594</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.003900335468682406</v>
+        <v>0.002053747325022173</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.01175847867832234</v>
+        <v>0.1001397432797396</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.06620058652300284</v>
+        <v>0.0140800572698135</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.01770336538903729</v>
+        <v>0.07312930920795274</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.00595435246534652</v>
+        <v>0.005084800236594285</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1588495354908731</v>
+        <v>0.156534625072217</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09186960929665169</v>
+        <v>0.09239380285275219</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02606192676992356</v>
+        <v>0.08171165443211861</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01371937705602453</v>
+        <v>0.006389472260510385</v>
       </c>
       <c r="I46" t="n">
-        <v>0.003225964767295884</v>
+        <v>0.001506916422233133</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1099561537312101</v>
+        <v>0.04403092351737006</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01105610284398534</v>
+        <v>0.0002107553181547301</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01020947646676357</v>
+        <v>0.0270192997233383</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01142946336668833</v>
+        <v>0.01257258065151477</v>
       </c>
       <c r="N46" t="n">
-        <v>0.07353171670370293</v>
+        <v>0.08761935163166011</v>
       </c>
       <c r="O46" t="n">
-        <v>0.05843444178331614</v>
+        <v>0.07689142514539443</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1086396602436172</v>
+        <v>0.03423232521199837</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.04015027541806521</v>
+        <v>0.07416600425435564</v>
       </c>
       <c r="R46" t="n">
-        <v>0.08646107042226359</v>
+        <v>0.1074037242882853</v>
       </c>
       <c r="S46" t="n">
-        <v>0.07981481750392012</v>
+        <v>0.051477539349351</v>
       </c>
       <c r="T46" t="n">
-        <v>0.007211839036983402</v>
+        <v>0.0002328602454577544</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0001976273631827532</v>
+        <v>0.004102734281326815</v>
       </c>
       <c r="V46" t="n">
-        <v>0.0004461919304309575</v>
+        <v>0.00917694885969674</v>
       </c>
       <c r="W46" t="n">
-        <v>0.04750642431883857</v>
+        <v>0.09501832967280456</v>
       </c>
       <c r="X46" t="n">
-        <v>0.07345518635167277</v>
+        <v>0.03205561100035915</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.07975654751084969</v>
+        <v>0.1085068735784157</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.01054897099200585</v>
+        <v>0.03854721360993848</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.05609997450247545</v>
+        <v>0.0001621053171896035</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.0002171816201322664</v>
+        <v>0.01457154837577427</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.02640050117202174</v>
+        <v>-0.01057402027488038</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1698078796209535</v>
+        <v>0.1927256947131526</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08201677009367654</v>
+        <v>0.05549196841772258</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05863877665333723</v>
+        <v>0.01003996835836725</v>
       </c>
       <c r="H47" t="n">
-        <v>0.006722120549828439</v>
+        <v>0.006116394007013968</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07520707804805699</v>
+        <v>0.06825072920457537</v>
       </c>
       <c r="J47" t="n">
-        <v>0.06889020115409507</v>
+        <v>0.04429573124567227</v>
       </c>
       <c r="K47" t="n">
-        <v>0.02887421855116388</v>
+        <v>0.07956558847909434</v>
       </c>
       <c r="L47" t="n">
-        <v>0.08119061948585139</v>
+        <v>0.08917154622985494</v>
       </c>
       <c r="M47" t="n">
-        <v>0.02160446105289755</v>
+        <v>0.03677475226163247</v>
       </c>
       <c r="N47" t="n">
-        <v>0.04512478606928733</v>
+        <v>0.02432815170690356</v>
       </c>
       <c r="O47" t="n">
-        <v>0.06291909497353951</v>
+        <v>0.06906361249677639</v>
       </c>
       <c r="P47" t="n">
-        <v>0.04115386546737614</v>
+        <v>0.06766769089928676</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.02119118788986274</v>
+        <v>0.01377045871233037</v>
       </c>
       <c r="R47" t="n">
-        <v>0.06167276782890464</v>
+        <v>0.01772359135268999</v>
       </c>
       <c r="S47" t="n">
-        <v>0.07932144494173167</v>
+        <v>0.02359596575197781</v>
       </c>
       <c r="T47" t="n">
-        <v>0.01616925970197215</v>
+        <v>0.05495069784954106</v>
       </c>
       <c r="U47" t="n">
-        <v>0.08139827777701589</v>
+        <v>0.08900721186583878</v>
       </c>
       <c r="V47" t="n">
-        <v>0.01217184458390996</v>
+        <v>0.009654713951320046</v>
       </c>
       <c r="W47" t="n">
-        <v>0.07644472614799468</v>
+        <v>0.06365643333639301</v>
       </c>
       <c r="X47" t="n">
-        <v>0.00537440785881909</v>
+        <v>0.05481103874133635</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.01594712139036493</v>
+        <v>0.03908203992501215</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0110548296877631</v>
+        <v>0.01313429260704223</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.03435369103842127</v>
+        <v>0.06427605633369046</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.01255844905412978</v>
+        <v>0.005571366265927799</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.02118437556347055</v>
+        <v>-0.02601085296065285</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1251651975688976</v>
+        <v>0.1238179365723642</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08736661129622532</v>
+        <v>0.04164256898616325</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02630321208522317</v>
+        <v>0.0868236153398944</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0254425280077528</v>
+        <v>0.03284267894516776</v>
       </c>
       <c r="I48" t="n">
-        <v>0.09782983851962528</v>
+        <v>0.06237146825311048</v>
       </c>
       <c r="J48" t="n">
-        <v>0.03867710166929515</v>
+        <v>0.008898629466793064</v>
       </c>
       <c r="K48" t="n">
-        <v>0.003854408877060727</v>
+        <v>0.006047382178373307</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02186739379770795</v>
+        <v>0.01389633440469633</v>
       </c>
       <c r="M48" t="n">
-        <v>0.02799470653872397</v>
+        <v>0.06733799846853428</v>
       </c>
       <c r="N48" t="n">
-        <v>0.002063802204001242</v>
+        <v>0.01340461255914628</v>
       </c>
       <c r="O48" t="n">
-        <v>0.01240263348536471</v>
+        <v>0.001835721130195889</v>
       </c>
       <c r="P48" t="n">
-        <v>0.04911839828530504</v>
+        <v>0.02794250796295547</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.03598259994868949</v>
+        <v>0.04624860838426827</v>
       </c>
       <c r="R48" t="n">
-        <v>0.08640083579826288</v>
+        <v>0.09395139567028619</v>
       </c>
       <c r="S48" t="n">
-        <v>0.08249687240940796</v>
+        <v>0.06221501010309664</v>
       </c>
       <c r="T48" t="n">
-        <v>0.009761071201514917</v>
+        <v>0.01537126167744301</v>
       </c>
       <c r="U48" t="n">
-        <v>0.07548708366382766</v>
+        <v>0.07355137358956285</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0209029295714481</v>
+        <v>0.01502790329452324</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0828628098712386</v>
+        <v>0.03860952521844369</v>
       </c>
       <c r="X48" t="n">
-        <v>0.08807548901251615</v>
+        <v>0.08299191249604365</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.06062726364797849</v>
+        <v>0.02460758199439131</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.007725289836941289</v>
+        <v>0.06558514691729879</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.007893926737186469</v>
+        <v>0.06714058544617692</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.0488631935347025</v>
+        <v>0.0516561775134349</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.07062781936321999</v>
+        <v>0.06111628288279508</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.166383561551104</v>
+        <v>0.1620737848207607</v>
       </c>
       <c r="F49" t="n">
-        <v>0.061387823797479</v>
+        <v>0.03790046677025271</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02019541215217204</v>
+        <v>0.001072528011898083</v>
       </c>
       <c r="H49" t="n">
-        <v>0.009711461785270256</v>
+        <v>0.0009901729658830455</v>
       </c>
       <c r="I49" t="n">
-        <v>0.08545518440375627</v>
+        <v>0.08964060531075956</v>
       </c>
       <c r="J49" t="n">
-        <v>0.05783962677843531</v>
+        <v>0.07335592719778965</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04810988464899649</v>
+        <v>0.04476364647028942</v>
       </c>
       <c r="L49" t="n">
-        <v>0.07858488529054471</v>
+        <v>0.08221521211416813</v>
       </c>
       <c r="M49" t="n">
-        <v>0.06569009916691575</v>
+        <v>0.09446692312635971</v>
       </c>
       <c r="N49" t="n">
-        <v>0.02740897188513544</v>
+        <v>0.03614247619625163</v>
       </c>
       <c r="O49" t="n">
-        <v>0.06272716642953584</v>
+        <v>0.0559359649525628</v>
       </c>
       <c r="P49" t="n">
-        <v>0.08175526564297914</v>
+        <v>0.07062284553194169</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.03144616754896973</v>
+        <v>0.01054717097444819</v>
       </c>
       <c r="R49" t="n">
-        <v>0.005483651377688559</v>
+        <v>0.01668923002125515</v>
       </c>
       <c r="S49" t="n">
-        <v>0.02137804681044047</v>
+        <v>0.03067407631557903</v>
       </c>
       <c r="T49" t="n">
-        <v>0.02557526575656487</v>
+        <v>0.06542402163531227</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0903927989569653</v>
+        <v>0.0779334786504656</v>
       </c>
       <c r="V49" t="n">
-        <v>0.02796318337070134</v>
+        <v>0.007416248952250501</v>
       </c>
       <c r="W49" t="n">
-        <v>0.05757780226507664</v>
+        <v>0.04534688968648463</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0672607392882405</v>
+        <v>0.04345890015316083</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0317787460441822</v>
+        <v>0.002192716237206853</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0007141812026502107</v>
+        <v>0.05814720104725629</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.03272802583424918</v>
+        <v>0.03754162189136453</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.008835609563050628</v>
+        <v>0.01752167578705985</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.06883108472974149</v>
+        <v>0.07175347568865321</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1429820084809033</v>
+        <v>0.1423352382782994</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06018056213073546</v>
+        <v>0.05624226887204767</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03167440277023001</v>
+        <v>0.08037234621516795</v>
       </c>
       <c r="H50" t="n">
-        <v>0.04123365040096099</v>
+        <v>0.0009265556681853278</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01916759329416663</v>
+        <v>0.01272851006467781</v>
       </c>
       <c r="J50" t="n">
-        <v>0.05948458999142273</v>
+        <v>0.01254105354869601</v>
       </c>
       <c r="K50" t="n">
-        <v>0.009626341247898367</v>
+        <v>0.001029490584291999</v>
       </c>
       <c r="L50" t="n">
-        <v>0.03422727310008512</v>
+        <v>0.03066007507591252</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06399627241721088</v>
+        <v>0.09028880881723909</v>
       </c>
       <c r="N50" t="n">
-        <v>0.07583509621589049</v>
+        <v>0.06997536679008931</v>
       </c>
       <c r="O50" t="n">
-        <v>0.02704112393963527</v>
+        <v>0.05471990245202191</v>
       </c>
       <c r="P50" t="n">
-        <v>0.02789177237009745</v>
+        <v>0.009787547106004754</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.05418345124461092</v>
+        <v>0.03661465435705499</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0009808483276957406</v>
+        <v>0.001905622785391695</v>
       </c>
       <c r="S50" t="n">
-        <v>0.03845729549862714</v>
+        <v>0.06449592220387218</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0672261201566958</v>
+        <v>0.03503487488833789</v>
       </c>
       <c r="U50" t="n">
-        <v>0.06561188897602203</v>
+        <v>0.09091114071886007</v>
       </c>
       <c r="V50" t="n">
-        <v>0.02873322337863216</v>
+        <v>0.05239980752790456</v>
       </c>
       <c r="W50" t="n">
-        <v>0.07078305110077249</v>
+        <v>0.03452025154991754</v>
       </c>
       <c r="X50" t="n">
-        <v>0.03747942264007953</v>
+        <v>0.0730989196886709</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.06983309038106064</v>
+        <v>0.04831825398053081</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.07882629790117086</v>
+        <v>0.07102367215815437</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.0292668566559569</v>
+        <v>0.06770136359113464</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.008259775860342327</v>
+        <v>0.004703591355836228</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1448749779567276</v>
+        <v>0.1364161820132598</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.4142495442801977</v>
+        <v>0.498112000483838</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0256888678187424</v>
+        <v>0.01017871437738778</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08337442426529681</v>
+        <v>0.01347669256248686</v>
       </c>
       <c r="H51" t="n">
-        <v>0.007531445292924913</v>
+        <v>0.06687288346900433</v>
       </c>
       <c r="I51" t="n">
-        <v>0.09573373082352157</v>
+        <v>0.1189860512249083</v>
       </c>
       <c r="J51" t="n">
-        <v>0.08196936225683264</v>
+        <v>0.001298839634381235</v>
       </c>
       <c r="K51" t="n">
-        <v>0.05730559884325395</v>
+        <v>0.07110622384991669</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01737377197440692</v>
+        <v>0.01998701507916409</v>
       </c>
       <c r="M51" t="n">
-        <v>0.06062250024572897</v>
+        <v>0.07335845866069972</v>
       </c>
       <c r="N51" t="n">
-        <v>0.01348558632907375</v>
+        <v>0.05430959849480017</v>
       </c>
       <c r="O51" t="n">
-        <v>0.01280970520734889</v>
+        <v>0.06242081075026425</v>
       </c>
       <c r="P51" t="n">
-        <v>0.06080266448277884</v>
+        <v>0.01262738595838203</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01675154402143842</v>
+        <v>0.05774534703388539</v>
       </c>
       <c r="R51" t="n">
-        <v>0.09233506256875547</v>
+        <v>0.1129806473384348</v>
       </c>
       <c r="S51" t="n">
-        <v>0.06382319051259418</v>
+        <v>0.02870048004919929</v>
       </c>
       <c r="T51" t="n">
-        <v>0.07179676992428595</v>
+        <v>0.01879083486086333</v>
       </c>
       <c r="U51" t="n">
-        <v>0.03348634182016368</v>
+        <v>0.1000678656357505</v>
       </c>
       <c r="V51" t="n">
-        <v>0.09090146229788533</v>
+        <v>0.0509241739644609</v>
       </c>
       <c r="W51" t="n">
-        <v>0.008386041850564008</v>
+        <v>0.006282803453481881</v>
       </c>
       <c r="X51" t="n">
-        <v>0.01887891093537302</v>
+        <v>0.01965174686829696</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.005968860849492616</v>
+        <v>0.02167503579539496</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.03061669654408186</v>
+        <v>0.01679320833788365</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.03037060275473686</v>
+        <v>0.05813876060100927</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.01998685838071897</v>
+        <v>0.003626421999943443</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1725394447368766</v>
+        <v>0.1529660957478109</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1986521653975441</v>
+        <v>0.1988866832765533</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08260917116442031</v>
+        <v>0.04040374915279131</v>
       </c>
       <c r="G52" t="n">
-        <v>0.004361566831208284</v>
+        <v>0.007141504486840905</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1030937000772205</v>
+        <v>0.01011323429164987</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0181894118645893</v>
+        <v>0.01404430864226687</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02293829254919409</v>
+        <v>0.02738592477928168</v>
       </c>
       <c r="K52" t="n">
-        <v>0.005000831334146896</v>
+        <v>0.08913430038891347</v>
       </c>
       <c r="L52" t="n">
-        <v>0.03785896562762714</v>
+        <v>0.04936308393387355</v>
       </c>
       <c r="M52" t="n">
-        <v>0.08214124211501914</v>
+        <v>0.03251029611695829</v>
       </c>
       <c r="N52" t="n">
-        <v>0.03950008489367728</v>
+        <v>0.0001456115312249392</v>
       </c>
       <c r="O52" t="n">
-        <v>0.001697428276765019</v>
+        <v>0.07208179565395016</v>
       </c>
       <c r="P52" t="n">
-        <v>0.01780594111925866</v>
+        <v>0.04951976297717249</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.03236387794101626</v>
+        <v>0.04148987395681628</v>
       </c>
       <c r="R52" t="n">
-        <v>0.00471342029653913</v>
+        <v>0.002299691136326951</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06086108640883889</v>
+        <v>0.09028300101406847</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0007621746092573684</v>
+        <v>0.0003491069375026031</v>
       </c>
       <c r="U52" t="n">
-        <v>0.03922457532225869</v>
+        <v>0.008836758209628086</v>
       </c>
       <c r="V52" t="n">
-        <v>0.09102161688277126</v>
+        <v>0.09099771767357395</v>
       </c>
       <c r="W52" t="n">
-        <v>0.07008382050769435</v>
+        <v>0.07164035356199598</v>
       </c>
       <c r="X52" t="n">
-        <v>0.04335695971937527</v>
+        <v>0.03302193773000608</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.06173253178246042</v>
+        <v>0.1027720088707101</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.05397213117569365</v>
+        <v>0.08818249806370027</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.06296424671523795</v>
+        <v>0.02997389411257014</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.06374692278572995</v>
+        <v>0.04830958677817784</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1719612499359745</v>
+        <v>-0.1880782984102244</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.4575273206702298</v>
+        <v>0.4846523342223643</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01576775044777202</v>
+        <v>0.001435944647230148</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02976304855924821</v>
+        <v>0.01321004026102366</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01393301200670283</v>
+        <v>0.0584988088854583</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01225883931338521</v>
+        <v>0.06689761948959151</v>
       </c>
       <c r="J53" t="n">
-        <v>0.002483062189457267</v>
+        <v>0.04767488195483625</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1004517522428205</v>
+        <v>0.0828646903549211</v>
       </c>
       <c r="L53" t="n">
-        <v>0.01778819569918905</v>
+        <v>0.08835905309387052</v>
       </c>
       <c r="M53" t="n">
-        <v>0.09273987068959541</v>
+        <v>0.02926620478957845</v>
       </c>
       <c r="N53" t="n">
-        <v>0.09365597246658668</v>
+        <v>0.01488099632678806</v>
       </c>
       <c r="O53" t="n">
-        <v>0.1107464874104499</v>
+        <v>0.03392676309713091</v>
       </c>
       <c r="P53" t="n">
-        <v>0.02781077147502537</v>
+        <v>0.05563924550689577</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02591216535487078</v>
+        <v>0.003230715014657634</v>
       </c>
       <c r="R53" t="n">
-        <v>0.09962499341243763</v>
+        <v>0.08530388679858386</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1087996296252022</v>
+        <v>0.06545969586450574</v>
       </c>
       <c r="T53" t="n">
-        <v>0.0116373055456028</v>
+        <v>0.01225945770668444</v>
       </c>
       <c r="U53" t="n">
-        <v>0.01587267109101825</v>
+        <v>0.03127020665718973</v>
       </c>
       <c r="V53" t="n">
-        <v>0.04891130264246379</v>
+        <v>0.07322572474182117</v>
       </c>
       <c r="W53" t="n">
-        <v>0.07259377746307311</v>
+        <v>0.07174968177866066</v>
       </c>
       <c r="X53" t="n">
-        <v>0.05405131018913256</v>
+        <v>0.08015239449515936</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.006266612692784237</v>
+        <v>0.003105259639820627</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.02549999382003742</v>
+        <v>0.01596250028402961</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.01108735716158027</v>
+        <v>0.05164652953548805</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.002344118501564562</v>
+        <v>0.01397969907607449</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.1118045828806797</v>
+        <v>-0.1397260522627475</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1604836520257657</v>
+        <v>0.1622133086106584</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04888973362046013</v>
+        <v>0.06326194454545947</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09210220942917015</v>
+        <v>0.07852698992950745</v>
       </c>
       <c r="H54" t="n">
-        <v>0.007829004121667364</v>
+        <v>0.05019281421883703</v>
       </c>
       <c r="I54" t="n">
-        <v>0.008752282422325628</v>
+        <v>0.001432744685705447</v>
       </c>
       <c r="J54" t="n">
-        <v>0.02803206766153872</v>
+        <v>0.0005269676018071902</v>
       </c>
       <c r="K54" t="n">
-        <v>0.08393370816550166</v>
+        <v>0.100576067170771</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002486182584781608</v>
+        <v>0.006332852952393085</v>
       </c>
       <c r="M54" t="n">
-        <v>0.07440187116657164</v>
+        <v>0.08166810483988696</v>
       </c>
       <c r="N54" t="n">
-        <v>0.04681384205009707</v>
+        <v>0.008614596455294969</v>
       </c>
       <c r="O54" t="n">
-        <v>0.07008909398854681</v>
+        <v>0.05948941956447638</v>
       </c>
       <c r="P54" t="n">
-        <v>0.02007575996947078</v>
+        <v>0.02679823653101886</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.03063701512003982</v>
+        <v>0.01337105828544659</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06761177038560273</v>
+        <v>0.0453801438726883</v>
       </c>
       <c r="S54" t="n">
-        <v>0.009171588978003541</v>
+        <v>0.0107565526802152</v>
       </c>
       <c r="T54" t="n">
-        <v>0.08256950444828216</v>
+        <v>0.09430658682518349</v>
       </c>
       <c r="U54" t="n">
-        <v>0.08464250595337799</v>
+        <v>0.02829228745514611</v>
       </c>
       <c r="V54" t="n">
-        <v>0.03321418766454128</v>
+        <v>0.003704581785705228</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0265134553290597</v>
+        <v>0.02299252180907208</v>
       </c>
       <c r="X54" t="n">
-        <v>0.08684745651859035</v>
+        <v>0.09318634676733671</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.008747944483408017</v>
+        <v>0.006384265346164742</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.04269915606182681</v>
+        <v>0.09907544066477884</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.03547915585446861</v>
+        <v>0.04271543225399163</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.008460504022667176</v>
+        <v>0.06241404375911324</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.1199762213292631</v>
+        <v>0.1117980072647329</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1882586224867063</v>
+        <v>0.1804362760617934</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03855967171547516</v>
+        <v>0.006238227135967233</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03457062916505639</v>
+        <v>0.05969581442268387</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07032824550125699</v>
+        <v>0.004220421920499124</v>
       </c>
       <c r="I55" t="n">
-        <v>0.06996882686534599</v>
+        <v>0.03228737234661547</v>
       </c>
       <c r="J55" t="n">
-        <v>0.02294498819263361</v>
+        <v>0.04079439636682873</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02791248741345678</v>
+        <v>0.08639196624754734</v>
       </c>
       <c r="L55" t="n">
-        <v>0.03171390125600662</v>
+        <v>0.05258584662852797</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1105712761440121</v>
+        <v>0.09235107992588953</v>
       </c>
       <c r="N55" t="n">
-        <v>0.03715512135405544</v>
+        <v>0.03209718333973231</v>
       </c>
       <c r="O55" t="n">
-        <v>0.007245113188881606</v>
+        <v>0.02267795563018233</v>
       </c>
       <c r="P55" t="n">
-        <v>0.01513388389931463</v>
+        <v>0.06024666524309311</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.03018940033942241</v>
+        <v>0.04175350464894122</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1166899855181108</v>
+        <v>0.09495660052687735</v>
       </c>
       <c r="S55" t="n">
-        <v>0.04428560875350842</v>
+        <v>0.04108516232125985</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03713278584737871</v>
+        <v>0.006941998164660728</v>
       </c>
       <c r="U55" t="n">
-        <v>0.09153141123611483</v>
+        <v>0.06693410884032978</v>
       </c>
       <c r="V55" t="n">
-        <v>0.02031077665752168</v>
+        <v>0.08924232638174943</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06352021166346007</v>
+        <v>0.0351365415621287</v>
       </c>
       <c r="X55" t="n">
-        <v>0.03896850054013484</v>
+        <v>0.08487228062561107</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.02162242235272312</v>
+        <v>0.007340487277976819</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.02716111091392533</v>
+        <v>0.002007404867253281</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.03989601706184441</v>
+        <v>0.009557935140730084</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.002587624420360216</v>
+        <v>0.03058472043491508</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.08842815273517063</v>
+        <v>0.1107944668064794</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1843197876630987</v>
+        <v>0.1808334192478893</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07944950466739632</v>
+        <v>0.08890392229826249</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07197339876407449</v>
+        <v>0.04406643932881844</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0434927550126851</v>
+        <v>0.02216830823099058</v>
       </c>
       <c r="I56" t="n">
-        <v>0.03022165937527432</v>
+        <v>0.01507924056700855</v>
       </c>
       <c r="J56" t="n">
-        <v>0.03414605108272484</v>
+        <v>0.02445681514738758</v>
       </c>
       <c r="K56" t="n">
-        <v>0.03359914638436831</v>
+        <v>0.03223738376562495</v>
       </c>
       <c r="L56" t="n">
-        <v>0.06575501369721067</v>
+        <v>0.06079064639922595</v>
       </c>
       <c r="M56" t="n">
-        <v>0.06850290544613628</v>
+        <v>0.1135839382983843</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01232392852881185</v>
+        <v>0.06551022347828005</v>
       </c>
       <c r="O56" t="n">
-        <v>0.02897577381596633</v>
+        <v>0.1060349165293687</v>
       </c>
       <c r="P56" t="n">
-        <v>0.01037686251292726</v>
+        <v>0.02091726405059481</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.0004481604680092862</v>
+        <v>0.04041282580076107</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06381488204529367</v>
+        <v>0.1160727114734026</v>
       </c>
       <c r="S56" t="n">
-        <v>0.03359445000657232</v>
+        <v>0.02016174111263893</v>
       </c>
       <c r="T56" t="n">
-        <v>0.06760142228207228</v>
+        <v>0.0232399628693415</v>
       </c>
       <c r="U56" t="n">
-        <v>0.04228976795060618</v>
+        <v>0.01842819540069568</v>
       </c>
       <c r="V56" t="n">
-        <v>0.01284657571657346</v>
+        <v>0.005029910071412492</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05759984674095985</v>
+        <v>0.05977522758375738</v>
       </c>
       <c r="X56" t="n">
-        <v>0.07337427056729875</v>
+        <v>0.02803333384629429</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.01277474041153772</v>
+        <v>0.01873408881744774</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.0241497511775185</v>
+        <v>0.02242284257721409</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.06404959963755913</v>
+        <v>0.03518253362754062</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.06863953370842295</v>
+        <v>0.01875752872554706</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.01415002086074109</v>
+        <v>-0.01972015669265693</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2177534485320084</v>
+        <v>0.2267896186882744</v>
       </c>
       <c r="F57" t="n">
-        <v>0.10221987322788</v>
+        <v>0.02315571256772032</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01672061557542202</v>
+        <v>0.03248807004071025</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02222717027161493</v>
+        <v>0.05699976680531638</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01805480831595186</v>
+        <v>0.03204999744455501</v>
       </c>
       <c r="J57" t="n">
-        <v>0.06497069879789372</v>
+        <v>0.04445862857836629</v>
       </c>
       <c r="K57" t="n">
-        <v>0.09568164638722025</v>
+        <v>0.03336898599419848</v>
       </c>
       <c r="L57" t="n">
-        <v>0.005894520284671318</v>
+        <v>0.0236030905080927</v>
       </c>
       <c r="M57" t="n">
-        <v>0.09328253187995705</v>
+        <v>0.09754596543246712</v>
       </c>
       <c r="N57" t="n">
-        <v>0.03121729000366879</v>
+        <v>0.01806939733615155</v>
       </c>
       <c r="O57" t="n">
-        <v>0.004280242848144822</v>
+        <v>0.05763799143710126</v>
       </c>
       <c r="P57" t="n">
-        <v>0.03618267881702459</v>
+        <v>0.07410813580545303</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.001408429775067693</v>
+        <v>0.01436754829948374</v>
       </c>
       <c r="R57" t="n">
-        <v>0.05189734863869896</v>
+        <v>0.01638492084990363</v>
       </c>
       <c r="S57" t="n">
-        <v>0.07389568382110798</v>
+        <v>0.05685603482709954</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0832421729268939</v>
+        <v>0.08814278836122545</v>
       </c>
       <c r="U57" t="n">
-        <v>0.01426510848838096</v>
+        <v>0.02171106934878756</v>
       </c>
       <c r="V57" t="n">
-        <v>0.09986302884450801</v>
+        <v>0.1315635607109722</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03616065270128843</v>
+        <v>0.03872670451873742</v>
       </c>
       <c r="X57" t="n">
-        <v>0.001742128599293003</v>
+        <v>0.05316516882625295</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.01403849050042917</v>
+        <v>0.02866969588027369</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.1000236893466602</v>
+        <v>0.03332545949151463</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02317209666424542</v>
+        <v>0.02303526877428888</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.009559093283976958</v>
+        <v>0.0005660381613279542</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.01493465510475463</v>
+        <v>-0.02750377474479362</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.1945890880376878</v>
+        <v>0.192666998093844</v>
       </c>
       <c r="F58" t="n">
-        <v>0.02751789309340515</v>
+        <v>0.005930856763105397</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07676422514696574</v>
+        <v>0.04762819549864888</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01132058946534143</v>
+        <v>0.006098128187876758</v>
       </c>
       <c r="I58" t="n">
-        <v>0.04994092418296913</v>
+        <v>0.009736412577957067</v>
       </c>
       <c r="J58" t="n">
-        <v>0.01099121038262478</v>
+        <v>0.0002585345472849558</v>
       </c>
       <c r="K58" t="n">
-        <v>0.04894231981690892</v>
+        <v>0.1296344855883065</v>
       </c>
       <c r="L58" t="n">
-        <v>0.02666487543037444</v>
+        <v>0.06643582501553376</v>
       </c>
       <c r="M58" t="n">
-        <v>0.08925125596530133</v>
+        <v>0.1110306346482307</v>
       </c>
       <c r="N58" t="n">
-        <v>0.03235405936774717</v>
+        <v>0.01008011768827109</v>
       </c>
       <c r="O58" t="n">
-        <v>0.04913844634091851</v>
+        <v>0.09912520787567787</v>
       </c>
       <c r="P58" t="n">
-        <v>0.009203076146659299</v>
+        <v>0.02272054125631681</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01252509754114416</v>
+        <v>0.008692759561044558</v>
       </c>
       <c r="R58" t="n">
-        <v>0.03928076846864605</v>
+        <v>0.01328635424258236</v>
       </c>
       <c r="S58" t="n">
-        <v>0.06134922476528205</v>
+        <v>0.03852525818559936</v>
       </c>
       <c r="T58" t="n">
-        <v>0.02834938874036707</v>
+        <v>0.01253825909204912</v>
       </c>
       <c r="U58" t="n">
-        <v>0.04625303082471342</v>
+        <v>0.004703736064487931</v>
       </c>
       <c r="V58" t="n">
-        <v>0.02843515867615637</v>
+        <v>0.006926073471711425</v>
       </c>
       <c r="W58" t="n">
-        <v>0.03022115805282992</v>
+        <v>0.1048539847586905</v>
       </c>
       <c r="X58" t="n">
-        <v>0.09232682093385837</v>
+        <v>0.1231906823336621</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.06287440901612203</v>
+        <v>0.03845845858556116</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.09350642890997425</v>
+        <v>0.08885237469196344</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.06658651995077551</v>
+        <v>0.0381437581412207</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.006203118780914799</v>
+        <v>0.01314936122421776</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.03891603467933753</v>
+        <v>0.04110046564293043</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.2138582039345907</v>
+        <v>0.2388331927524024</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08507676935568126</v>
+        <v>0.1300057348575163</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04366160389208108</v>
+        <v>0.0164636904911709</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01061017599159281</v>
+        <v>0.002449371449774462</v>
       </c>
       <c r="I59" t="n">
-        <v>0.02532649906603769</v>
+        <v>0.09187943138331341</v>
       </c>
       <c r="J59" t="n">
-        <v>0.08614297131517908</v>
+        <v>0.06226288023270236</v>
       </c>
       <c r="K59" t="n">
-        <v>0.02139303308065855</v>
+        <v>0.02314219029461615</v>
       </c>
       <c r="L59" t="n">
-        <v>0.03157876947300903</v>
+        <v>0.01251192038552761</v>
       </c>
       <c r="M59" t="n">
-        <v>0.02265618169965925</v>
+        <v>0.06827758110978638</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0008320055451713651</v>
+        <v>0.01492336463117675</v>
       </c>
       <c r="O59" t="n">
-        <v>0.05313265560346312</v>
+        <v>0.02827936293372522</v>
       </c>
       <c r="P59" t="n">
-        <v>0.07846117870499925</v>
+        <v>0.04455667733711114</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.002508716286438368</v>
+        <v>0.02745090534991738</v>
       </c>
       <c r="R59" t="n">
-        <v>0.04000232245814998</v>
+        <v>0.009325904621203539</v>
       </c>
       <c r="S59" t="n">
-        <v>0.08588168537129943</v>
+        <v>0.01101860584938185</v>
       </c>
       <c r="T59" t="n">
-        <v>0.03497483981486326</v>
+        <v>0.08117451243412402</v>
       </c>
       <c r="U59" t="n">
-        <v>0.0667733854909911</v>
+        <v>0.09639420765529992</v>
       </c>
       <c r="V59" t="n">
-        <v>0.0210546281998915</v>
+        <v>0.06152748326072328</v>
       </c>
       <c r="W59" t="n">
-        <v>0.08793604379612846</v>
+        <v>0.003440258189530955</v>
       </c>
       <c r="X59" t="n">
-        <v>0.03339075005979138</v>
+        <v>0.003334144993380845</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.01118458107565801</v>
+        <v>0.009835165439900588</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.06749726511952404</v>
+        <v>0.08251841935995671</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.07664181574110174</v>
+        <v>0.1191013029344612</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.01328212285863017</v>
+        <v>0.0001268848056989879</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.064049297773599</v>
+        <v>0.08097584729081388</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2097817801097051</v>
+        <v>0.2101287204836893</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01066570923148443</v>
+        <v>0.01352920426774101</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1326038650318038</v>
+        <v>0.0292519574253499</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01990989775932918</v>
+        <v>0.02263477877032789</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0161494777832998</v>
+        <v>0.02245390597845926</v>
       </c>
       <c r="J60" t="n">
-        <v>0.009589124735436017</v>
+        <v>0.05208214966078249</v>
       </c>
       <c r="K60" t="n">
-        <v>0.04285937118482927</v>
+        <v>0.01676608816602383</v>
       </c>
       <c r="L60" t="n">
-        <v>0.04801476733691599</v>
+        <v>0.04015068410205612</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1334548196579424</v>
+        <v>0.08056224651527398</v>
       </c>
       <c r="N60" t="n">
-        <v>0.01831162948815316</v>
+        <v>0.002094738435460051</v>
       </c>
       <c r="O60" t="n">
-        <v>0.01984200781480932</v>
+        <v>0.0850704234346867</v>
       </c>
       <c r="P60" t="n">
-        <v>0.05209977868958838</v>
+        <v>0.07451927275999733</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.009262718931613522</v>
+        <v>0.001088853557769282</v>
       </c>
       <c r="R60" t="n">
-        <v>0.01249084653332388</v>
+        <v>0.06752126289895752</v>
       </c>
       <c r="S60" t="n">
-        <v>0.05575682865648554</v>
+        <v>0.02503273110179376</v>
       </c>
       <c r="T60" t="n">
-        <v>0.08194338226978166</v>
+        <v>0.02814153705822727</v>
       </c>
       <c r="U60" t="n">
-        <v>0.09945366127072179</v>
+        <v>0.07267202589501105</v>
       </c>
       <c r="V60" t="n">
-        <v>0.02482991020904535</v>
+        <v>0.05018644854980108</v>
       </c>
       <c r="W60" t="n">
-        <v>0.004757650128375886</v>
+        <v>0.06996832824650125</v>
       </c>
       <c r="X60" t="n">
-        <v>0.04968088922590364</v>
+        <v>0.05698575652120179</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.02491224214300128</v>
+        <v>0.02249862412528336</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.09908820798708505</v>
+        <v>0.0772101415792659</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.03203453194151633</v>
+        <v>0.04243079158964114</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.002288681989554158</v>
+        <v>0.04714804936038779</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.07219010815597937</v>
+        <v>0.06960502182728184</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.3494401315043222</v>
+        <v>0.3047565578866036</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0936856097958023</v>
+        <v>0.08252012162327825</v>
       </c>
       <c r="G61" t="n">
-        <v>0.05020430162724277</v>
+        <v>0.06782288151690639</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01123239450264372</v>
+        <v>0.03262166184725043</v>
       </c>
       <c r="I61" t="n">
-        <v>0.01589639015052102</v>
+        <v>0.0008990066358054415</v>
       </c>
       <c r="J61" t="n">
-        <v>0.08284433965339688</v>
+        <v>0.01473941402946926</v>
       </c>
       <c r="K61" t="n">
-        <v>0.02880578104459581</v>
+        <v>0.01420599947946655</v>
       </c>
       <c r="L61" t="n">
-        <v>0.04693252180390273</v>
+        <v>0.07202464954334534</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01749944600202385</v>
+        <v>0.06090681735821457</v>
       </c>
       <c r="N61" t="n">
-        <v>0.008506823077205987</v>
+        <v>0.0203493177310252</v>
       </c>
       <c r="O61" t="n">
-        <v>0.01692171916926156</v>
+        <v>0.06895379321536621</v>
       </c>
       <c r="P61" t="n">
-        <v>0.08059403385749873</v>
+        <v>0.05065038082444465</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.002977618985420478</v>
+        <v>0.005096890621091863</v>
       </c>
       <c r="R61" t="n">
-        <v>0.0331794023029164</v>
+        <v>0.06928133353927472</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1211082790073688</v>
+        <v>0.07882172062943113</v>
       </c>
       <c r="T61" t="n">
-        <v>0.06400438579473368</v>
+        <v>0.004569666884059759</v>
       </c>
       <c r="U61" t="n">
-        <v>0.06164874110314948</v>
+        <v>0.04266396452878514</v>
       </c>
       <c r="V61" t="n">
-        <v>0.07831679955360768</v>
+        <v>0.067933945272469</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0764149303599535</v>
+        <v>0.08071195231564494</v>
       </c>
       <c r="X61" t="n">
-        <v>0.01957167995795424</v>
+        <v>0.01716538723798092</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.05421202323223401</v>
+        <v>0.01306419963685005</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.02106393969165183</v>
+        <v>0.09543138264918485</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.01318351800822272</v>
+        <v>0.03301812598751779</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.001195321318691836</v>
+        <v>0.006547386893137674</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.06866120701525537</v>
+        <v>0.08130271126037301</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2074927059299998</v>
+        <v>0.2108211254859103</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0679413468359997</v>
+        <v>0.07733056146936221</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0817336072092503</v>
+        <v>0.001697125152499159</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01011471941949768</v>
+        <v>0.03815353283557308</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01659015363190186</v>
+        <v>0.02361726961390158</v>
       </c>
       <c r="J62" t="n">
-        <v>0.05724680556864402</v>
+        <v>0.06676576880846853</v>
       </c>
       <c r="K62" t="n">
-        <v>0.009706808216252602</v>
+        <v>0.01170309633002033</v>
       </c>
       <c r="L62" t="n">
-        <v>0.05311640247487791</v>
+        <v>0.05951357170747573</v>
       </c>
       <c r="M62" t="n">
-        <v>0.09131018129823167</v>
+        <v>0.07652883568120639</v>
       </c>
       <c r="N62" t="n">
-        <v>0.04008302325078877</v>
+        <v>0.07916139849434924</v>
       </c>
       <c r="O62" t="n">
-        <v>0.07163755809171435</v>
+        <v>0.06527970261554231</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0984598448831161</v>
+        <v>0.06484319448473508</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.05578008795632136</v>
+        <v>0.0624704501044246</v>
       </c>
       <c r="R62" t="n">
-        <v>0.0111225298028377</v>
+        <v>0.07510211521390991</v>
       </c>
       <c r="S62" t="n">
-        <v>0.004028572191225158</v>
+        <v>0.01214814640103387</v>
       </c>
       <c r="T62" t="n">
-        <v>0.01836354168308401</v>
+        <v>0.02032442509345226</v>
       </c>
       <c r="U62" t="n">
-        <v>0.01627445900412283</v>
+        <v>0.04440485384137184</v>
       </c>
       <c r="V62" t="n">
-        <v>0.003288348831327843</v>
+        <v>0.00667492143905811</v>
       </c>
       <c r="W62" t="n">
-        <v>0.08977564418422319</v>
+        <v>0.02383971578934772</v>
       </c>
       <c r="X62" t="n">
-        <v>0.09248548285963661</v>
+        <v>0.06785354294018675</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.01347910851629384</v>
+        <v>0.01110798695445042</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.06397328559105848</v>
+        <v>0.09007683776575715</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.008715443498150505</v>
+        <v>0.005035872001115343</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.02477304500144384</v>
+        <v>0.01636707526275845</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.05767559117069607</v>
+        <v>0.05208887078238711</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.4530380882345464</v>
+        <v>0.4681757670060935</v>
       </c>
       <c r="F63" t="n">
-        <v>0.04453569193520292</v>
+        <v>0.02484954462451263</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07975326950200809</v>
+        <v>0.003529432998190393</v>
       </c>
       <c r="H63" t="n">
-        <v>0.03478957473543731</v>
+        <v>0.01046641318393639</v>
       </c>
       <c r="I63" t="n">
-        <v>0.07522219718013291</v>
+        <v>0.07456066312415054</v>
       </c>
       <c r="J63" t="n">
-        <v>0.05112634510377274</v>
+        <v>0.07157580347018896</v>
       </c>
       <c r="K63" t="n">
-        <v>0.005167293324520452</v>
+        <v>0.1094442063959816</v>
       </c>
       <c r="L63" t="n">
-        <v>0.03763517002319988</v>
+        <v>0.0536055013674644</v>
       </c>
       <c r="M63" t="n">
-        <v>0.02862524567317384</v>
+        <v>0.0004099133313417818</v>
       </c>
       <c r="N63" t="n">
-        <v>0.005867639014084268</v>
+        <v>0.02176638999288246</v>
       </c>
       <c r="O63" t="n">
-        <v>0.04170158844852569</v>
+        <v>0.09225392114660977</v>
       </c>
       <c r="P63" t="n">
-        <v>0.01786189811153987</v>
+        <v>0.006796031214702757</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01517223810441458</v>
+        <v>0.01307589041458084</v>
       </c>
       <c r="R63" t="n">
-        <v>0.03039636467754833</v>
+        <v>0.08047975601384373</v>
       </c>
       <c r="S63" t="n">
-        <v>0.01525218407212778</v>
+        <v>0.0362569061692585</v>
       </c>
       <c r="T63" t="n">
-        <v>0.0493471311529913</v>
+        <v>0.01354212497587316</v>
       </c>
       <c r="U63" t="n">
-        <v>0.100920327380023</v>
+        <v>0.1063223101165867</v>
       </c>
       <c r="V63" t="n">
-        <v>0.009977377682593021</v>
+        <v>0.005082166827814654</v>
       </c>
       <c r="W63" t="n">
-        <v>0.01537725220421651</v>
+        <v>0.01759870876310646</v>
       </c>
       <c r="X63" t="n">
-        <v>0.05727845641713447</v>
+        <v>0.07798052643654707</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.07797988628143776</v>
+        <v>0.01639000714789859</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.07583319054570413</v>
+        <v>0.03408358788782013</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.1030413660502997</v>
+        <v>0.1094826174293805</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.0271383123799115</v>
+        <v>0.02044757696732801</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.07629236826499351</v>
+        <v>0.0547461991295388</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2137156475656049</v>
+        <v>0.2153021326699422</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07793157384235619</v>
+        <v>0.04329149701203895</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04124372564522508</v>
+        <v>0.06782266835845428</v>
       </c>
       <c r="H64" t="n">
-        <v>0.06349784559135555</v>
+        <v>0.03528767313985093</v>
       </c>
       <c r="I64" t="n">
-        <v>0.07195066815233955</v>
+        <v>0.07644344879926772</v>
       </c>
       <c r="J64" t="n">
-        <v>0.03506420307422987</v>
+        <v>0.04255201998691752</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0426069722783386</v>
+        <v>0.07353113497489187</v>
       </c>
       <c r="L64" t="n">
-        <v>0.06808465545496195</v>
+        <v>0.06008886412013815</v>
       </c>
       <c r="M64" t="n">
-        <v>0.07905132468331116</v>
+        <v>0.04816152461978353</v>
       </c>
       <c r="N64" t="n">
-        <v>0.02136116762800178</v>
+        <v>0.04985692981317529</v>
       </c>
       <c r="O64" t="n">
-        <v>0.06822258080971895</v>
+        <v>0.06504913583741841</v>
       </c>
       <c r="P64" t="n">
-        <v>0.05779052206970683</v>
+        <v>0.07684439871540408</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.02363678178367355</v>
+        <v>0.05169682065766862</v>
       </c>
       <c r="R64" t="n">
-        <v>0.06798387137564209</v>
+        <v>0.01644245646493784</v>
       </c>
       <c r="S64" t="n">
-        <v>0.03197608354583272</v>
+        <v>0.01735582271603988</v>
       </c>
       <c r="T64" t="n">
-        <v>0.03240802982812824</v>
+        <v>0.00902079875203806</v>
       </c>
       <c r="U64" t="n">
-        <v>0.04450910940510764</v>
+        <v>0.05554550611354513</v>
       </c>
       <c r="V64" t="n">
-        <v>0.006609636721399466</v>
+        <v>0.002011202602295951</v>
       </c>
       <c r="W64" t="n">
-        <v>0.0002448154482492467</v>
+        <v>0.01559439231018596</v>
       </c>
       <c r="X64" t="n">
-        <v>0.05655406056007712</v>
+        <v>0.07348575502223961</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.06489547563156685</v>
+        <v>0.07631952307943397</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.001564157244570155</v>
+        <v>0.006576098464558354</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.02746140225504006</v>
+        <v>0.018641594690824</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.01535133697116735</v>
+        <v>0.01838073374889181</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.01124531605702818</v>
+        <v>-0.005402420019937308</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.246575405421649</v>
+        <v>0.2596648297478762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1102054119698184</v>
+        <v>0.08370224538189211</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01696947213338788</v>
+        <v>0.009480770091009909</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07124215376660203</v>
+        <v>0.0752281815758802</v>
       </c>
       <c r="I65" t="n">
-        <v>0.008482844375199612</v>
+        <v>0.05057811376982706</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01687755525667892</v>
+        <v>0.005302371417938182</v>
       </c>
       <c r="K65" t="n">
-        <v>0.04494139553749039</v>
+        <v>0.001670264581626061</v>
       </c>
       <c r="L65" t="n">
-        <v>0.04302754038342958</v>
+        <v>0.00329398433316054</v>
       </c>
       <c r="M65" t="n">
-        <v>0.04273248485536604</v>
+        <v>0.008868493890172174</v>
       </c>
       <c r="N65" t="n">
-        <v>0.04589346813100047</v>
+        <v>0.04923514080125155</v>
       </c>
       <c r="O65" t="n">
-        <v>0.06502762593970143</v>
+        <v>0.08901218208139842</v>
       </c>
       <c r="P65" t="n">
-        <v>0.01160421988316942</v>
+        <v>0.02705125895797033</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.07270664941774661</v>
+        <v>0.0835288868230189</v>
       </c>
       <c r="R65" t="n">
-        <v>0.07042075526120808</v>
+        <v>0.03859755997477907</v>
       </c>
       <c r="S65" t="n">
-        <v>0.04349945956356185</v>
+        <v>0.07681284518683361</v>
       </c>
       <c r="T65" t="n">
-        <v>0.05330698737963806</v>
+        <v>0.05327042792593862</v>
       </c>
       <c r="U65" t="n">
-        <v>0.06620331983461673</v>
+        <v>0.0007571444226328978</v>
       </c>
       <c r="V65" t="n">
-        <v>0.011944813050844</v>
+        <v>0.01832714497935018</v>
       </c>
       <c r="W65" t="n">
-        <v>0.0199481645513879</v>
+        <v>0.07555123782864454</v>
       </c>
       <c r="X65" t="n">
-        <v>0.01286151166813206</v>
+        <v>0.05544247714677981</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.09489136951172074</v>
+        <v>0.07353367146266243</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.02783911493557272</v>
+        <v>0.01085839655946906</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.005583887964176138</v>
+        <v>0.07665580481905519</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.04378979462955079</v>
+        <v>0.03324139598870911</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.008856487009829116</v>
+        <v>-0.003915631975341612</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1699145361897939</v>
+        <v>0.1725064765582126</v>
       </c>
       <c r="F66" t="n">
-        <v>0.001302764836192271</v>
+        <v>0.003449712070659979</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08152215705473202</v>
+        <v>0.03668200040369306</v>
       </c>
       <c r="H66" t="n">
-        <v>0.01853109054320184</v>
+        <v>0.07769433895348098</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0569607072087419</v>
+        <v>0.02615868005937277</v>
       </c>
       <c r="J66" t="n">
-        <v>0.01244418525162985</v>
+        <v>0.02220990979138854</v>
       </c>
       <c r="K66" t="n">
-        <v>0.03564678937962967</v>
+        <v>0.08485172044587483</v>
       </c>
       <c r="L66" t="n">
-        <v>0.07650940025282148</v>
+        <v>0.07135424014866804</v>
       </c>
       <c r="M66" t="n">
-        <v>0.05834507455126423</v>
+        <v>0.03711088250395841</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0002381487912244581</v>
+        <v>0.03246524413606022</v>
       </c>
       <c r="O66" t="n">
-        <v>0.04683890080732265</v>
+        <v>0.05607563689683358</v>
       </c>
       <c r="P66" t="n">
-        <v>0.05046963544514527</v>
+        <v>0.05257410762200206</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.03598492391935627</v>
+        <v>0.01897321343665035</v>
       </c>
       <c r="R66" t="n">
-        <v>0.06630359932777995</v>
+        <v>0.04687158966300025</v>
       </c>
       <c r="S66" t="n">
-        <v>0.06486868900810519</v>
+        <v>0.04373580072433923</v>
       </c>
       <c r="T66" t="n">
-        <v>0.01307000433042096</v>
+        <v>0.04057000808497848</v>
       </c>
       <c r="U66" t="n">
-        <v>0.07468977347880694</v>
+        <v>0.0396356448714297</v>
       </c>
       <c r="V66" t="n">
-        <v>0.02954478169930572</v>
+        <v>0.004601964404052544</v>
       </c>
       <c r="W66" t="n">
-        <v>0.07737089940327527</v>
+        <v>0.08120598881856686</v>
       </c>
       <c r="X66" t="n">
-        <v>0.06335682003351639</v>
+        <v>0.08669162300033778</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.006316314929986494</v>
+        <v>0.003161194122467523</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.0405973832974412</v>
+        <v>0.07101510403035607</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.06728182665987849</v>
+        <v>0.02365690594026944</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.02180612979022144</v>
+        <v>0.03925448987155915</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.04284090507868789</v>
+        <v>0.06823246015193106</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.4953646939966268</v>
+        <v>0.5233095449694958</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1067308490294852</v>
+        <v>0.114263980629965</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1059260652231211</v>
+        <v>0.03081332358271239</v>
       </c>
       <c r="H67" t="n">
-        <v>0.03718697232156106</v>
+        <v>0.02042712841321264</v>
       </c>
       <c r="I67" t="n">
-        <v>0.002190914081050288</v>
+        <v>0.003402083445541453</v>
       </c>
       <c r="J67" t="n">
-        <v>0.03908255444388871</v>
+        <v>0.07109610301975393</v>
       </c>
       <c r="K67" t="n">
-        <v>0.06241941850758493</v>
+        <v>0.04930566045951261</v>
       </c>
       <c r="L67" t="n">
-        <v>0.06575070064741539</v>
+        <v>0.09768481672913759</v>
       </c>
       <c r="M67" t="n">
-        <v>0.03296385177142231</v>
+        <v>0.03144898244663955</v>
       </c>
       <c r="N67" t="n">
-        <v>0.01061596183559215</v>
+        <v>0.009336268093646086</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0440062062859123</v>
+        <v>0.07641634140749536</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0297110813682031</v>
+        <v>0.01146449134945201</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.03348093274074414</v>
+        <v>0.0518240392691935</v>
       </c>
       <c r="R67" t="n">
-        <v>0.004039189979816001</v>
+        <v>0.03096921433802381</v>
       </c>
       <c r="S67" t="n">
-        <v>0.04965186155846858</v>
+        <v>0.01347189235185581</v>
       </c>
       <c r="T67" t="n">
-        <v>0.07448628899864369</v>
+        <v>0.1118405147417898</v>
       </c>
       <c r="U67" t="n">
-        <v>0.04396631329977559</v>
+        <v>0.009352672803104986</v>
       </c>
       <c r="V67" t="n">
-        <v>0.09787747029985153</v>
+        <v>0.04395790385115945</v>
       </c>
       <c r="W67" t="n">
-        <v>0.07584816853638281</v>
+        <v>0.0610629103202569</v>
       </c>
       <c r="X67" t="n">
-        <v>0.03295538073454327</v>
+        <v>0.06809368362679669</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.007039074320699888</v>
+        <v>0.008470733216479035</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.02433551753331441</v>
+        <v>0.02260047245238009</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.01467015419745326</v>
+        <v>0.05604229437210172</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.005065072285070478</v>
+        <v>0.006654489079789833</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.04314846136648993</v>
+        <v>0.05132886627199526</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1513052724349247</v>
+        <v>0.149736717157352</v>
       </c>
       <c r="F68" t="n">
-        <v>0.01969511723246152</v>
+        <v>0.009887125093222489</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04217022119314937</v>
+        <v>0.03151436532632661</v>
       </c>
       <c r="H68" t="n">
-        <v>0.03096560007539006</v>
+        <v>0.08646834634363088</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01610431200210834</v>
+        <v>0.07929407778340804</v>
       </c>
       <c r="J68" t="n">
-        <v>0.06389000745661036</v>
+        <v>0.02145968434765364</v>
       </c>
       <c r="K68" t="n">
-        <v>0.04570858055715143</v>
+        <v>0.03901812133671002</v>
       </c>
       <c r="L68" t="n">
-        <v>0.07702885433594224</v>
+        <v>0.06438627619853059</v>
       </c>
       <c r="M68" t="n">
-        <v>0.03771657748036791</v>
+        <v>0.01883171040654414</v>
       </c>
       <c r="N68" t="n">
-        <v>0.01105797832632144</v>
+        <v>0.006942391781330112</v>
       </c>
       <c r="O68" t="n">
-        <v>0.008439161740752862</v>
+        <v>0.01565444478465736</v>
       </c>
       <c r="P68" t="n">
-        <v>0.06936044580204487</v>
+        <v>0.005951632354578372</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.02152105872881663</v>
+        <v>0.04166902409501941</v>
       </c>
       <c r="R68" t="n">
-        <v>0.0722534783455968</v>
+        <v>0.1002471978754182</v>
       </c>
       <c r="S68" t="n">
-        <v>0.06454168661746652</v>
+        <v>0.07039710063889804</v>
       </c>
       <c r="T68" t="n">
-        <v>0.07956011055583551</v>
+        <v>0.03932764784795104</v>
       </c>
       <c r="U68" t="n">
-        <v>0.04688889192897645</v>
+        <v>0.08406333514618702</v>
       </c>
       <c r="V68" t="n">
-        <v>0.03953377539375621</v>
+        <v>0.03627066211766219</v>
       </c>
       <c r="W68" t="n">
-        <v>0.07141817874289086</v>
+        <v>0.08093053914257327</v>
       </c>
       <c r="X68" t="n">
-        <v>0.05530337855584348</v>
+        <v>0.03098725435901253</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.01197395397634087</v>
+        <v>0.004083409179010047</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.06651202424840708</v>
+        <v>0.06467566190496873</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.04672374357424013</v>
+        <v>0.0623809565111163</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.001632863129529126</v>
+        <v>0.00555903542559098</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.02333529703250519</v>
+        <v>-0.03571448348794981</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.2109979894571929</v>
+        <v>0.2097412316088532</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07742753595971727</v>
+        <v>0.0351995053303376</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02742805807271316</v>
+        <v>0.07740125688791222</v>
       </c>
       <c r="H69" t="n">
-        <v>0.05897981900092071</v>
+        <v>0.08313020327911494</v>
       </c>
       <c r="I69" t="n">
-        <v>0.07738732071792373</v>
+        <v>0.08513874148157953</v>
       </c>
       <c r="J69" t="n">
-        <v>0.02189810587119685</v>
+        <v>0.03509568068859369</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0416622878387262</v>
+        <v>0.06248509734709238</v>
       </c>
       <c r="L69" t="n">
-        <v>0.02574257681194984</v>
+        <v>0.02054591709041531</v>
       </c>
       <c r="M69" t="n">
-        <v>0.07165067466666558</v>
+        <v>0.05351971592326848</v>
       </c>
       <c r="N69" t="n">
-        <v>0.04953132077897194</v>
+        <v>0.05157479613936115</v>
       </c>
       <c r="O69" t="n">
-        <v>0.06947173311644679</v>
+        <v>0.09065904111342654</v>
       </c>
       <c r="P69" t="n">
-        <v>0.03121846225256472</v>
+        <v>0.02135124547554394</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.04615880342289704</v>
+        <v>0.00531519806219747</v>
       </c>
       <c r="R69" t="n">
-        <v>0.03683109213772824</v>
+        <v>0.03470234386212964</v>
       </c>
       <c r="S69" t="n">
-        <v>0.000369771740721865</v>
+        <v>0.02987229666482917</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01599152794261186</v>
+        <v>0.01194601642119128</v>
       </c>
       <c r="U69" t="n">
-        <v>0.03140934850452646</v>
+        <v>0.01054762279317751</v>
       </c>
       <c r="V69" t="n">
-        <v>0.07697281245879579</v>
+        <v>0.1071190122191362</v>
       </c>
       <c r="W69" t="n">
-        <v>0.01163539035021268</v>
+        <v>0.04528971924017135</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0582577393419044</v>
+        <v>0.015051794041068</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.1042662342970151</v>
+        <v>0.1035409593476451</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.01020026876818483</v>
+        <v>0.003532370736778344</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.02457728273024904</v>
+        <v>0.01186205379768621</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.0309318332173559</v>
+        <v>0.005119412057343848</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.001167199316108566</v>
+        <v>-0.01942987367203679</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1285762702304417</v>
+        <v>0.1300838455889867</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0695512186059799</v>
+        <v>0.08003293164825287</v>
       </c>
       <c r="G70" t="n">
-        <v>4.176578581510348e-05</v>
+        <v>0.005995799357068972</v>
       </c>
       <c r="H70" t="n">
-        <v>0.03428165113653285</v>
+        <v>0.1026052220775893</v>
       </c>
       <c r="I70" t="n">
-        <v>0.04960795476281914</v>
+        <v>0.002474296683534603</v>
       </c>
       <c r="J70" t="n">
-        <v>0.008394682247952699</v>
+        <v>0.02633029827723678</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02638098700392378</v>
+        <v>0.005501707427467198</v>
       </c>
       <c r="L70" t="n">
-        <v>0.09443861738187957</v>
+        <v>0.04789290806762021</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0513882715760199</v>
+        <v>0.01065919668374674</v>
       </c>
       <c r="N70" t="n">
-        <v>0.002350978473780794</v>
+        <v>0.0007492290821003289</v>
       </c>
       <c r="O70" t="n">
-        <v>0.0586772233548493</v>
+        <v>0.0616892119567409</v>
       </c>
       <c r="P70" t="n">
-        <v>0.009227797261089219</v>
+        <v>0.03146620074335682</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.0006918450355331694</v>
+        <v>0.01300957716017599</v>
       </c>
       <c r="R70" t="n">
-        <v>0.03796364042418099</v>
+        <v>0.0196906231724599</v>
       </c>
       <c r="S70" t="n">
-        <v>0.06023473600750678</v>
+        <v>0.05563095847866062</v>
       </c>
       <c r="T70" t="n">
-        <v>0.09227745675961607</v>
+        <v>0.02919581942762469</v>
       </c>
       <c r="U70" t="n">
-        <v>0.08588211373055085</v>
+        <v>0.06552185558906826</v>
       </c>
       <c r="V70" t="n">
-        <v>0.03561682162822078</v>
+        <v>0.02057452298259303</v>
       </c>
       <c r="W70" t="n">
-        <v>0.09814163728600059</v>
+        <v>0.09824787251853184</v>
       </c>
       <c r="X70" t="n">
-        <v>0.08568502362329677</v>
+        <v>0.1012696466517571</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.005020406611122703</v>
+        <v>0.008864297169764512</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.04557810833213573</v>
+        <v>0.08824949828920027</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.03954925330294198</v>
+        <v>0.09587118101514761</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.009017809668251208</v>
+        <v>0.02847714554030159</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.04670545239940368</v>
+        <v>-0.01992507918868098</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1623268541644678</v>
+        <v>0.1551381660675281</v>
       </c>
       <c r="F71" t="n">
-        <v>0.07148562664757656</v>
+        <v>0.08609321513016481</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03153739039451416</v>
+        <v>0.03452868545520681</v>
       </c>
       <c r="H71" t="n">
-        <v>0.01444604593005215</v>
+        <v>0.0177481152513746</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03230785536650992</v>
+        <v>0.09737290408752303</v>
       </c>
       <c r="J71" t="n">
-        <v>0.04105080871282489</v>
+        <v>0.0052717992887198</v>
       </c>
       <c r="K71" t="n">
-        <v>0.05851915721321516</v>
+        <v>0.04868818665316581</v>
       </c>
       <c r="L71" t="n">
-        <v>0.002466291869361735</v>
+        <v>0.02942830848684988</v>
       </c>
       <c r="M71" t="n">
-        <v>0.03401159116680266</v>
+        <v>0.02188708438167441</v>
       </c>
       <c r="N71" t="n">
-        <v>0.03227756645975265</v>
+        <v>0.04940464486810348</v>
       </c>
       <c r="O71" t="n">
-        <v>0.09789934798773958</v>
+        <v>0.08675143415031682</v>
       </c>
       <c r="P71" t="n">
-        <v>0.01489431345887801</v>
+        <v>0.0693886480968786</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.07288850710054579</v>
+        <v>0.07662065030568123</v>
       </c>
       <c r="R71" t="n">
-        <v>0.06911630054131641</v>
+        <v>0.006983113022545641</v>
       </c>
       <c r="S71" t="n">
-        <v>0.00394843995852765</v>
+        <v>0.009520417222731887</v>
       </c>
       <c r="T71" t="n">
-        <v>0.07721166508744456</v>
+        <v>0.04833854104491978</v>
       </c>
       <c r="U71" t="n">
-        <v>0.005580217844881462</v>
+        <v>0.04275853020256801</v>
       </c>
       <c r="V71" t="n">
-        <v>0.08789922653215618</v>
+        <v>0.005885301763321057</v>
       </c>
       <c r="W71" t="n">
-        <v>0.01296085141214329</v>
+        <v>0.002424606849558528</v>
       </c>
       <c r="X71" t="n">
-        <v>0.04792019281190701</v>
+        <v>0.007950459412177636</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.09796720216776966</v>
+        <v>0.100040499832054</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.007948838051995984</v>
+        <v>0.07917284200343146</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.009131508104993757</v>
+        <v>0.0324415027545119</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.07653105517909066</v>
+        <v>0.04130050973652095</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.07710150602078318</v>
+        <v>-0.06659038507724785</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1160250180526974</v>
+        <v>0.1144819491535555</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02277921524207648</v>
+        <v>0.04469303588416557</v>
       </c>
       <c r="G72" t="n">
-        <v>0.01509381288151727</v>
+        <v>0.04716977380760166</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03523044468454602</v>
+        <v>0.0008748300300534332</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03777796707753151</v>
+        <v>0.03192852600232885</v>
       </c>
       <c r="J72" t="n">
-        <v>0.06488661466613836</v>
+        <v>0.05748421761942876</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0408370825433001</v>
+        <v>0.03434298607575219</v>
       </c>
       <c r="L72" t="n">
-        <v>0.05158414898852941</v>
+        <v>0.02804457208431375</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01459053715100098</v>
+        <v>0.02815205890042791</v>
       </c>
       <c r="N72" t="n">
-        <v>0.009551469318477787</v>
+        <v>0.006390520789423991</v>
       </c>
       <c r="O72" t="n">
-        <v>0.07771341121643333</v>
+        <v>0.0330634297451124</v>
       </c>
       <c r="P72" t="n">
-        <v>0.0697558284805079</v>
+        <v>0.07844040752067676</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01712145737809959</v>
+        <v>0.02893449124380689</v>
       </c>
       <c r="R72" t="n">
-        <v>0.0759725880937602</v>
+        <v>0.01418223816658859</v>
       </c>
       <c r="S72" t="n">
-        <v>0.02237689644141949</v>
+        <v>0.06348063644518585</v>
       </c>
       <c r="T72" t="n">
-        <v>0.05803617714619592</v>
+        <v>0.06258995540501253</v>
       </c>
       <c r="U72" t="n">
-        <v>0.05187457934680956</v>
+        <v>0.08688288465295664</v>
       </c>
       <c r="V72" t="n">
-        <v>0.00670998908692334</v>
+        <v>0.0232297018960858</v>
       </c>
       <c r="W72" t="n">
-        <v>0.06691977786831982</v>
+        <v>0.07897467235926814</v>
       </c>
       <c r="X72" t="n">
-        <v>0.05694718523762002</v>
+        <v>0.07574893584584814</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.04004037260986605</v>
+        <v>0.02304322842507991</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.07519300161286536</v>
+        <v>0.05976072568236296</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.04985659212218669</v>
+        <v>0.02660608555001061</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.03915085080587485</v>
+        <v>0.06598208586850868</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.168781331796762</v>
+        <v>-0.1377918717084664</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.135730847014129</v>
+        <v>0.1316334907590392</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0710582038745964</v>
+        <v>0.1165208258330642</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08816943565128002</v>
+        <v>0.09272094621274107</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03936032432396145</v>
+        <v>0.01162008511051339</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04972682485615388</v>
+        <v>0.01168552153178452</v>
       </c>
       <c r="J73" t="n">
-        <v>0.03485035476038716</v>
+        <v>0.02085687928749256</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01833761552731611</v>
+        <v>0.05497838990958748</v>
       </c>
       <c r="L73" t="n">
-        <v>0.02228335094453012</v>
+        <v>0.05036295127793745</v>
       </c>
       <c r="M73" t="n">
-        <v>0.09580280737178372</v>
+        <v>0.05396196096096831</v>
       </c>
       <c r="N73" t="n">
-        <v>0.001349771312131559</v>
+        <v>0.008621674393391886</v>
       </c>
       <c r="O73" t="n">
-        <v>0.01746030949293289</v>
+        <v>0.00437966524176986</v>
       </c>
       <c r="P73" t="n">
-        <v>0.01493793220969059</v>
+        <v>0.02364194759137738</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.05643587919729856</v>
+        <v>0.008587126384722067</v>
       </c>
       <c r="R73" t="n">
-        <v>0.0372284285645699</v>
+        <v>0.04813180955247851</v>
       </c>
       <c r="S73" t="n">
-        <v>0.03466395718685515</v>
+        <v>0.04329452146662728</v>
       </c>
       <c r="T73" t="n">
-        <v>0.03712236826910712</v>
+        <v>0.03524810332108595</v>
       </c>
       <c r="U73" t="n">
-        <v>0.02606735442451861</v>
+        <v>0.01535011773870189</v>
       </c>
       <c r="V73" t="n">
-        <v>0.06548407597692638</v>
+        <v>0.09354998584541227</v>
       </c>
       <c r="W73" t="n">
-        <v>0.02065161742243909</v>
+        <v>0.02046735430068069</v>
       </c>
       <c r="X73" t="n">
-        <v>0.01696866848113616</v>
+        <v>0.01740059312371426</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.08474634814992066</v>
+        <v>0.09244483589599868</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.07396829769093702</v>
+        <v>0.1297211722736315</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.01041996705207215</v>
+        <v>0.007154275131831464</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.08290610725945527</v>
+        <v>0.03929925761448744</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.161122403344253</v>
+        <v>-0.1766709723679629</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1263223088564928</v>
+        <v>0.1254703244246507</v>
       </c>
       <c r="F74" t="n">
-        <v>0.05450096922183766</v>
+        <v>0.03927711079013651</v>
       </c>
       <c r="G74" t="n">
-        <v>0.07141841942962614</v>
+        <v>0.06141243988065752</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05133282930863984</v>
+        <v>0.002534551843056196</v>
       </c>
       <c r="I74" t="n">
-        <v>0.007670903115599109</v>
+        <v>0.003111183587220281</v>
       </c>
       <c r="J74" t="n">
-        <v>0.07485875683741521</v>
+        <v>0.02241416969048337</v>
       </c>
       <c r="K74" t="n">
-        <v>0.02120167260627266</v>
+        <v>0.03670286003897856</v>
       </c>
       <c r="L74" t="n">
-        <v>0.04603911965362059</v>
+        <v>0.007326869031270621</v>
       </c>
       <c r="M74" t="n">
-        <v>0.06245354445263453</v>
+        <v>0.08909444921933851</v>
       </c>
       <c r="N74" t="n">
-        <v>0.01318663483980895</v>
+        <v>0.01168266763000257</v>
       </c>
       <c r="O74" t="n">
-        <v>0.007935772587497418</v>
+        <v>0.006862288003673661</v>
       </c>
       <c r="P74" t="n">
-        <v>0.06257440769943717</v>
+        <v>0.06469705474077177</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.07525704330062821</v>
+        <v>0.06224501207547277</v>
       </c>
       <c r="R74" t="n">
-        <v>0.001741307405388094</v>
+        <v>0.05167189008379128</v>
       </c>
       <c r="S74" t="n">
-        <v>0.02376498180323378</v>
+        <v>0.01286889461230312</v>
       </c>
       <c r="T74" t="n">
-        <v>0.04024895629320064</v>
+        <v>0.04223948715133195</v>
       </c>
       <c r="U74" t="n">
-        <v>0.04929227662095981</v>
+        <v>0.06682661115364211</v>
       </c>
       <c r="V74" t="n">
-        <v>0.012654818908979</v>
+        <v>0.01450865772613541</v>
       </c>
       <c r="W74" t="n">
-        <v>0.07739944324370818</v>
+        <v>0.05009966511475219</v>
       </c>
       <c r="X74" t="n">
-        <v>0.07707755907380755</v>
+        <v>0.1018610841188087</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.05977285098745504</v>
+        <v>0.07007269666534557</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.0641724655730217</v>
+        <v>0.1092380815478204</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.02493613692360331</v>
+        <v>0.03011912786156344</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.02050913011362536</v>
+        <v>0.04313314743344363</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.1380056758289698</v>
+        <v>0.1467574933048519</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1309485331019884</v>
+        <v>0.1306656280353246</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02858651182171832</v>
+        <v>0.0579062109718554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.07901456336648836</v>
+        <v>0.003234305006047109</v>
       </c>
       <c r="H75" t="n">
-        <v>0.03979974248365168</v>
+        <v>0.0876130261974999</v>
       </c>
       <c r="I75" t="n">
-        <v>0.002334455001774303</v>
+        <v>0.00283068599626952</v>
       </c>
       <c r="J75" t="n">
-        <v>0.06317431252512663</v>
+        <v>0.06413275627724423</v>
       </c>
       <c r="K75" t="n">
-        <v>0.0009322149128260022</v>
+        <v>0.004131364901078187</v>
       </c>
       <c r="L75" t="n">
-        <v>0.01321283228347454</v>
+        <v>0.02076361254703564</v>
       </c>
       <c r="M75" t="n">
-        <v>0.08411967152869222</v>
+        <v>0.07098450652623348</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0217542164202835</v>
+        <v>0.006391774722763198</v>
       </c>
       <c r="O75" t="n">
-        <v>0.03038431720731669</v>
+        <v>0.006631196438014516</v>
       </c>
       <c r="P75" t="n">
-        <v>0.07743605106900842</v>
+        <v>0.08559321109753815</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.01644133209472235</v>
+        <v>0.05101122481530919</v>
       </c>
       <c r="R75" t="n">
-        <v>0.07450964150898012</v>
+        <v>0.01965314791440504</v>
       </c>
       <c r="S75" t="n">
-        <v>0.04760484702058829</v>
+        <v>0.06441134212204795</v>
       </c>
       <c r="T75" t="n">
-        <v>0.00381300947312801</v>
+        <v>0.02291008089923567</v>
       </c>
       <c r="U75" t="n">
-        <v>0.05578605457787218</v>
+        <v>0.06101449312304039</v>
       </c>
       <c r="V75" t="n">
-        <v>0.02147839597886712</v>
+        <v>0.04384551457491879</v>
       </c>
       <c r="W75" t="n">
-        <v>0.08344382095879273</v>
+        <v>0.0277743503083058</v>
       </c>
       <c r="X75" t="n">
-        <v>0.04147204003865414</v>
+        <v>0.05941668058512603</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.05292303076027635</v>
+        <v>0.09226096222115406</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.07744869666961302</v>
+        <v>0.08214570720285375</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.06567298983365709</v>
+        <v>0.02111762830908078</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.01865725246448817</v>
+        <v>0.04422621724294334</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1366526276200593</v>
+        <v>0.1383480723548173</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1290627850928426</v>
+        <v>0.1287158911634794</v>
       </c>
       <c r="F76" t="n">
-        <v>0.008612758645042759</v>
+        <v>0.01639325068261459</v>
       </c>
       <c r="G76" t="n">
-        <v>0.06979005639296725</v>
+        <v>0.06103115913130232</v>
       </c>
       <c r="H76" t="n">
-        <v>0.05774219424857269</v>
+        <v>0.05947357262649031</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01956954317655432</v>
+        <v>0.00981433670230117</v>
       </c>
       <c r="J76" t="n">
-        <v>0.03354435330879338</v>
+        <v>0.02105996767884358</v>
       </c>
       <c r="K76" t="n">
-        <v>0.05604287255036047</v>
+        <v>0.01041230458217333</v>
       </c>
       <c r="L76" t="n">
-        <v>0.08078116085551282</v>
+        <v>0.09541458354960529</v>
       </c>
       <c r="M76" t="n">
-        <v>0.04976786122021217</v>
+        <v>0.04577797073400013</v>
       </c>
       <c r="N76" t="n">
-        <v>0.008229747970919982</v>
+        <v>0.01164360579303907</v>
       </c>
       <c r="O76" t="n">
-        <v>0.04399197158485699</v>
+        <v>0.06118874068795287</v>
       </c>
       <c r="P76" t="n">
-        <v>0.07850863654173089</v>
+        <v>0.06692953970540114</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.07749527892836074</v>
+        <v>0.07844834306632649</v>
       </c>
       <c r="R76" t="n">
-        <v>0.07406659917185757</v>
+        <v>0.03271311901955488</v>
       </c>
       <c r="S76" t="n">
-        <v>0.01628566111692899</v>
+        <v>0.001382273937962197</v>
       </c>
       <c r="T76" t="n">
-        <v>0.0107728540980179</v>
+        <v>0.04184551592289567</v>
       </c>
       <c r="U76" t="n">
-        <v>0.04266458038340981</v>
+        <v>0.08888630876150552</v>
       </c>
       <c r="V76" t="n">
-        <v>0.07084185886413664</v>
+        <v>0.05556617989889116</v>
       </c>
       <c r="W76" t="n">
-        <v>0.06041621148462453</v>
+        <v>0.06623409633304284</v>
       </c>
       <c r="X76" t="n">
-        <v>0.004321340265392747</v>
+        <v>0.009387302244733598</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.06238621500465341</v>
+        <v>0.052783934789798</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.05525936195662753</v>
+        <v>0.001096306059556371</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.01254261563779658</v>
+        <v>0.05384793489033782</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.006366266592669801</v>
+        <v>0.05866965320167182</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.09940856127453132</v>
+        <v>-0.0878560261411637</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.2272598232071459</v>
+        <v>0.2377465422942196</v>
       </c>
       <c r="F77" t="n">
-        <v>0.09395708277758416</v>
+        <v>0.08423644926843561</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01278517592593916</v>
+        <v>0.002931138571910396</v>
       </c>
       <c r="H77" t="n">
-        <v>0.02626057383111528</v>
+        <v>0.02100444644208995</v>
       </c>
       <c r="I77" t="n">
-        <v>0.004629957243898895</v>
+        <v>0.06842370045005924</v>
       </c>
       <c r="J77" t="n">
-        <v>0.05000797467462911</v>
+        <v>0.04578170018698528</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008870402451723717</v>
+        <v>0.004964061937573108</v>
       </c>
       <c r="L77" t="n">
-        <v>0.002596058245104526</v>
+        <v>0.08236484163257721</v>
       </c>
       <c r="M77" t="n">
-        <v>0.02349522912289338</v>
+        <v>0.07607062601314242</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01949073635582975</v>
+        <v>0.01672395148299125</v>
       </c>
       <c r="O77" t="n">
-        <v>0.03379245993985831</v>
+        <v>0.009253360358318453</v>
       </c>
       <c r="P77" t="n">
-        <v>0.08185656847786564</v>
+        <v>0.03227390605113756</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.08674831813920701</v>
+        <v>0.07216114588241083</v>
       </c>
       <c r="R77" t="n">
-        <v>0.0738501186637625</v>
+        <v>0.01845939319639509</v>
       </c>
       <c r="S77" t="n">
-        <v>0.0221500651976182</v>
+        <v>0.02187069675742018</v>
       </c>
       <c r="T77" t="n">
-        <v>0.004934044052139112</v>
+        <v>0.0549774257796766</v>
       </c>
       <c r="U77" t="n">
-        <v>0.008458287390672581</v>
+        <v>0.01155879819533889</v>
       </c>
       <c r="V77" t="n">
-        <v>0.09397158613645193</v>
+        <v>0.06489548949352396</v>
       </c>
       <c r="W77" t="n">
-        <v>0.04658947043452151</v>
+        <v>0.009142536967753868</v>
       </c>
       <c r="X77" t="n">
-        <v>0.06976899148063535</v>
+        <v>0.07565825586011912</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.08678453804846657</v>
+        <v>0.03992928536747132</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.09321712765748483</v>
+        <v>0.1153446912330081</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.02390811217360944</v>
+        <v>0.04999178033396724</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.03187712157898907</v>
+        <v>0.02198231853769439</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.05443274255319879</v>
+        <v>-0.0620567886087444</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1259672398080225</v>
+        <v>0.1270554612330725</v>
       </c>
       <c r="F78" t="n">
-        <v>9.591919595749298e-06</v>
+        <v>0.00630403640734192</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01664445598727719</v>
+        <v>0.0712686814820422</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05588686208162109</v>
+        <v>0.09475727360924396</v>
       </c>
       <c r="I78" t="n">
-        <v>0.006423899565644185</v>
+        <v>0.01164760147622281</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0817353818955773</v>
+        <v>0.02961929158885608</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00539421497508171</v>
+        <v>0.009804735622073117</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01746945618996754</v>
+        <v>0.0129339485445193</v>
       </c>
       <c r="M78" t="n">
-        <v>0.03516997021313407</v>
+        <v>0.0764479328760508</v>
       </c>
       <c r="N78" t="n">
-        <v>0.02044650879095428</v>
+        <v>0.0058620366360789</v>
       </c>
       <c r="O78" t="n">
-        <v>0.08631610453987142</v>
+        <v>0.05379237225897519</v>
       </c>
       <c r="P78" t="n">
-        <v>0.08528201758145</v>
+        <v>0.09483578391824912</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.08657278468357238</v>
+        <v>0.09160999773007247</v>
       </c>
       <c r="R78" t="n">
-        <v>0.04065378428323514</v>
+        <v>0.01794717734257087</v>
       </c>
       <c r="S78" t="n">
-        <v>0.0472999192129723</v>
+        <v>0.0002533513850800447</v>
       </c>
       <c r="T78" t="n">
-        <v>0.0502202835636482</v>
+        <v>0.06196789280362527</v>
       </c>
       <c r="U78" t="n">
-        <v>0.04319526580425418</v>
+        <v>0.0112566299830864</v>
       </c>
       <c r="V78" t="n">
-        <v>0.0344268118617203</v>
+        <v>0.01387550320152857</v>
       </c>
       <c r="W78" t="n">
-        <v>0.07492041284470172</v>
+        <v>0.09091567336498742</v>
       </c>
       <c r="X78" t="n">
-        <v>0.06643953208063133</v>
+        <v>0.07836108363510502</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.03836927329267117</v>
+        <v>0.06844988314680779</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.06976099985358682</v>
+        <v>0.03411890069954997</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.0321632350919886</v>
+        <v>0.01080533997001703</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.005199233686843053</v>
+        <v>0.05316487231791569</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.09950148039648521</v>
+        <v>0.08608894621073446</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1444634168927192</v>
+        <v>0.1572920768788985</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07328536677658842</v>
+        <v>0.09671399404602354</v>
       </c>
       <c r="G79" t="n">
-        <v>0.06157798174389293</v>
+        <v>0.0600722535721353</v>
       </c>
       <c r="H79" t="n">
-        <v>0.005195639259255663</v>
+        <v>3.936325166260093e-05</v>
       </c>
       <c r="I79" t="n">
-        <v>0.02099852939279835</v>
+        <v>0.02117916476353943</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01141297375048178</v>
+        <v>0.0380167156826071</v>
       </c>
       <c r="K79" t="n">
-        <v>0.008295372261561185</v>
+        <v>0.01582445242099153</v>
       </c>
       <c r="L79" t="n">
-        <v>0.007085524966248286</v>
+        <v>0.04031442061685502</v>
       </c>
       <c r="M79" t="n">
-        <v>0.08022055054571213</v>
+        <v>0.01348510371344088</v>
       </c>
       <c r="N79" t="n">
-        <v>0.008551612210513251</v>
+        <v>0.006028460833166638</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01663411759537091</v>
+        <v>0.02977576167769111</v>
       </c>
       <c r="P79" t="n">
-        <v>0.0605758048170019</v>
+        <v>0.09147964763586534</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.04431831611026714</v>
+        <v>0.1016161504032881</v>
       </c>
       <c r="R79" t="n">
-        <v>0.03415355081334599</v>
+        <v>0.05908886883220521</v>
       </c>
       <c r="S79" t="n">
-        <v>0.006679767932885602</v>
+        <v>0.006682889720900025</v>
       </c>
       <c r="T79" t="n">
-        <v>0.09070167531952998</v>
+        <v>0.02733657955154043</v>
       </c>
       <c r="U79" t="n">
-        <v>0.07952996883607627</v>
+        <v>0.005961657874759396</v>
       </c>
       <c r="V79" t="n">
-        <v>0.007421977143570101</v>
+        <v>0.0276241946030709</v>
       </c>
       <c r="W79" t="n">
-        <v>0.01487712595548763</v>
+        <v>0.001805294739026883</v>
       </c>
       <c r="X79" t="n">
-        <v>0.09123572333701722</v>
+        <v>0.08864134379569595</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.0905353372719641</v>
+        <v>0.08638296814372946</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.07078743624507289</v>
+        <v>0.04775139467774403</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.05682824467269242</v>
+        <v>0.09402906638752799</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.05909740304266602</v>
+        <v>0.04015025305653329</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.08307667635112376</v>
+        <v>0.1063874414704065</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1430706151630234</v>
+        <v>0.1452730204744108</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00344706216959473</v>
+        <v>0.03296296645441524</v>
       </c>
       <c r="G80" t="n">
-        <v>0.08222635215871404</v>
+        <v>0.04727864727344641</v>
       </c>
       <c r="H80" t="n">
-        <v>0.05859652038147135</v>
+        <v>0.07175345124229965</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01881620733549017</v>
+        <v>0.010380557195909</v>
       </c>
       <c r="J80" t="n">
-        <v>0.003509349863732273</v>
+        <v>0.05522714235624653</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02388180777573022</v>
+        <v>0.05015457207457595</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01619360093053541</v>
+        <v>0.06540281826339425</v>
       </c>
       <c r="M80" t="n">
-        <v>0.008987424032158789</v>
+        <v>0.003978702686122638</v>
       </c>
       <c r="N80" t="n">
-        <v>0.003832523105731873</v>
+        <v>0.003320712737236265</v>
       </c>
       <c r="O80" t="n">
-        <v>0.09596890095343379</v>
+        <v>0.008681891167075288</v>
       </c>
       <c r="P80" t="n">
-        <v>0.1253595552688702</v>
+        <v>0.002631372797926101</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.09913991664869565</v>
+        <v>0.09004996243280865</v>
       </c>
       <c r="R80" t="n">
-        <v>0.02256887556029458</v>
+        <v>0.005727883794196242</v>
       </c>
       <c r="S80" t="n">
-        <v>0.002702258737718148</v>
+        <v>0.06357474097827107</v>
       </c>
       <c r="T80" t="n">
-        <v>0.05721727383517759</v>
+        <v>0.09023693350876504</v>
       </c>
       <c r="U80" t="n">
-        <v>0.05445770141915311</v>
+        <v>0.1060128422461129</v>
       </c>
       <c r="V80" t="n">
-        <v>0.03735927939227423</v>
+        <v>0.00245485153534632</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0780742355115427</v>
+        <v>0.08478042591925324</v>
       </c>
       <c r="X80" t="n">
-        <v>0.02562059209663271</v>
+        <v>0.01319266664487847</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.05017720943664977</v>
+        <v>0.09264481127736375</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.01892500053340766</v>
+        <v>0.0827199187366154</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.04344239006299729</v>
+        <v>0.01220827915359927</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.06949596278999377</v>
+        <v>0.00462384952414227</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.1919783972781764</v>
+        <v>-0.2137798715081172</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.17256480668453</v>
+        <v>0.162519119017614</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1104661831127966</v>
+        <v>0.07159306518657531</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1007501516448015</v>
+        <v>0.07995255833435347</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01336409837035144</v>
+        <v>0.004442098753195534</v>
       </c>
       <c r="I81" t="n">
-        <v>0.00544136261829225</v>
+        <v>0.01494306619251924</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03573424908551967</v>
+        <v>0.007186540259215131</v>
       </c>
       <c r="K81" t="n">
-        <v>0.001331187978206118</v>
+        <v>0.01630725785473175</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03010540079147397</v>
+        <v>0.02631328422048937</v>
       </c>
       <c r="M81" t="n">
-        <v>0.03733882337141365</v>
+        <v>0.06021141874760368</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01819930027013944</v>
+        <v>0.003954881006026048</v>
       </c>
       <c r="O81" t="n">
-        <v>0.1072465572854055</v>
+        <v>0.09161677069139879</v>
       </c>
       <c r="P81" t="n">
-        <v>0.01505699294324149</v>
+        <v>0.01486985388886819</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.02682687904361759</v>
+        <v>0.07990430449246012</v>
       </c>
       <c r="R81" t="n">
-        <v>0.004345784119768474</v>
+        <v>0.00723386011971595</v>
       </c>
       <c r="S81" t="n">
-        <v>0.01479990793930935</v>
+        <v>0.03858643086568017</v>
       </c>
       <c r="T81" t="n">
-        <v>0.06018736942363844</v>
+        <v>0.08792963822829618</v>
       </c>
       <c r="U81" t="n">
-        <v>0.001114399760172123</v>
+        <v>0.01918345492712214</v>
       </c>
       <c r="V81" t="n">
-        <v>0.0216198402007749</v>
+        <v>0.01620787712792656</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1042322472661691</v>
+        <v>0.1005593609902646</v>
       </c>
       <c r="X81" t="n">
-        <v>0.07109735229365563</v>
+        <v>0.07678756048053607</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0226081083877983</v>
+        <v>0.03543222615623747</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.06714248979769334</v>
+        <v>0.06784768864841764</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.01672103939376571</v>
+        <v>0.01748329957048153</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.1142702749019955</v>
+        <v>0.06145350325788501</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.2299834598610407</v>
+        <v>-0.2049090135341464</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1995538370916727</v>
+        <v>0.2024011742873703</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07308571972945146</v>
+        <v>0.08094335817989158</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04989657278832534</v>
+        <v>0.05338608008978608</v>
       </c>
       <c r="H82" t="n">
-        <v>0.05452181712706757</v>
+        <v>0.05369505495096589</v>
       </c>
       <c r="I82" t="n">
-        <v>0.05334299093132159</v>
+        <v>0.0253204364276181</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01363476076683423</v>
+        <v>0.002122831364911678</v>
       </c>
       <c r="K82" t="n">
-        <v>0.003893319781320519</v>
+        <v>0.00718944836179551</v>
       </c>
       <c r="L82" t="n">
-        <v>0.004095100913635826</v>
+        <v>0.007319399680685092</v>
       </c>
       <c r="M82" t="n">
-        <v>0.08601847995290011</v>
+        <v>0.0557934308223733</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02268923845491809</v>
+        <v>0.002294767256442234</v>
       </c>
       <c r="O82" t="n">
-        <v>0.08327904094017397</v>
+        <v>0.0566171853347897</v>
       </c>
       <c r="P82" t="n">
-        <v>0.07659220505975675</v>
+        <v>0.02555356137701957</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.07801803355854124</v>
+        <v>0.07412965942336799</v>
       </c>
       <c r="R82" t="n">
-        <v>0.08679005127540183</v>
+        <v>0.05977830282868121</v>
       </c>
       <c r="S82" t="n">
-        <v>0.09133379689790312</v>
+        <v>0.07610518071527586</v>
       </c>
       <c r="T82" t="n">
-        <v>0.003628117289183953</v>
+        <v>0.0008860026821684871</v>
       </c>
       <c r="U82" t="n">
-        <v>0.08492153154317189</v>
+        <v>0.07865094138305828</v>
       </c>
       <c r="V82" t="n">
-        <v>0.01599559142190287</v>
+        <v>0.001326814366611858</v>
       </c>
       <c r="W82" t="n">
-        <v>0.02366208179372388</v>
+        <v>0.06389939871341577</v>
       </c>
       <c r="X82" t="n">
-        <v>0.004936028767630933</v>
+        <v>0.05092074999024672</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.02632780540442389</v>
+        <v>0.05743005686638198</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.03321158921003403</v>
+        <v>0.06530091948002129</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.008722311426060813</v>
+        <v>0.05452553909395871</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.02140381496631594</v>
+        <v>0.04681088061053285</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.1423156041170273</v>
+        <v>0.1652591466990643</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2162429830178779</v>
+        <v>0.2153208758260327</v>
       </c>
       <c r="F83" t="n">
-        <v>0.07816783061534513</v>
+        <v>0.04357331623621645</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05970814190492043</v>
+        <v>0.01318030142179526</v>
       </c>
       <c r="H83" t="n">
-        <v>0.003497798710182208</v>
+        <v>0.009240467397242901</v>
       </c>
       <c r="I83" t="n">
-        <v>0.03708040241393983</v>
+        <v>0.05264153503927154</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01445644506957301</v>
+        <v>0.0005357926799633548</v>
       </c>
       <c r="K83" t="n">
-        <v>0.008421725412842265</v>
+        <v>0.006750981159910103</v>
       </c>
       <c r="L83" t="n">
-        <v>0.01195043457877264</v>
+        <v>0.01442634041052504</v>
       </c>
       <c r="M83" t="n">
-        <v>0.07897425165999904</v>
+        <v>0.07602499473388834</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0740992202698062</v>
+        <v>0.0265801907255596</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0617319071087263</v>
+        <v>0.1002044774358687</v>
       </c>
       <c r="P83" t="n">
-        <v>0.01902819029811807</v>
+        <v>0.02878577930117382</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.05081819661975287</v>
+        <v>0.04097307329363178</v>
       </c>
       <c r="R83" t="n">
-        <v>0.08664679279838074</v>
+        <v>0.095358249958741</v>
       </c>
       <c r="S83" t="n">
-        <v>0.01437853689208711</v>
+        <v>0.06172353889161948</v>
       </c>
       <c r="T83" t="n">
-        <v>0.02079447807850478</v>
+        <v>0.02592138315705811</v>
       </c>
       <c r="U83" t="n">
-        <v>0.04589259638712596</v>
+        <v>0.08898321711242929</v>
       </c>
       <c r="V83" t="n">
-        <v>0.005083431956713905</v>
+        <v>0.06993822193822885</v>
       </c>
       <c r="W83" t="n">
-        <v>0.07104674365698753</v>
+        <v>0.04905606574047996</v>
       </c>
       <c r="X83" t="n">
-        <v>0.06881371458351881</v>
+        <v>0.01087042431255146</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.07567495210507877</v>
+        <v>0.050589537788274</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.07665701309170757</v>
+        <v>0.09006619835529661</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.03454705810584057</v>
+        <v>0.000572303498582007</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.00253013768207639</v>
+        <v>0.04400360941169237</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.1818781044658936</v>
+        <v>0.1769682345928579</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2095078563765836</v>
+        <v>0.215045287882452</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1014229301458288</v>
+        <v>0.04360964606094712</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01117010207157699</v>
+        <v>0.05676973177170282</v>
       </c>
       <c r="H84" t="n">
-        <v>0.00432287197888486</v>
+        <v>0.07722783167919563</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0007454599714784034</v>
+        <v>0.06874317733409127</v>
       </c>
       <c r="J84" t="n">
-        <v>0.05128140706217241</v>
+        <v>0.000853955639702101</v>
       </c>
       <c r="K84" t="n">
-        <v>0.02288014772150369</v>
+        <v>0.03522861107344444</v>
       </c>
       <c r="L84" t="n">
-        <v>0.007506861546913611</v>
+        <v>0.0004808275317622571</v>
       </c>
       <c r="M84" t="n">
-        <v>0.05439059458756048</v>
+        <v>0.08399132664785787</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0151519425837422</v>
+        <v>0.02142729259706048</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0002040535996543668</v>
+        <v>0.01761421785965127</v>
       </c>
       <c r="P84" t="n">
-        <v>0.03377036979753919</v>
+        <v>0.08106282603801408</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.1165523162648286</v>
+        <v>0.07409479882449756</v>
       </c>
       <c r="R84" t="n">
-        <v>0.09166842388614761</v>
+        <v>0.07152300649887335</v>
       </c>
       <c r="S84" t="n">
-        <v>0.04013547731356928</v>
+        <v>0.02564723824781287</v>
       </c>
       <c r="T84" t="n">
-        <v>0.002502186303739718</v>
+        <v>0.03716344427161285</v>
       </c>
       <c r="U84" t="n">
-        <v>0.04041580659768482</v>
+        <v>0.05491321524166842</v>
       </c>
       <c r="V84" t="n">
-        <v>0.02368578982712262</v>
+        <v>0.001327736202451675</v>
       </c>
       <c r="W84" t="n">
-        <v>0.1279593288025548</v>
+        <v>0.04882003382444249</v>
       </c>
       <c r="X84" t="n">
-        <v>0.06795691442434472</v>
+        <v>0.01833261436358354</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.08324932698544177</v>
+        <v>0.0690800174916846</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.08377036507063504</v>
+        <v>0.08678912326842435</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.0163192721899559</v>
+        <v>0.01104919530966388</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.002938051267120221</v>
+        <v>0.01425013222185507</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.03642988918176514</v>
+        <v>0.0191571265030936</v>
       </c>
     </row>
     <row r="85">
@@ -8476,79 +8476,79 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2395932561332502</v>
+        <v>0.2724494464453264</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1101146267560061</v>
+        <v>0.07683790936552323</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02606319098674817</v>
+        <v>0.03994091449657459</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0327931225155815</v>
+        <v>0.002026380162390021</v>
       </c>
       <c r="I85" t="n">
-        <v>0.08901909048790771</v>
+        <v>0.05793023292095622</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01691605707383278</v>
+        <v>0.006404132307150043</v>
       </c>
       <c r="K85" t="n">
-        <v>0.006458018685733516</v>
+        <v>0.01460231344154693</v>
       </c>
       <c r="L85" t="n">
-        <v>0.001280027200689755</v>
+        <v>0.03886197173718685</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0940041478691703</v>
+        <v>0.04135032884088211</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0002733635652670157</v>
+        <v>0.007029408705744666</v>
       </c>
       <c r="O85" t="n">
-        <v>0.02376816340983567</v>
+        <v>0.06997875873775446</v>
       </c>
       <c r="P85" t="n">
-        <v>0.009631003048635896</v>
+        <v>0.06812072984234703</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.06645845289057764</v>
+        <v>0.05817507248918909</v>
       </c>
       <c r="R85" t="n">
-        <v>0.08765277797012698</v>
+        <v>0.07759492374267578</v>
       </c>
       <c r="S85" t="n">
-        <v>0.08158739417593046</v>
+        <v>0.03529273469108721</v>
       </c>
       <c r="T85" t="n">
-        <v>0.01122640178173638</v>
+        <v>0.01120081035424209</v>
       </c>
       <c r="U85" t="n">
-        <v>0.008494327449919296</v>
+        <v>0.01930665911099509</v>
       </c>
       <c r="V85" t="n">
-        <v>0.01602368829392115</v>
+        <v>0.05519982420352275</v>
       </c>
       <c r="W85" t="n">
-        <v>0.009345023073203939</v>
+        <v>0.07504467405320385</v>
       </c>
       <c r="X85" t="n">
-        <v>0.103149777655345</v>
+        <v>0.04765177545568454</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.07604258977578621</v>
+        <v>0.07811895971118231</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.06739877276121274</v>
+        <v>0.06420922266914275</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.01473417655554454</v>
+        <v>0.0331028751643551</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.04756580601728731</v>
+        <v>0.02201938779666312</v>
       </c>
       <c r="AC85" t="n">
-        <v>-0.001527625218311613</v>
+        <v>0.04087498526755463</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1406939706071777</v>
+        <v>0.1400668321084843</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04411022157822307</v>
+        <v>0.04714434564237721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009861029805819417</v>
+        <v>0.01879507286009274</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07377084541159404</v>
+        <v>0.08762042545655474</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04720839812836049</v>
+        <v>0.08591400585452066</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02149205787884697</v>
+        <v>0.08844035316485484</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07359825035133229</v>
+        <v>0.05029576045982049</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07290525928783323</v>
+        <v>0.01583714033007219</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06881742027532141</v>
+        <v>0.05451325400055033</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03896051264594459</v>
+        <v>0.09435642553742613</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06975025983555386</v>
+        <v>0.06612186743749171</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04537134024524792</v>
+        <v>0.09533557774063488</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02866263180431763</v>
+        <v>0.01707923070416702</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05959309374781366</v>
+        <v>0.006658435681529331</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02572339235738338</v>
+        <v>0.01790575963740024</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01729306487271714</v>
+        <v>0.03798607004023342</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06370807567401336</v>
+        <v>0.08531323936548277</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003896211098023816</v>
+        <v>0.005610931105553447</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03896535235369882</v>
+        <v>0.0440970629708416</v>
       </c>
       <c r="X2" t="n">
-        <v>0.07224415915939973</v>
+        <v>0.001240888705784926</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.009136731394776198</v>
+        <v>0.007619173005229587</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04626757735419762</v>
+        <v>0.01391474926275497</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06181246098810165</v>
+        <v>0.0348702171872477</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.006851653751479885</v>
+        <v>0.02333001384937909</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1048539867316382</v>
+        <v>0.1025027763869769</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4088219139863837</v>
+        <v>0.2810876153299905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004032968963240769</v>
+        <v>0.02412864050411633</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04750928241025529</v>
+        <v>0.04190681899523684</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03916471158635049</v>
+        <v>0.03909447365697214</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08299107552326909</v>
+        <v>0.0007973327546535539</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03287421454453873</v>
+        <v>0.0113855227952184</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09263299716487797</v>
+        <v>0.04697429620332545</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007108721381382042</v>
+        <v>0.01069023337950464</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01831141423921842</v>
+        <v>0.06672464737619839</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04054916001571162</v>
+        <v>0.01706092783512676</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05091639280070805</v>
+        <v>0.03772952820185003</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02811896012140702</v>
+        <v>0.05312217718448425</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0227211757792074</v>
+        <v>0.06739906906468997</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07586044876405247</v>
+        <v>0.01058516422174576</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002146088190527892</v>
+        <v>0.08897125232578253</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1241576805976848</v>
+        <v>0.1070702560641256</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07653003932343941</v>
+        <v>0.06793341846608818</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1138506852492563</v>
+        <v>0.02913091654951519</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06587155609424454</v>
+        <v>0.03139768645168706</v>
       </c>
       <c r="X3" t="n">
-        <v>0.003853938292913678</v>
+        <v>0.04323112731631345</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005520239218802545</v>
+        <v>0.009403243002951565</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.04286120526481125</v>
+        <v>0.0141349751941505</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.005597332922621533</v>
+        <v>0.0776289700726823</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01681971155147886</v>
+        <v>0.1034993223835813</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09101976076376014</v>
+        <v>0.1133155111762229</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1643774369937522</v>
+        <v>0.145392903180542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09676549327757092</v>
+        <v>0.05834910198662192</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03034824590534379</v>
+        <v>0.006565472894156928</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009391926457523441</v>
+        <v>0.001479829879282364</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09275049469240419</v>
+        <v>0.009607980486360169</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06381188558235484</v>
+        <v>0.04605499448056249</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04803942405638709</v>
+        <v>0.02929155535838792</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003622355367670799</v>
+        <v>0.005210783572915625</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03997016792317122</v>
+        <v>0.05028892725065902</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05143460420710907</v>
+        <v>0.004423222341569154</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05093306994493679</v>
+        <v>0.1077958001319844</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03521247452811699</v>
+        <v>0.07956450614813278</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03837555629843395</v>
+        <v>0.01167982232585767</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09167383646982384</v>
+        <v>0.06788109547412423</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00554707115094121</v>
+        <v>0.02288993112844163</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01113397624743621</v>
+        <v>0.1056769338854959</v>
       </c>
       <c r="U4" t="n">
-        <v>0.009274775380575861</v>
+        <v>0.07068843493307644</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08526158405479289</v>
+        <v>0.05772808980136627</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001718629821572918</v>
+        <v>0.0388840159789914</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09740391060468413</v>
+        <v>0.09699234086369339</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03383366587935467</v>
+        <v>0.08168283526449296</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09061631448081731</v>
+        <v>0.02783529846168492</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.005256652187118427</v>
+        <v>0.002917419538905912</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.007623885481859293</v>
+        <v>0.01651160781323642</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.03485151532418401</v>
+        <v>-0.06715218242078227</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.4123908388245606</v>
+        <v>0.5229421706818971</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009691780681797012</v>
+        <v>0.07436217489861337</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01328127490194837</v>
+        <v>0.00398116220244326</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07148409537178488</v>
+        <v>0.005955551591265692</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02484076385363745</v>
+        <v>0.003147861305263133</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0570100350512899</v>
+        <v>0.06882151949136446</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07751198165163037</v>
+        <v>0.08991765295071295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006361881264171785</v>
+        <v>0.01256357289713743</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05980104406525297</v>
+        <v>0.03903226537852904</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04494173941932334</v>
+        <v>0.02017329678468419</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05801846745578244</v>
+        <v>0.05846781552376136</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03038029630895064</v>
+        <v>0.05035602768281017</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03680475343043589</v>
+        <v>0.01666560129381215</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04894235331535711</v>
+        <v>0.05525976935244462</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05257376755854006</v>
+        <v>0.06985937273675979</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03343744121114635</v>
+        <v>0.0791700185552784</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08029050088338589</v>
+        <v>0.03942695179181849</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04236886176172371</v>
+        <v>0.001848264576089417</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0354701859973616</v>
+        <v>0.02931439009518367</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06840526973054122</v>
+        <v>0.08598349958948043</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04831138705704735</v>
+        <v>0.09018666216983255</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06903202333677251</v>
+        <v>0.007482412631636392</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.002684444809078916</v>
+        <v>0.09441264077632447</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03408134402079471</v>
+        <v>0.003611515724754552</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.06184762211758178</v>
+        <v>-0.06749119842334067</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1346875619523865</v>
+        <v>0.1367136087511171</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08013057844086258</v>
+        <v>0.01497387088762805</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01593352601264788</v>
+        <v>0.04413272573968848</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004086043183134894</v>
+        <v>0.01323425787460227</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08808421548295169</v>
+        <v>0.002402681177507282</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08243584653480886</v>
+        <v>0.1205817620586428</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002385000277274599</v>
+        <v>0.01526616829101094</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01378788811683193</v>
+        <v>0.0002698339162688504</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001154632827350804</v>
+        <v>0.02450255392624944</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05722178858837203</v>
+        <v>0.02518655400763113</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08543426727955919</v>
+        <v>0.08981930570326746</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07243456269529193</v>
+        <v>0.1101559566845261</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03308543462837757</v>
+        <v>0.03582357786476765</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03198292588834969</v>
+        <v>0.03785065228543115</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0875944955013869</v>
+        <v>0.07068592610657626</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04610277537259392</v>
+        <v>0.02325513416666096</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08255910263609735</v>
+        <v>0.1094096262581799</v>
       </c>
       <c r="V6" t="n">
-        <v>0.06126325013812293</v>
+        <v>0.05867428909611744</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04781303071520952</v>
+        <v>0.05221640268442745</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03384418044327955</v>
+        <v>0.02998180114044836</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01150259216044203</v>
+        <v>0.01207339639739248</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.04141727189253064</v>
+        <v>0.0547538465593985</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0006673905581603813</v>
+        <v>0.05133505492698324</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0190792006263631</v>
+        <v>0.003414622246593866</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01552484453078491</v>
+        <v>0.01804675787153686</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1707618291633661</v>
+        <v>0.1560198609058097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001680355994626133</v>
+        <v>0.004695330763387236</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08288631740812669</v>
+        <v>0.008456935581216563</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008859601453975482</v>
+        <v>0.03368079082841937</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06256675739443691</v>
+        <v>0.04381604797034425</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001385721576501098</v>
+        <v>0.04294491877094644</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07694440394269418</v>
+        <v>0.08216197099713443</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08577841307230152</v>
+        <v>0.02787639770525321</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001062455438885866</v>
+        <v>0.007046209543677174</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02654057482424302</v>
+        <v>0.03987683886269936</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003988538378910526</v>
+        <v>0.04594688985614689</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01577261649282799</v>
+        <v>0.03867038212298943</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08053379796992365</v>
+        <v>0.06878504630593028</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01943552302896313</v>
+        <v>0.005231746218441988</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01697748034931234</v>
+        <v>0.04382331350504836</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07688659777242456</v>
+        <v>0.1045643171822134</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03087343510534029</v>
+        <v>0.1006355573639005</v>
       </c>
       <c r="V7" t="n">
-        <v>0.08925253418377825</v>
+        <v>0.08529396162598538</v>
       </c>
       <c r="W7" t="n">
-        <v>0.06082283706286453</v>
+        <v>0.06084037888959288</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02122069720753597</v>
+        <v>0.02254131410825266</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03968043795551963</v>
+        <v>0.01098821087281854</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.007142000170267455</v>
+        <v>0.01233423072582805</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.09564607661341364</v>
+        <v>0.009546275808014506</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0940628266031272</v>
+        <v>0.100242934391759</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.001583474222683695</v>
+        <v>-0.006239031931259804</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.145021399272482</v>
+        <v>0.1443207538517014</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04554897856304108</v>
+        <v>0.0828778165925995</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0775824807532961</v>
+        <v>0.01911726086961664</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007651065336431099</v>
+        <v>0.01546273558829412</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006376950839215212</v>
+        <v>0.07248757366258943</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0275524120571479</v>
+        <v>0.02442289733228089</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007931077487760882</v>
+        <v>0.01578694912063005</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02237785772538514</v>
+        <v>0.07267284281354905</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06648386834508449</v>
+        <v>0.02206057772138944</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05509007272911978</v>
+        <v>0.02377061171622661</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04720439818183383</v>
+        <v>0.07281467206205858</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07167939915509743</v>
+        <v>0.09634686852212071</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005911902543767112</v>
+        <v>0.0009664716245504035</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08008674819500637</v>
+        <v>0.06381002407604838</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08120522486259447</v>
+        <v>0.05867524372041032</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08274461330298882</v>
+        <v>0.05753435509012834</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0385815579977745</v>
+        <v>0.07625510426009814</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05429222237095296</v>
+        <v>0.0005017388527202468</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01805655808659861</v>
+        <v>0.05740709921049725</v>
       </c>
       <c r="X8" t="n">
-        <v>0.08356189855412308</v>
+        <v>0.01905207634565816</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002869687006545503</v>
+        <v>0.003074306427963568</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0561162428980379</v>
+        <v>0.07760972517633345</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.04117607302290802</v>
+        <v>0.03926111989675028</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01991870998528964</v>
+        <v>0.02803192931748635</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1402592539175551</v>
+        <v>-0.1447150755211115</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3279050546811944</v>
+        <v>0.3339365517710841</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05227399737057341</v>
+        <v>0.02032355318027854</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04528733332382745</v>
+        <v>0.06755671074464688</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02367864191141059</v>
+        <v>0.03864331239803086</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07411315447777177</v>
+        <v>0.07952660460148896</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01842182766575152</v>
+        <v>0.05280049923863921</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01407357540902772</v>
+        <v>0.01500956446271692</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03808989990651691</v>
+        <v>0.05468684623461977</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05617067589144321</v>
+        <v>0.03287233067547628</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03103531383970097</v>
+        <v>0.01664860115705023</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03160012396187133</v>
+        <v>0.05993743064475885</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02308406009221133</v>
+        <v>0.03570446337429502</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1143583257421336</v>
+        <v>0.0673541146548996</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04619032381784616</v>
+        <v>0.009904961963059964</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02295300876453147</v>
+        <v>0.02633747239817909</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001668281219747434</v>
+        <v>0.09368528498508075</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04739490564091418</v>
+        <v>0.07489642964303601</v>
       </c>
       <c r="V9" t="n">
-        <v>0.003436769719176639</v>
+        <v>0.02493401245097626</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09262381807836462</v>
+        <v>0.0007570087104939555</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03525058389459595</v>
+        <v>0.02109512607589393</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.008126227228864089</v>
+        <v>0.0005326325861068062</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.02861110118897014</v>
+        <v>0.02128166443190383</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.07473990932206946</v>
+        <v>0.0990114923655129</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1168181415326799</v>
+        <v>0.0864998830228553</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1271473925996481</v>
+        <v>-0.1498241635018284</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1534769286539397</v>
+        <v>0.156865322916555</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07557719572955651</v>
+        <v>0.032320612126195</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01263699611487367</v>
+        <v>0.02258115150127877</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01052511627308762</v>
+        <v>0.09040878726421585</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0948323091034331</v>
+        <v>0.04365821783351516</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03747704839164832</v>
+        <v>0.002640418335205605</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0464870849401746</v>
+        <v>0.04222409378376164</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005766679136797168</v>
+        <v>0.02150175734053675</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001290756673426829</v>
+        <v>0.03635204352649608</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01201281334986759</v>
+        <v>0.02599136431465201</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01350631424242474</v>
+        <v>0.05054657897619121</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06614288581532889</v>
+        <v>0.05005067409672961</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02196707151889279</v>
+        <v>0.09409956944791757</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0984962887346883</v>
+        <v>0.06592504114474144</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04610967404723351</v>
+        <v>0.07062173568352034</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0126284201280195</v>
+        <v>0.005622452721162978</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03849935314053931</v>
+        <v>0.08976538478237463</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01853227370790322</v>
+        <v>0.005238490677553302</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04682321623234356</v>
+        <v>0.04933608113208362</v>
       </c>
       <c r="X10" t="n">
-        <v>0.07049053543433832</v>
+        <v>0.04782676512883974</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07353992578755725</v>
+        <v>0.05373986431789834</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.09877283454960409</v>
+        <v>0.06423869010739625</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.03817868889534982</v>
+        <v>0.006300317209490192</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0597065180529114</v>
+        <v>0.02900990854824421</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.03246178750902648</v>
+        <v>-0.07296410981027383</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1687922128854378</v>
+        <v>0.1835303257456779</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1026789755592599</v>
+        <v>0.07572596810785148</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002724565834127647</v>
+        <v>0.02825312189455791</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1150252644908565</v>
+        <v>0.09324989894330002</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1103618737509135</v>
+        <v>0.09332903528870858</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01369914899562434</v>
+        <v>0.02749322389409858</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01530664704108932</v>
+        <v>0.002587383963040459</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04388319460036118</v>
+        <v>0.09715444680495483</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01368793034035375</v>
+        <v>0.09373551028210753</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02781838563986766</v>
+        <v>0.0402299891489694</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01335711562063978</v>
+        <v>0.000457685726806806</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03349300278157123</v>
+        <v>0.02785607322266547</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04320323332779186</v>
+        <v>0.05603553691876624</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01689414188708886</v>
+        <v>0.08356403843086933</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0009922622565998694</v>
+        <v>0.04717691432748811</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04817537125210947</v>
+        <v>0.00841139681913183</v>
       </c>
       <c r="U11" t="n">
-        <v>0.005546951624644431</v>
+        <v>0.01086671005968984</v>
       </c>
       <c r="V11" t="n">
-        <v>0.00281320301463764</v>
+        <v>0.01503523496072472</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06228539326976941</v>
+        <v>0.04198390754974981</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01488318474753243</v>
+        <v>0.02568669979470683</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.05312877530271762</v>
+        <v>0.001352858279748618</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1025838306710048</v>
+        <v>0.01029012555476388</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1077435127721846</v>
+        <v>0.02545011490464697</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.05216614446996932</v>
+        <v>0.09407412512265263</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.0708121977820121</v>
+        <v>-0.1125935480041143</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1624668230263154</v>
+        <v>0.1584086194893104</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05167588280447245</v>
+        <v>0.07465054229195212</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06656528814290059</v>
+        <v>0.01383959358600767</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01473073473490964</v>
+        <v>0.07395766894806771</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04761990323106904</v>
+        <v>0.03177447922341194</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04801934523922857</v>
+        <v>0.008469952408631241</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02607394607426171</v>
+        <v>0.0197136951203766</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05988149290316991</v>
+        <v>0.02654118049789115</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01831315751392751</v>
+        <v>0.01311979394245387</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01500367298710759</v>
+        <v>0.01960210528260829</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04467315852586696</v>
+        <v>0.05464404759062124</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01821826494633447</v>
+        <v>0.04234976642462036</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0725760763749817</v>
+        <v>0.04358303522255325</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09219870186688399</v>
+        <v>0.08380980394925126</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07613460494188162</v>
+        <v>0.06657900502055443</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02208105805220983</v>
+        <v>0.08708865176270945</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04263476891865028</v>
+        <v>0.00920191206621011</v>
       </c>
       <c r="V12" t="n">
-        <v>0.003883516380514568</v>
+        <v>0.008256402613273466</v>
       </c>
       <c r="W12" t="n">
-        <v>0.08362387776119666</v>
+        <v>0.07564795781782242</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04869149005719627</v>
+        <v>0.08033137409757206</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07952296308506589</v>
+        <v>0.08889342422538582</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.05226414779460319</v>
+        <v>0.06934256347732269</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01054340270863708</v>
+        <v>0.001664213129500462</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.005070544954930591</v>
+        <v>0.006938831301202617</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3157292477428361</v>
+        <v>-0.3441437782566001</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2293298300068156</v>
+        <v>0.2026401513268309</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08578763056110358</v>
+        <v>0.09257216703581961</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03434428491136492</v>
+        <v>0.001861680605853148</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09803241932630426</v>
+        <v>0.02985965579734126</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07463881832686931</v>
+        <v>0.0573268891878934</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06697824597770909</v>
+        <v>0.07678770751402175</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05926033297533775</v>
+        <v>0.03834731586377729</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03618108293072517</v>
+        <v>0.08044887807825818</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008415258971695358</v>
+        <v>0.0002394083954595288</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001478437698629364</v>
+        <v>0.002578030833407327</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006639977777352537</v>
+        <v>0.03292965310230071</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04533574839178547</v>
+        <v>0.01903938210417194</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04547235636617261</v>
+        <v>0.03601643136765857</v>
       </c>
       <c r="R13" t="n">
-        <v>0.002208166620292893</v>
+        <v>0.08020121130475009</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08150303529790662</v>
+        <v>0.04637142191189306</v>
       </c>
       <c r="T13" t="n">
-        <v>0.007686438965608605</v>
+        <v>0.000755949728098524</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0008432963478600651</v>
+        <v>0.009189995424097557</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0286959503311661</v>
+        <v>0.0230194659886554</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04604333896228097</v>
+        <v>0.09764340655975766</v>
       </c>
       <c r="X13" t="n">
-        <v>0.007969964590751912</v>
+        <v>0.02042051273264928</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.06156005897646952</v>
+        <v>0.01770129982056489</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.020388300401641</v>
+        <v>0.0943088722349992</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0794252990541411</v>
+        <v>0.05289944279624325</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1011115562368317</v>
+        <v>0.08948122161232824</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.467953977649264</v>
+        <v>-0.4213463864745443</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2565287246612219</v>
+        <v>0.2613550187347302</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02823837856329506</v>
+        <v>0.03393592808943315</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02654844066734722</v>
+        <v>0.005617888663769097</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04327174414498923</v>
+        <v>0.08272160237787711</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05604484379874464</v>
+        <v>0.08969461283376792</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01546424241601628</v>
+        <v>0.01752993625190029</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02259080442791504</v>
+        <v>0.01995604310916863</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001448267902100756</v>
+        <v>0.0005743483402229861</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01957604234281487</v>
+        <v>0.05941690590792523</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01491514307669243</v>
+        <v>0.01910718430200283</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05084540860164986</v>
+        <v>0.0008980922830534989</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09540999909582679</v>
+        <v>0.08682854788560083</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.06138069649978255</v>
+        <v>0.09151855036365272</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09715726759338644</v>
+        <v>0.05732509195731229</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05644837585775891</v>
+        <v>0.06598980305447269</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08159027882166955</v>
+        <v>0.05109361564735303</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03200178275076058</v>
+        <v>0.06433422882169804</v>
       </c>
       <c r="V14" t="n">
-        <v>0.001355504565840006</v>
+        <v>0.006364730775067563</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06835858638745651</v>
+        <v>0.03227100664678113</v>
       </c>
       <c r="X14" t="n">
-        <v>0.05713068051775174</v>
+        <v>0.06435022741327417</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07815629170785714</v>
+        <v>0.06223486891587997</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.05478399393423402</v>
+        <v>0.06013245511805846</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0005763473327638754</v>
+        <v>0.006869092203802827</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.03670687899334654</v>
+        <v>0.02123523903792542</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.08385027641122184</v>
+        <v>-0.06646568423815459</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3389950389580527</v>
+        <v>0.3787716575308157</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01340109490389189</v>
+        <v>0.009313657207096836</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002979693849113022</v>
+        <v>0.005924312447304913</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02626910884534397</v>
+        <v>0.01145931796609202</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02861040375472795</v>
+        <v>0.04058805334001486</v>
       </c>
       <c r="J15" t="n">
-        <v>0.006403213621903523</v>
+        <v>0.05445334613224794</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05763763210819706</v>
+        <v>0.01729865237812681</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005282299496565731</v>
+        <v>0.02753816928146116</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00555499170037079</v>
+        <v>0.08316687245222144</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04545137886886391</v>
+        <v>0.1089876413055891</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03453178905021866</v>
+        <v>0.06295269103417508</v>
       </c>
       <c r="P15" t="n">
-        <v>0.09027476498805501</v>
+        <v>0.03954752648882248</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0321379867780013</v>
+        <v>0.0704118366606408</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04986956662321914</v>
+        <v>0.09406093834448734</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05719436492270094</v>
+        <v>0.00391842666581707</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09921172495540698</v>
+        <v>0.09096584029202653</v>
       </c>
       <c r="U15" t="n">
-        <v>0.00202048918335684</v>
+        <v>0.004454184689245451</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1006949066260044</v>
+        <v>0.1211249138444658</v>
       </c>
       <c r="W15" t="n">
-        <v>0.05664807259551259</v>
+        <v>0.01772826631394889</v>
       </c>
       <c r="X15" t="n">
-        <v>0.07992020891702513</v>
+        <v>0.0111345539934548</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03121413463314984</v>
+        <v>0.08945929028115084</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.09582886984834411</v>
+        <v>0.02171800746691003</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.005600892696105695</v>
+        <v>0.00498830683490037</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.07326241103392156</v>
+        <v>0.008805194579799454</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02058044575925375</v>
+        <v>0.05104570234941084</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2784722902785176</v>
+        <v>0.2842130552044194</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06636812939836083</v>
+        <v>0.04031453962504283</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0194662992167631</v>
+        <v>0.06385016809518994</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02863263994818089</v>
+        <v>0.02214910981075715</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09949625125629147</v>
+        <v>0.01383766307536097</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02668954158159552</v>
+        <v>0.0215499653410656</v>
       </c>
       <c r="K16" t="n">
-        <v>0.004877499051918191</v>
+        <v>0.008941867040062538</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01095308454425569</v>
+        <v>0.05232151061749281</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01093485135679381</v>
+        <v>0.05266804909692631</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0205841956786501</v>
+        <v>0.010787771771074</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0884627756298617</v>
+        <v>0.04814126289400809</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02971025255657564</v>
+        <v>0.04365878347389004</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01402188745866055</v>
+        <v>0.07196831575024799</v>
       </c>
       <c r="R16" t="n">
-        <v>0.111332447051125</v>
+        <v>0.0713542423985204</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01048103797073125</v>
+        <v>0.07511079130878008</v>
       </c>
       <c r="T16" t="n">
-        <v>0.008020073237653368</v>
+        <v>0.003155915671383076</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07957248773585629</v>
+        <v>0.09022912079256204</v>
       </c>
       <c r="V16" t="n">
-        <v>0.002477441498300446</v>
+        <v>0.01931856684715103</v>
       </c>
       <c r="W16" t="n">
-        <v>0.09199817621942767</v>
+        <v>0.06640794403260281</v>
       </c>
       <c r="X16" t="n">
-        <v>0.04847743825224372</v>
+        <v>0.07302980171782476</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03208945830063289</v>
+        <v>0.0525233545581614</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.04890508652826169</v>
+        <v>0.08113222681365373</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0757141756344001</v>
+        <v>0.004521684728116284</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.07073476989346016</v>
+        <v>0.01302734454012626</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.11911472718085</v>
+        <v>0.09843664764422394</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5093038365436365</v>
+        <v>0.4614527718062015</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07902573523959071</v>
+        <v>0.06083295729359089</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0281920279337607</v>
+        <v>0.003459817575854962</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08492459025981651</v>
+        <v>0.09253288530261621</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04261637947445571</v>
+        <v>0.03909633086272919</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1039526126714208</v>
+        <v>0.07497038115787311</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001600289897785241</v>
+        <v>0.008039643194512404</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1050673809376117</v>
+        <v>0.02344993246221646</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003730121096321154</v>
+        <v>0.01133470660900563</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06678461715066605</v>
+        <v>0.09209299317421699</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01121364294167011</v>
+        <v>0.01641810929419904</v>
       </c>
       <c r="P17" t="n">
-        <v>0.006209577161095273</v>
+        <v>0.0982477440558719</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05327150340716737</v>
+        <v>0.01571983598015496</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01204081638517104</v>
+        <v>0.07539534942052944</v>
       </c>
       <c r="S17" t="n">
-        <v>0.06905687566868729</v>
+        <v>0.02857781787625219</v>
       </c>
       <c r="T17" t="n">
-        <v>0.007001967841901022</v>
+        <v>0.005039748701638687</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02595762708191682</v>
+        <v>0.05517027625539273</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1044333780382186</v>
+        <v>0.09949685273387092</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04029554905110233</v>
+        <v>0.04151958862724021</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06896756270160342</v>
+        <v>0.00567089756122522</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0009589946614925112</v>
+        <v>0.00353720741363119</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.06200014937699475</v>
+        <v>0.06809883305075778</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02156947040229365</v>
+        <v>0.06188972491047294</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.001129130619257442</v>
+        <v>0.01940836648614703</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1474446849492863</v>
+        <v>0.1613556916008601</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2705555339589699</v>
+        <v>0.2698226171956003</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0404035848744933</v>
+        <v>0.07776083289116197</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03340473920175463</v>
+        <v>0.04573251529882217</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04039703439324512</v>
+        <v>0.01699047897890199</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06003305376434461</v>
+        <v>0.07188138891155219</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01236297294110934</v>
+        <v>0.001463254924720381</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005745075626915829</v>
+        <v>0.00841800998645237</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0134593194128414</v>
+        <v>0.0180423573030619</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03642661358044551</v>
+        <v>0.00403509033408926</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0100780416172749</v>
+        <v>0.01495492865673455</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01186356239822546</v>
+        <v>0.07259557645831384</v>
       </c>
       <c r="P18" t="n">
-        <v>0.08677978776946198</v>
+        <v>0.06625256932890816</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04387989088201223</v>
+        <v>0.04912606291146988</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05443239806141216</v>
+        <v>0.09365295244748417</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08479443067161509</v>
+        <v>0.06033825312295525</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04734536100884809</v>
+        <v>0.000973692030225904</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07690045491860911</v>
+        <v>0.08588177266428199</v>
       </c>
       <c r="V18" t="n">
-        <v>0.02461517765234858</v>
+        <v>0.03268779445674743</v>
       </c>
       <c r="W18" t="n">
-        <v>0.09770421855093822</v>
+        <v>0.07660868723599193</v>
       </c>
       <c r="X18" t="n">
-        <v>0.06415333878067155</v>
+        <v>0.002256480196469202</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0492681710080189</v>
+        <v>0.06442507808539584</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.09708424056338023</v>
+        <v>0.05167437026558338</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.005760189314601102</v>
+        <v>0.0006106402755695265</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.003108343007432803</v>
+        <v>0.08363721323510663</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1372178443256943</v>
+        <v>0.1381801339839694</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.36144305267655</v>
+        <v>0.3605601497255455</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01819257207030684</v>
+        <v>0.05046231277120768</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04998515551589155</v>
+        <v>0.001103633141298365</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005752897744082173</v>
+        <v>0.04230638175604662</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01689395982997477</v>
+        <v>0.003404498376181767</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01035271110935736</v>
+        <v>0.0119217128464713</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02768934591958519</v>
+        <v>0.01424924776202505</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07679924309309005</v>
+        <v>0.01269372800603472</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003054139791861567</v>
+        <v>0.007796308005473688</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1136155579581706</v>
+        <v>0.1040961107888878</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02221970081725467</v>
+        <v>0.01614288085066995</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04242223214039111</v>
+        <v>0.05265133270481217</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02478141720523773</v>
+        <v>0.000753882491597492</v>
       </c>
       <c r="R19" t="n">
-        <v>0.03545809928493961</v>
+        <v>0.0763974439642424</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01188450991258976</v>
+        <v>0.005352908090048972</v>
       </c>
       <c r="T19" t="n">
-        <v>0.009569335007163945</v>
+        <v>0.08007726212993146</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03412635711288075</v>
+        <v>0.06201015713074205</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1130798970650085</v>
+        <v>0.1239874945655099</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02682881204936498</v>
+        <v>0.06123754953682852</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1048231133205742</v>
+        <v>0.001232988992985097</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02519892431731878</v>
+        <v>0.1181179217580529</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.09003192603213241</v>
+        <v>0.004166846709386434</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02809604752053665</v>
+        <v>0.07390542629519577</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.1091440451822868</v>
+        <v>0.07593197132636985</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.097961454324279</v>
+        <v>0.1280312699007649</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.277755195452418</v>
+        <v>0.2714462929532561</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01922463343954645</v>
+        <v>0.0002166363498834768</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003938355900752792</v>
+        <v>0.003616645851376339</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02651258441867609</v>
+        <v>0.08353575835798283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05424994749591632</v>
+        <v>0.03869362797293371</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0624302883391593</v>
+        <v>0.01444760654848307</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03463104764839962</v>
+        <v>0.0270779773158089</v>
       </c>
       <c r="L20" t="n">
-        <v>0.007429439281250659</v>
+        <v>0.01094375721472689</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01108797701420342</v>
+        <v>0.008804809419416471</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02069731589336651</v>
+        <v>0.004949635059310437</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03496465490940311</v>
+        <v>0.015135988595214</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1032908859990423</v>
+        <v>0.1118529326955189</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04154377692237949</v>
+        <v>0.05555593282009814</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1006722240760202</v>
+        <v>0.08034891151908335</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0764689591318123</v>
+        <v>0.06954240472820898</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01827106164226939</v>
+        <v>0.05208316264824457</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0719214162869931</v>
+        <v>0.05860008891775518</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02941457793967674</v>
+        <v>0.005977554969916326</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07626280189469786</v>
+        <v>0.09834969955718209</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05902344002553785</v>
+        <v>0.0813128891966127</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.04807399357024453</v>
+        <v>0.002198938748462402</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.08045356179305391</v>
+        <v>0.09336364056019525</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01179440424810114</v>
+        <v>0.002261373962151808</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.007642652129496792</v>
+        <v>0.0811300269914343</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.02764477448937599</v>
+        <v>0.01988877917143014</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3410414234753699</v>
+        <v>0.3333805575867791</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01609683780052194</v>
+        <v>0.0114994154481698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01229762862679845</v>
+        <v>0.002763844102643109</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01655962467276124</v>
+        <v>0.05117885284856809</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09162889489626941</v>
+        <v>0.07523800073432216</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1032227430743445</v>
+        <v>0.07629335530525161</v>
       </c>
       <c r="K21" t="n">
-        <v>0.008865459170145803</v>
+        <v>0.03903752381210047</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03205529056691812</v>
+        <v>0.04432489665558825</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04739312322274805</v>
+        <v>0.0004874701552156827</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03415131514046874</v>
+        <v>0.01947460888610066</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02982248222338153</v>
+        <v>0.01854559802878774</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03147699745928046</v>
+        <v>0.01275331862467004</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02716284437723948</v>
+        <v>0.001472391390401464</v>
       </c>
       <c r="R21" t="n">
-        <v>0.03989672385127123</v>
+        <v>0.1052045683713026</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03124802950319154</v>
+        <v>0.01759208479309803</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03519456198898537</v>
+        <v>0.106345346000311</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05830371324539571</v>
+        <v>0.04764134947085645</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1125403643671652</v>
+        <v>0.11548244116566</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04435411808234071</v>
+        <v>0.09578471312586173</v>
       </c>
       <c r="X21" t="n">
-        <v>0.04523365384208305</v>
+        <v>0.04055241995752848</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.06870039401493343</v>
+        <v>0.08233573334603658</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.006614724689395911</v>
+        <v>0.009978688183304718</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.03098920245546742</v>
+        <v>0.01985268852397074</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.07619127272889277</v>
+        <v>0.006160691070250637</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.04241477322348758</v>
+        <v>0.03348184890156319</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3026615799312755</v>
+        <v>0.3021859047721814</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02438598842972878</v>
+        <v>0.03981520841032839</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04354634799074238</v>
+        <v>0.004453266315210504</v>
       </c>
       <c r="H22" t="n">
-        <v>0.008585507159774955</v>
+        <v>0.009335663538246223</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04660281819405119</v>
+        <v>0.08621150792426817</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01870007059588954</v>
+        <v>0.04148757385274691</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03807204560599831</v>
+        <v>0.008627199396722908</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0438419513983736</v>
+        <v>0.05711614397430144</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04051168418673662</v>
+        <v>0.05980550507139944</v>
       </c>
       <c r="N22" t="n">
-        <v>0.004805953310458697</v>
+        <v>0.001871364319731244</v>
       </c>
       <c r="O22" t="n">
-        <v>0.07378117944214786</v>
+        <v>0.003447584075077806</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08921388763684478</v>
+        <v>0.07452236051755362</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.07623560961488249</v>
+        <v>0.07817824343659614</v>
       </c>
       <c r="R22" t="n">
-        <v>0.002806650608777629</v>
+        <v>0.003910505312544094</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05325642114930713</v>
+        <v>0.07465903266921337</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03189356684300339</v>
+        <v>0.07586350133629088</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0328378761612895</v>
+        <v>0.04377902817025398</v>
       </c>
       <c r="V22" t="n">
-        <v>0.04824113998159491</v>
+        <v>0.04659180404085795</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0899914268087639</v>
+        <v>0.07995432780546934</v>
       </c>
       <c r="X22" t="n">
-        <v>0.08140780614245513</v>
+        <v>0.04955372775061693</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05745901753527914</v>
+        <v>0.06590887451051268</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04019900011347964</v>
+        <v>0.02528921397962329</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.001001392378613134</v>
+        <v>0.01505456052454366</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.05262265871180721</v>
+        <v>0.05456380306789102</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3751572056583774</v>
+        <v>0.3717317249323605</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03839612575450648</v>
+        <v>0.05428447477451133</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02863222172735747</v>
+        <v>0.01411583434884675</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04979556179736773</v>
+        <v>0.02564464966405508</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003652502215405644</v>
+        <v>0.09269859541322495</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01019070936499427</v>
+        <v>0.06570851047073804</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01958760368489701</v>
+        <v>0.03717612816520077</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08231459340342684</v>
+        <v>0.07520072472532474</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00906445805833811</v>
+        <v>0.002997859775174523</v>
       </c>
       <c r="N23" t="n">
-        <v>0.08748635629685256</v>
+        <v>0.01019002171804452</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01953587375253042</v>
+        <v>0.005983171036619178</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01051536784676014</v>
+        <v>0.01643026784696748</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.03134376040751165</v>
+        <v>0.0003979303262191114</v>
       </c>
       <c r="R23" t="n">
-        <v>0.009685103052717128</v>
+        <v>0.009026612547524331</v>
       </c>
       <c r="S23" t="n">
-        <v>0.09802364088527606</v>
+        <v>0.01805086233148522</v>
       </c>
       <c r="T23" t="n">
-        <v>0.02652491274323291</v>
+        <v>0.07039456842431899</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01267777613854995</v>
+        <v>0.06264597029498327</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1106078909173371</v>
+        <v>0.1038220400750868</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01481444085755382</v>
+        <v>0.05079314087468224</v>
       </c>
       <c r="X23" t="n">
-        <v>0.009978810457386618</v>
+        <v>0.05156227942702744</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.08596401528913615</v>
+        <v>0.01362399683273316</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.08192853478654438</v>
+        <v>0.04422119055101609</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.09952077645070713</v>
+        <v>0.08424442552046732</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.05975896411161032</v>
+        <v>0.09078674485574882</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2805317659094446</v>
+        <v>0.2791181055893671</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04706352505293744</v>
+        <v>0.01614562602220381</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004813018847783635</v>
+        <v>0.02490145422049732</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01020243765827771</v>
+        <v>0.02488151870064804</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08426953568356207</v>
+        <v>0.06583681184376862</v>
       </c>
       <c r="J24" t="n">
-        <v>0.006050609618699764</v>
+        <v>0.004927324313007846</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03912674507087834</v>
+        <v>0.07378725721455981</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02597800691473376</v>
+        <v>0.01030174388927923</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01330010206854743</v>
+        <v>0.03180465366939147</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01702125123109716</v>
+        <v>0.005176306793205597</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04056634963870311</v>
+        <v>0.00935042303309213</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07592303749565019</v>
+        <v>0.07894416522871793</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.06023446864693942</v>
+        <v>0.007937711931220526</v>
       </c>
       <c r="R24" t="n">
-        <v>0.05887491085604617</v>
+        <v>0.06432648414207283</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01996865646461886</v>
+        <v>0.01499821680577012</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01343859306037054</v>
+        <v>0.04899877151492029</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07065949514888052</v>
+        <v>0.0293792134986855</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01784075777319192</v>
+        <v>0.03513248261263135</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04974897164066903</v>
+        <v>0.09161934287646999</v>
       </c>
       <c r="X24" t="n">
-        <v>0.05626069919095247</v>
+        <v>0.09182136254699771</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.08532052044526087</v>
+        <v>0.08443276976215147</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.08506951557695719</v>
+        <v>0.08190170524884605</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.05089585566938539</v>
+        <v>0.0177870477854388</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.06737293624585705</v>
+        <v>0.08560760634642353</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.09187565468843437</v>
+        <v>0.1035953615945692</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3269421772977408</v>
+        <v>0.3373195949135431</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02507416582901454</v>
+        <v>0.02538789625112196</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03860599557085097</v>
+        <v>0.005453908415194465</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09466461189404837</v>
+        <v>0.0668798046188202</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03098739817824112</v>
+        <v>0.04176945976243847</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03995532138437413</v>
+        <v>0.0570939771633978</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03100481379556853</v>
+        <v>0.003783425566980249</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005726619962218167</v>
+        <v>9.389120909096739e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001805969695993119</v>
+        <v>0.06337002815169542</v>
       </c>
       <c r="N25" t="n">
-        <v>0.007196595185599789</v>
+        <v>0.07209433048372441</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003794588607916912</v>
+        <v>0.04059780606970542</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0222203455669003</v>
+        <v>0.04907848866066326</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.008421356047486542</v>
+        <v>0.01002004061248852</v>
       </c>
       <c r="R25" t="n">
-        <v>0.008110270575547035</v>
+        <v>0.02844100912038938</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08432220937616414</v>
+        <v>0.05658316804592467</v>
       </c>
       <c r="T25" t="n">
-        <v>0.05838731054434794</v>
+        <v>0.05661727341405461</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0754875759103615</v>
+        <v>0.08977475120990203</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1016114673155478</v>
+        <v>0.1084737162738604</v>
       </c>
       <c r="W25" t="n">
-        <v>0.03843215642324598</v>
+        <v>0.03003106114633137</v>
       </c>
       <c r="X25" t="n">
-        <v>0.05833127139936507</v>
+        <v>0.01834257346915971</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02189995132764972</v>
+        <v>0.02257169690872647</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.07028147913761586</v>
+        <v>0.07152903535893494</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1002783238318782</v>
+        <v>0.01948525552584308</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.07340020244006411</v>
+        <v>0.06252740256155188</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2011942122054161</v>
+        <v>0.1533948793181145</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2199185908751693</v>
+        <v>0.2068214938785435</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03060428077478982</v>
+        <v>0.03540613308519886</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06646104599529201</v>
+        <v>0.02315866043960197</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02667515465444771</v>
+        <v>0.01968620397577177</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07678161781856224</v>
+        <v>0.07260094549042619</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03433821779838047</v>
+        <v>0.02958887492948171</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02019429092182729</v>
+        <v>0.003448805562784314</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03852599244965247</v>
+        <v>2.432101163401863e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04864819968643248</v>
+        <v>0.03261436634539932</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0007131770753912501</v>
+        <v>0.05527823303068344</v>
       </c>
       <c r="O26" t="n">
-        <v>0.05585951211676491</v>
+        <v>0.07934902806197869</v>
       </c>
       <c r="P26" t="n">
-        <v>0.04128133667057488</v>
+        <v>0.08915390439073087</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0697930989802711</v>
+        <v>0.01966755964501912</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08125338349516699</v>
+        <v>0.059427857752916</v>
       </c>
       <c r="S26" t="n">
-        <v>0.07261066182983569</v>
+        <v>0.04713509413546085</v>
       </c>
       <c r="T26" t="n">
-        <v>0.008170455034120006</v>
+        <v>0.02290090279315416</v>
       </c>
       <c r="U26" t="n">
-        <v>0.003048032776824963</v>
+        <v>0.001484596485650374</v>
       </c>
       <c r="V26" t="n">
-        <v>0.03497364113804795</v>
+        <v>0.05896194287964997</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05648365141450522</v>
+        <v>0.1012356068417323</v>
       </c>
       <c r="X26" t="n">
-        <v>0.06495440152481709</v>
+        <v>0.05055318727282802</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.07195393500964271</v>
+        <v>0.08375511395187697</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02579218712019258</v>
+        <v>0.07147138796108368</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.06686036326618472</v>
+        <v>0.04256844779502301</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.00402336244827552</v>
+        <v>0.0005288261619145377</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.07060795724642746</v>
+        <v>0.07817252341080842</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.3529935765515394</v>
+        <v>0.365912853196375</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06869044375407322</v>
+        <v>0.09026723783461067</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004831562371410711</v>
+        <v>0.01567393657382135</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05765272465450286</v>
+        <v>0.004862123037099355</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04054308074215478</v>
+        <v>0.01416903730164959</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07136227235922384</v>
+        <v>0.02731872838231359</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08539496399559449</v>
+        <v>0.1019686537284982</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03043466197775058</v>
+        <v>0.03650795386731687</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04540877795710926</v>
+        <v>0.06029861311664594</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01866932508815048</v>
+        <v>0.0120985813885618</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01280151707538856</v>
+        <v>0.0155425087836859</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01373974294965628</v>
+        <v>0.07937639617846477</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02893812896657915</v>
+        <v>0.06438878833034682</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01282229072250402</v>
+        <v>0.04719766297657439</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04731865657972262</v>
+        <v>0.1027938137009963</v>
       </c>
       <c r="T27" t="n">
-        <v>0.008482029412327913</v>
+        <v>0.005815337331443044</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01012908274698016</v>
+        <v>0.002947293667172287</v>
       </c>
       <c r="V27" t="n">
-        <v>0.08469534065579437</v>
+        <v>0.1040535002795918</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02591652562671989</v>
+        <v>0.06517193831297874</v>
       </c>
       <c r="X27" t="n">
-        <v>0.04974349606087311</v>
+        <v>0.01817309404703041</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07322382582396361</v>
+        <v>0.04196207524627741</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0882466264534016</v>
+        <v>0.01563308800120272</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.07068586760281106</v>
+        <v>0.007798961376343745</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.05026905642330734</v>
+        <v>0.06598067653737437</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.05825412313763535</v>
+        <v>0.0772204763637018</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1713885681630436</v>
+        <v>0.1669061557822572</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09746181194246994</v>
+        <v>0.07449472754550568</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03157685080825817</v>
+        <v>0.002840529063272468</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01935413732024662</v>
+        <v>0.003078366939756006</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01839853887244978</v>
+        <v>0.0440846001613951</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02544229260391467</v>
+        <v>0.01937948076176114</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001211933677874809</v>
+        <v>0.00108955465224038</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05005158183555798</v>
+        <v>0.003353971916542811</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01077843305562772</v>
+        <v>0.01131564298068479</v>
       </c>
       <c r="N28" t="n">
-        <v>0.06601006410273087</v>
+        <v>0.07375674404844779</v>
       </c>
       <c r="O28" t="n">
-        <v>0.07962890770528945</v>
+        <v>0.0927866983471842</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03451601645751325</v>
+        <v>0.05617325703060671</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0476320416967036</v>
+        <v>0.08267988349506868</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01466246785846532</v>
+        <v>0.03819943596528</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04556278978651177</v>
+        <v>0.04717264198724872</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01225029666533263</v>
+        <v>0.0002525770852440666</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09786670747287843</v>
+        <v>0.009913140727181703</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01702444816486018</v>
+        <v>0.00604195822946118</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1027243120272948</v>
+        <v>0.1009945569020717</v>
       </c>
       <c r="X28" t="n">
-        <v>0.1062727027846826</v>
+        <v>0.06462448287227954</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.05670911904289019</v>
+        <v>0.06378054208723893</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03999067213817753</v>
+        <v>0.1037905879509917</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0009745589620964249</v>
+        <v>0.01143204161726935</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02499005532826057</v>
+        <v>0.08876457763326735</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.2324902651729035</v>
+        <v>-0.2317431113365898</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2079668269815808</v>
+        <v>0.2075097748530212</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07195638054023704</v>
+        <v>0.07478888854816222</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006246925569066499</v>
+        <v>0.00349568894750001</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05026536157115451</v>
+        <v>0.007388319165609674</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03862660533418336</v>
+        <v>0.05290823756069371</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06664162831145219</v>
+        <v>0.1057147626200737</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0609881796522715</v>
+        <v>0.04256967121118384</v>
       </c>
       <c r="L29" t="n">
-        <v>0.07785957957828961</v>
+        <v>0.07564295243587892</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0003982273607850062</v>
+        <v>0.02270729147705875</v>
       </c>
       <c r="N29" t="n">
-        <v>0.008181416591926517</v>
+        <v>0.01527366800801745</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01045768139915652</v>
+        <v>0.006155578830567238</v>
       </c>
       <c r="P29" t="n">
-        <v>0.03232869783711158</v>
+        <v>0.06957661038520362</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.004131458512272925</v>
+        <v>0.0272578065845061</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03420756246781105</v>
+        <v>0.08295804578104357</v>
       </c>
       <c r="S29" t="n">
-        <v>0.07102091816146203</v>
+        <v>0.1106205076626161</v>
       </c>
       <c r="T29" t="n">
-        <v>0.002336110385241314</v>
+        <v>0.007263525611341032</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07570677160092472</v>
+        <v>0.04334278051701389</v>
       </c>
       <c r="V29" t="n">
-        <v>0.08472462741363006</v>
+        <v>0.008695573889436894</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0290460590675045</v>
+        <v>0.07763040078063152</v>
       </c>
       <c r="X29" t="n">
-        <v>0.07358203969014709</v>
+        <v>0.04911083598951071</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.004540361384473833</v>
+        <v>0.001294534631492582</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.053328955889779</v>
+        <v>0.002444142324543278</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.07239516907018126</v>
+        <v>0.009032769259373494</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.07102928261093777</v>
+        <v>0.1041274077785416</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.201775765398231</v>
+        <v>-0.1754012841147151</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1688751283772354</v>
+        <v>0.1689196896332922</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06524264060077088</v>
+        <v>0.06523699737989089</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03597369080182306</v>
+        <v>0.06585239879956779</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02825562472102455</v>
+        <v>0.005904320711660999</v>
       </c>
       <c r="I30" t="n">
-        <v>0.004477944042633103</v>
+        <v>0.06457847294133778</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02390730812369565</v>
+        <v>0.0224577743299374</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00766542782889299</v>
+        <v>0.02291776406145582</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02371795989246761</v>
+        <v>0.01554108813727368</v>
       </c>
       <c r="M30" t="n">
-        <v>0.07060576817049997</v>
+        <v>0.02353047627416843</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04713490298074881</v>
+        <v>0.006697341922100086</v>
       </c>
       <c r="O30" t="n">
-        <v>0.06065452975104661</v>
+        <v>0.0130460273822925</v>
       </c>
       <c r="P30" t="n">
-        <v>0.04191706701956803</v>
+        <v>0.0815440179028103</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01738353314178437</v>
+        <v>0.02034363973828159</v>
       </c>
       <c r="R30" t="n">
-        <v>0.079652418844812</v>
+        <v>0.07036479056330894</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0820836093142765</v>
+        <v>0.09937274449368043</v>
       </c>
       <c r="T30" t="n">
-        <v>0.005283451842042822</v>
+        <v>0.02805778706524719</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08227748541087582</v>
+        <v>0.04078840306666433</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02142176677037349</v>
+        <v>0.02197093234845623</v>
       </c>
       <c r="W30" t="n">
-        <v>0.08187606908099325</v>
+        <v>0.0696213808410244</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0420244521174882</v>
+        <v>0.04244215487713651</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.004880797277892937</v>
+        <v>0.04963822220517617</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.06508208231120492</v>
+        <v>0.08269246885739814</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.07342413399648388</v>
+        <v>0.01677935617104059</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.03505733595860065</v>
+        <v>0.07062143993009001</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.05660815975405609</v>
+        <v>0.05034708199228426</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2155503771518388</v>
+        <v>0.2013162828449164</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03752397215235095</v>
+        <v>0.08469762623078714</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01024867217385581</v>
+        <v>0.01458521303566258</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09268624714414472</v>
+        <v>0.05242641775943727</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03297499118259051</v>
+        <v>0.008429066153241131</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09212993641619099</v>
+        <v>0.08400779270210908</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0418001550665682</v>
+        <v>0.05096827152217615</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05228287342589134</v>
+        <v>0.04699527246152758</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0009334561422734028</v>
+        <v>0.01271913255057386</v>
       </c>
       <c r="N31" t="n">
-        <v>0.04612325948610799</v>
+        <v>0.0254624868416579</v>
       </c>
       <c r="O31" t="n">
-        <v>0.04851666685750548</v>
+        <v>0.01378858093988327</v>
       </c>
       <c r="P31" t="n">
-        <v>0.008916459619565081</v>
+        <v>0.03007133933704148</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01285300947572134</v>
+        <v>0.0159810061576669</v>
       </c>
       <c r="R31" t="n">
-        <v>0.07055034195026195</v>
+        <v>0.02555397368296797</v>
       </c>
       <c r="S31" t="n">
-        <v>0.08871254371581555</v>
+        <v>0.08722984842537346</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0593408091334223</v>
+        <v>0.02492942127980258</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02359392857269628</v>
+        <v>0.07400418416586206</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09437467114032921</v>
+        <v>0.07555690897621281</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01173339354126932</v>
+        <v>0.04652356801723812</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0332030866740694</v>
+        <v>0.01267890914338414</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.01623922160531745</v>
+        <v>0.005413766695745842</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.02481251394231488</v>
+        <v>0.08530669749700047</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0171519256396688</v>
+        <v>0.0722667916531036</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0832978649420691</v>
+        <v>0.05040372477154483</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.02997592756123089</v>
+        <v>0.02985552001031537</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1967567507178393</v>
+        <v>0.1967476492781652</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0637727545262938</v>
+        <v>0.03748829870110279</v>
       </c>
       <c r="G32" t="n">
-        <v>0.003050788459766017</v>
+        <v>0.005004218063281451</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01570991897699605</v>
+        <v>0.0153493740792566</v>
       </c>
       <c r="I32" t="n">
-        <v>0.07720266663236308</v>
+        <v>0.046553693319712</v>
       </c>
       <c r="J32" t="n">
-        <v>0.00211666618079077</v>
+        <v>0.04216424357269646</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01834505710446346</v>
+        <v>0.001649623897374816</v>
       </c>
       <c r="L32" t="n">
-        <v>0.06186611981096012</v>
+        <v>0.07583233015326279</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06415950241171542</v>
+        <v>0.07637530958163927</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01052222312745506</v>
+        <v>0.01501215437322844</v>
       </c>
       <c r="O32" t="n">
-        <v>0.03089089065806102</v>
+        <v>0.0884075280869558</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07317790087703409</v>
+        <v>0.03051335785460125</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.06302888506963077</v>
+        <v>0.07083590297639654</v>
       </c>
       <c r="R32" t="n">
-        <v>0.06939466116601142</v>
+        <v>0.08931341765538825</v>
       </c>
       <c r="S32" t="n">
-        <v>0.05319492460564987</v>
+        <v>0.07762102935948872</v>
       </c>
       <c r="T32" t="n">
-        <v>0.008215717398690578</v>
+        <v>0.004517314652377927</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0734168898877189</v>
+        <v>0.01204747698554309</v>
       </c>
       <c r="V32" t="n">
-        <v>0.02106813565281861</v>
+        <v>0.04470158075535502</v>
       </c>
       <c r="W32" t="n">
-        <v>0.06636482844566154</v>
+        <v>0.08912040326793512</v>
       </c>
       <c r="X32" t="n">
-        <v>0.07222928950684225</v>
+        <v>0.02160474625243391</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01164901132998837</v>
+        <v>0.01387475288252818</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.05556229900191492</v>
+        <v>0.07912117789952583</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0604650388459186</v>
+        <v>0.03070063977356004</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.02459583032325541</v>
+        <v>0.03219142585635584</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.08776827616742577</v>
+        <v>0.09921783541826959</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2169028436368491</v>
+        <v>0.2056498261465091</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0008379533566858035</v>
+        <v>0.05035402013942679</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08141660710462195</v>
+        <v>0.084695751111683</v>
       </c>
       <c r="H33" t="n">
-        <v>0.006469737753769089</v>
+        <v>0.04142252264068833</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04013107330952239</v>
+        <v>0.05452741090009496</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05927300172187299</v>
+        <v>0.04850757655809045</v>
       </c>
       <c r="K33" t="n">
-        <v>0.006779780493138063</v>
+        <v>0.004063917190442956</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01702789215414623</v>
+        <v>0.02767735205371271</v>
       </c>
       <c r="M33" t="n">
-        <v>0.037373772915191</v>
+        <v>0.02610623663965835</v>
       </c>
       <c r="N33" t="n">
-        <v>0.02800596726032259</v>
+        <v>0.03931242410358565</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01323794190629685</v>
+        <v>0.03220266758785135</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0213977687332055</v>
+        <v>0.04253211795351443</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.04560194423661358</v>
+        <v>0.004590967473133888</v>
       </c>
       <c r="R33" t="n">
-        <v>0.08632203434150434</v>
+        <v>0.08429036197919244</v>
       </c>
       <c r="S33" t="n">
-        <v>0.08936421233619049</v>
+        <v>0.07895848141401096</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01473161400847658</v>
+        <v>0.01044228749374896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0490981653812537</v>
+        <v>0.05518095498181899</v>
       </c>
       <c r="V33" t="n">
-        <v>0.09518226937172961</v>
+        <v>0.06878019694962934</v>
       </c>
       <c r="W33" t="n">
-        <v>0.08418877932673305</v>
+        <v>0.08257064699849098</v>
       </c>
       <c r="X33" t="n">
-        <v>0.05404503384853184</v>
+        <v>0.009143058649896523</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.05794490939552156</v>
+        <v>0.002073457864795647</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.006904291466960769</v>
+        <v>0.08071083075609771</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.01135823007281796</v>
+        <v>0.007132262918359295</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.09330701950489409</v>
+        <v>0.06472449564207623</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1107265907508278</v>
+        <v>0.1162509996657865</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.207204392397413</v>
+        <v>0.2062963375581488</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004588052282729136</v>
+        <v>0.06710869636290044</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07643440549286709</v>
+        <v>0.01340348841106739</v>
       </c>
       <c r="H34" t="n">
-        <v>0.009669344486068512</v>
+        <v>0.07737306846967894</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03614773373151087</v>
+        <v>0.04071226356480633</v>
       </c>
       <c r="J34" t="n">
-        <v>0.00326966528246764</v>
+        <v>0.04695278621021323</v>
       </c>
       <c r="K34" t="n">
-        <v>0.001654437931637382</v>
+        <v>0.03474837971058234</v>
       </c>
       <c r="L34" t="n">
-        <v>0.08404749316737556</v>
+        <v>0.03153754519616754</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03661199412522828</v>
+        <v>0.05239968540777536</v>
       </c>
       <c r="N34" t="n">
-        <v>0.00928355203970339</v>
+        <v>0.004489170627529585</v>
       </c>
       <c r="O34" t="n">
-        <v>0.08188968458161384</v>
+        <v>0.05018816621574761</v>
       </c>
       <c r="P34" t="n">
-        <v>0.09184011984366255</v>
+        <v>0.07527373788108663</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.07871896642370162</v>
+        <v>0.02843841900111839</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1002749951672913</v>
+        <v>0.05526037170710135</v>
       </c>
       <c r="S34" t="n">
-        <v>0.07440045059454223</v>
+        <v>0.07739079126227726</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03619200512108138</v>
+        <v>0.001061951424342864</v>
       </c>
       <c r="U34" t="n">
-        <v>0.006933562032426435</v>
+        <v>0.0009268044947579329</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01715987096821844</v>
+        <v>0.03998413083357542</v>
       </c>
       <c r="W34" t="n">
-        <v>0.06134724154809718</v>
+        <v>0.06340283074045133</v>
       </c>
       <c r="X34" t="n">
-        <v>0.08492190706698265</v>
+        <v>0.07632615000930974</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.005155111868360244</v>
+        <v>0.01957453983554143</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.06487163559698228</v>
+        <v>0.06709918838418515</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.029948122037449</v>
+        <v>0.03810616399134126</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.004639648610002843</v>
+        <v>0.03824167025844247</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.04539576030892353</v>
+        <v>0.02134662738435218</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.4903096804826558</v>
+        <v>0.2615172658481413</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1088180516546789</v>
+        <v>0.08413630150770918</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0463056018572553</v>
+        <v>0.01520049388361524</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05420569614598615</v>
+        <v>0.09023926799932813</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06995012366050994</v>
+        <v>0.02903487290425158</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0003176744265882184</v>
+        <v>0.020524601165398</v>
       </c>
       <c r="K35" t="n">
-        <v>0.006310522217403578</v>
+        <v>0.02853305029816725</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01586645425149995</v>
+        <v>0.008745374667200078</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0485041565182318</v>
+        <v>0.04953990354228373</v>
       </c>
       <c r="N35" t="n">
-        <v>0.001921434932201995</v>
+        <v>0.04300246593514544</v>
       </c>
       <c r="O35" t="n">
-        <v>0.001034945594933408</v>
+        <v>0.01757718243071139</v>
       </c>
       <c r="P35" t="n">
-        <v>0.09092784596601024</v>
+        <v>0.01201322076938527</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01635166208097944</v>
+        <v>0.05949377461004927</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01204843567570394</v>
+        <v>0.1048240886559119</v>
       </c>
       <c r="S35" t="n">
-        <v>0.07670705135531598</v>
+        <v>0.1105547785498858</v>
       </c>
       <c r="T35" t="n">
-        <v>0.005298774388372044</v>
+        <v>0.03530343383177603</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1014598191561231</v>
+        <v>0.02556974125684389</v>
       </c>
       <c r="V35" t="n">
-        <v>0.04772169934143709</v>
+        <v>0.006245437130374706</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01253762299812323</v>
+        <v>0.03062385910145531</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0193014447136505</v>
+        <v>0.00328666473967703</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0591408703115275</v>
+        <v>0.07629459499850821</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.1091855382505777</v>
+        <v>0.1195959898456298</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.08399066507518964</v>
+        <v>0.01752368673012665</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01209390942770011</v>
+        <v>0.01213721544656604</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.03150228623555582</v>
+        <v>0.02457999633784065</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2193938357749675</v>
+        <v>0.2235073213927689</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04357840633478251</v>
+        <v>0.07261894075098632</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03222558376126342</v>
+        <v>0.0642235621988267</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06285237512933804</v>
+        <v>0.06197843826543737</v>
       </c>
       <c r="I36" t="n">
-        <v>0.004188948242115258</v>
+        <v>0.003619422148036749</v>
       </c>
       <c r="J36" t="n">
-        <v>0.090822562274195</v>
+        <v>0.02735824547605175</v>
       </c>
       <c r="K36" t="n">
-        <v>0.007610442335005177</v>
+        <v>0.02363850147785624</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01693124571866533</v>
+        <v>0.03101886398732986</v>
       </c>
       <c r="M36" t="n">
-        <v>0.08092541797887906</v>
+        <v>0.07563565234185943</v>
       </c>
       <c r="N36" t="n">
-        <v>0.002215265331829899</v>
+        <v>0.02779846012016659</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01680139827976989</v>
+        <v>0.02219401354799442</v>
       </c>
       <c r="P36" t="n">
-        <v>0.07580596767125228</v>
+        <v>0.05753166593644714</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02214686847881223</v>
+        <v>0.04670199406795401</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0857412761818442</v>
+        <v>0.0756759967583973</v>
       </c>
       <c r="S36" t="n">
-        <v>0.002708268597137009</v>
+        <v>0.0219434353780571</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0309029510615714</v>
+        <v>0.03909228508690081</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02968543205800502</v>
+        <v>0.07676949530316927</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01472901210481306</v>
+        <v>0.01550844031976461</v>
       </c>
       <c r="W36" t="n">
-        <v>0.08349741427505226</v>
+        <v>0.07702991345753162</v>
       </c>
       <c r="X36" t="n">
-        <v>0.09165771430568764</v>
+        <v>0.05629197313071257</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.03822491247298015</v>
+        <v>0.03324157373008908</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.07842871981947842</v>
+        <v>0.0282488823985973</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.07122496746413345</v>
+        <v>0.06037834893435723</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01709485012338904</v>
+        <v>0.001501895183476605</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.07279564033479483</v>
+        <v>0.05281910749423492</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2708425439260529</v>
+        <v>0.2752371985750015</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09499491535443061</v>
+        <v>0.0370534434749082</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01462190523583693</v>
+        <v>0.00768467739962524</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0189795509931566</v>
+        <v>0.01543346281251502</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06343876919765727</v>
+        <v>0.09002861113270499</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0006750146964533035</v>
+        <v>0.05017210809862935</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0812133822106782</v>
+        <v>0.0673337107677974</v>
       </c>
       <c r="L37" t="n">
-        <v>0.05156625214180539</v>
+        <v>0.02034194239423521</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0007815792102583045</v>
+        <v>0.01612986224795987</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0314983062409668</v>
+        <v>0.02007930084921741</v>
       </c>
       <c r="O37" t="n">
-        <v>0.04073042669973862</v>
+        <v>0.008027264522406739</v>
       </c>
       <c r="P37" t="n">
-        <v>0.04326634232554027</v>
+        <v>0.09536367869340914</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.003053730174622894</v>
+        <v>0.007135472767083048</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1034550227991965</v>
+        <v>0.03223528917208773</v>
       </c>
       <c r="S37" t="n">
-        <v>0.09815701267603186</v>
+        <v>0.1282968761103511</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0004780758567634281</v>
+        <v>0.0213296922486983</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02444524885270255</v>
+        <v>0.03424518407722316</v>
       </c>
       <c r="V37" t="n">
-        <v>0.02294218082077185</v>
+        <v>0.1019744987884865</v>
       </c>
       <c r="W37" t="n">
-        <v>0.07398686732503752</v>
+        <v>0.1202532771559209</v>
       </c>
       <c r="X37" t="n">
-        <v>0.03323596132958517</v>
+        <v>0.03936625873764018</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.03601982918284355</v>
+        <v>0.01917766877595463</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01523893193532157</v>
+        <v>0.02910369299129909</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.04594658607014988</v>
+        <v>0.01484140190066774</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.101274108670451</v>
+        <v>0.02439262488117902</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.06352862012912477</v>
+        <v>0.06939669136618949</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2198840445000311</v>
+        <v>0.2248751847186464</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0696444991256646</v>
+        <v>0.05758644732939661</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01943692351021717</v>
+        <v>0.001845491162521233</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03811499394334293</v>
+        <v>0.04512451594473531</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0003560058994792519</v>
+        <v>0.01020708701431807</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0192437717741412</v>
+        <v>0.0891350321737843</v>
       </c>
       <c r="K38" t="n">
-        <v>0.03030346342886188</v>
+        <v>0.03292222596539496</v>
       </c>
       <c r="L38" t="n">
-        <v>0.007472492938403626</v>
+        <v>0.04161588949111523</v>
       </c>
       <c r="M38" t="n">
-        <v>0.03692147823456847</v>
+        <v>0.0868907375401806</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05375026010095574</v>
+        <v>0.008561134064002959</v>
       </c>
       <c r="O38" t="n">
-        <v>0.07529919575364398</v>
+        <v>0.06634989011298269</v>
       </c>
       <c r="P38" t="n">
-        <v>0.08119976851046123</v>
+        <v>0.04762922006270546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.07077012540942974</v>
+        <v>0.05044129087682606</v>
       </c>
       <c r="R38" t="n">
-        <v>0.05392866607191307</v>
+        <v>0.05945854084979395</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0725225937434683</v>
+        <v>0.06723468785652903</v>
       </c>
       <c r="T38" t="n">
-        <v>0.03916895563888561</v>
+        <v>0.03135243764280693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07776841905505746</v>
+        <v>0.03781241954016838</v>
       </c>
       <c r="V38" t="n">
-        <v>0.06066793281459217</v>
+        <v>0.05932406860582959</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02043784733560609</v>
+        <v>0.04942328345849049</v>
       </c>
       <c r="X38" t="n">
-        <v>0.001532287895906486</v>
+        <v>0.01872135855407766</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.003267875376102799</v>
+        <v>0.000237083907553104</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.06043422076230812</v>
+        <v>0.04310846844844396</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.06463253237802129</v>
+        <v>0.0794566836217956</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.04312569029896865</v>
+        <v>0.01556200577654794</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.02316099129221889</v>
+        <v>0.01717896915461914</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.273792775890534</v>
+        <v>0.2777720815331244</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06222055434954562</v>
+        <v>0.03779662729704167</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04995472504326737</v>
+        <v>0.08396382819306369</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001410700601150939</v>
+        <v>0.0359852672964082</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01097908133766499</v>
+        <v>0.009007188885655904</v>
       </c>
       <c r="J39" t="n">
-        <v>0.08572371608693129</v>
+        <v>0.008670871922278823</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05435230573743828</v>
+        <v>0.09664953672065234</v>
       </c>
       <c r="L39" t="n">
-        <v>0.08976906889414495</v>
+        <v>0.01132357068693738</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04219927501690692</v>
+        <v>0.05792038667614401</v>
       </c>
       <c r="N39" t="n">
-        <v>0.02769638474164048</v>
+        <v>0.04587610753562293</v>
       </c>
       <c r="O39" t="n">
-        <v>0.09009796780241429</v>
+        <v>0.09117304134417351</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0005963944864103613</v>
+        <v>0.03715032460868769</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.008253637518845707</v>
+        <v>0.02221596279828643</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01269276778125397</v>
+        <v>0.01454438533827599</v>
       </c>
       <c r="S39" t="n">
-        <v>0.02832001644080465</v>
+        <v>0.06674563970899464</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04021380009033256</v>
+        <v>0.02584577622767741</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1120947042508524</v>
+        <v>0.09954872571142302</v>
       </c>
       <c r="V39" t="n">
-        <v>0.01673272608572076</v>
+        <v>0.01052632432121465</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01415641565057398</v>
+        <v>0.06481772711716244</v>
       </c>
       <c r="X39" t="n">
-        <v>0.02595108866927171</v>
+        <v>0.02657830482830144</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.09914724774895753</v>
+        <v>0.00404822129605367</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.004758402263606999</v>
+        <v>0.03688189237167878</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.0288219788038875</v>
+        <v>0.01841112111481019</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.09385704059837686</v>
+        <v>0.09431916799945518</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.006397086235182236</v>
+        <v>0.03137824639659204</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.231188116580533</v>
+        <v>0.2242413546802467</v>
       </c>
       <c r="F40" t="n">
-        <v>3.260287077369001e-05</v>
+        <v>0.001157265286588657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05009559625778502</v>
+        <v>0.01851980639261032</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05652743683672964</v>
+        <v>0.09041322882114972</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0199433273550337</v>
+        <v>0.01029895056513759</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0211869183790843</v>
+        <v>0.03713756925602676</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0451187075365582</v>
+        <v>0.05111301380938584</v>
       </c>
       <c r="L40" t="n">
-        <v>0.05038844892448412</v>
+        <v>0.06504897599506672</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0519837088718911</v>
+        <v>0.0653045981094606</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01892411138018997</v>
+        <v>0.02238392317734722</v>
       </c>
       <c r="O40" t="n">
-        <v>0.05575207761830729</v>
+        <v>0.02225976946120931</v>
       </c>
       <c r="P40" t="n">
-        <v>0.03515981210052669</v>
+        <v>0.05005156771729543</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01517236585879552</v>
+        <v>0.0210096724784325</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1038921307170408</v>
+        <v>0.08262010833869328</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1061368855011913</v>
+        <v>0.07774609099039373</v>
       </c>
       <c r="T40" t="n">
-        <v>0.04065803828655041</v>
+        <v>0.02945624569921925</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003677942407341974</v>
+        <v>0.04813121206393806</v>
       </c>
       <c r="V40" t="n">
-        <v>0.02208167553069808</v>
+        <v>0.04263993266225648</v>
       </c>
       <c r="W40" t="n">
-        <v>0.007499205114557266</v>
+        <v>0.01330037776455572</v>
       </c>
       <c r="X40" t="n">
-        <v>0.06410882703486555</v>
+        <v>0.02538210585368381</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0420448763518164</v>
+        <v>0.04508262846363192</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.09553647642178566</v>
+        <v>0.08695428674297552</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.08602534535292092</v>
+        <v>0.07057734443189127</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.008053483291072279</v>
+        <v>0.02341132591905031</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.0005753516362875627</v>
+        <v>0.006677234343228602</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2971663552416153</v>
+        <v>0.2968583137963267</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00783468173058385</v>
+        <v>0.01143112340082616</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03817192253041079</v>
+        <v>0.06896804974518231</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0002043450062325501</v>
+        <v>0.05755870871555398</v>
       </c>
       <c r="I41" t="n">
-        <v>0.09370573705987166</v>
+        <v>0.09939149316417289</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01700598486163581</v>
+        <v>0.07669085377860357</v>
       </c>
       <c r="K41" t="n">
-        <v>0.06823027667869908</v>
+        <v>0.09391864698290875</v>
       </c>
       <c r="L41" t="n">
-        <v>0.06597814309856503</v>
+        <v>0.03947206768069351</v>
       </c>
       <c r="M41" t="n">
-        <v>0.001173227217120979</v>
+        <v>0.02228583786944075</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01263510396850124</v>
+        <v>0.008974741688398326</v>
       </c>
       <c r="O41" t="n">
-        <v>0.04260420722325984</v>
+        <v>0.05472225918753048</v>
       </c>
       <c r="P41" t="n">
-        <v>0.04894084951854598</v>
+        <v>0.02470812727982478</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.04591382350031453</v>
+        <v>1.782940818565908e-05</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03307505269024456</v>
+        <v>0.007589059309758801</v>
       </c>
       <c r="S41" t="n">
-        <v>0.02114808436580841</v>
+        <v>0.03959308732583707</v>
       </c>
       <c r="T41" t="n">
-        <v>0.005313911449491758</v>
+        <v>0.008212679516963412</v>
       </c>
       <c r="U41" t="n">
-        <v>0.004497536053362878</v>
+        <v>0.05566045708383652</v>
       </c>
       <c r="V41" t="n">
-        <v>0.07375224775550665</v>
+        <v>0.05937296394938579</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0879962959367968</v>
+        <v>0.04309989297467106</v>
       </c>
       <c r="X41" t="n">
-        <v>0.09588858453151053</v>
+        <v>0.05972501528985483</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.09370604424444294</v>
+        <v>0.01484640026087646</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.03637231090996618</v>
+        <v>0.07698223970218245</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.04343813704602306</v>
+        <v>0.03504417793713598</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.06241349262310505</v>
+        <v>0.04173428774817649</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.009819843068733552</v>
+        <v>0.03427881320986012</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1904774987573204</v>
+        <v>0.1899643988443463</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03942550083962389</v>
+        <v>0.05125140681514063</v>
       </c>
       <c r="G42" t="n">
-        <v>0.006396829759625126</v>
+        <v>0.0003856271236270669</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0932325574237409</v>
+        <v>0.01946921526664618</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04852864053203934</v>
+        <v>0.0235415486956735</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005290495233869375</v>
+        <v>0.07856336258255874</v>
       </c>
       <c r="K42" t="n">
-        <v>0.002083374787167274</v>
+        <v>0.01130223388248365</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01949438135329444</v>
+        <v>0.005324883054533538</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09441706214355887</v>
+        <v>0.06541317967410558</v>
       </c>
       <c r="N42" t="n">
-        <v>0.08969831941392742</v>
+        <v>0.04801770091934734</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0302755624266974</v>
+        <v>0.01322051427859152</v>
       </c>
       <c r="P42" t="n">
-        <v>0.09561630356611525</v>
+        <v>0.04397153412474015</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.04032586262605663</v>
+        <v>0.04266074703414215</v>
       </c>
       <c r="R42" t="n">
-        <v>0.09783257321889377</v>
+        <v>0.0899192793812416</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07521074271157166</v>
+        <v>0.0687850732283256</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01131262730191438</v>
+        <v>0.01847567538462293</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04844159281379647</v>
+        <v>0.08541935978399197</v>
       </c>
       <c r="V42" t="n">
-        <v>0.006323470071729687</v>
+        <v>0.03238946862508241</v>
       </c>
       <c r="W42" t="n">
-        <v>0.03230185160794623</v>
+        <v>0.07506539875255792</v>
       </c>
       <c r="X42" t="n">
-        <v>0.04507017128614935</v>
+        <v>0.0570446589259003</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.007770994655403552</v>
+        <v>0.01123186519997421</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.05405552905180953</v>
+        <v>0.05743593985715741</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.05406418935619573</v>
+        <v>0.07053229189778269</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.002831367818873779</v>
+        <v>0.03057903551177306</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1322269571980616</v>
+        <v>0.1315523975460724</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2128102065705403</v>
+        <v>0.2151766692261737</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09032874530195364</v>
+        <v>0.06739658031595441</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0215299442424799</v>
+        <v>0.08852839859247391</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04603029777841647</v>
+        <v>0.005924399002783421</v>
       </c>
       <c r="I43" t="n">
-        <v>0.09489077900259446</v>
+        <v>0.08544806992371039</v>
       </c>
       <c r="J43" t="n">
-        <v>0.02634964803907602</v>
+        <v>0.03394886821031808</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03170238879399639</v>
+        <v>0.08127787026107024</v>
       </c>
       <c r="L43" t="n">
-        <v>0.06679383733828992</v>
+        <v>0.02021592833210405</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0333203137579282</v>
+        <v>0.09200152305230294</v>
       </c>
       <c r="N43" t="n">
-        <v>0.04632540505220328</v>
+        <v>0.02735505092464318</v>
       </c>
       <c r="O43" t="n">
-        <v>0.02856202233050943</v>
+        <v>0.03502941558458497</v>
       </c>
       <c r="P43" t="n">
-        <v>0.005345868652042599</v>
+        <v>0.01091328814487943</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.006283425770626432</v>
+        <v>0.004075021089088541</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01206652768385251</v>
+        <v>0.03720666991192657</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0979493574243749</v>
+        <v>0.06799974752647359</v>
       </c>
       <c r="T43" t="n">
-        <v>0.04105852969511228</v>
+        <v>0.01093767459939232</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09248921008493825</v>
+        <v>0.08148617638423501</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0009692981624002815</v>
+        <v>0.02609143694280028</v>
       </c>
       <c r="W43" t="n">
-        <v>0.09446843717369412</v>
+        <v>0.04786039413712741</v>
       </c>
       <c r="X43" t="n">
-        <v>0.06391764020787701</v>
+        <v>0.06419330539418948</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.01899612936428808</v>
+        <v>0.04021878430343336</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01973855535793204</v>
+        <v>0.04284461529108676</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.05309695239302604</v>
+        <v>0.005082450311633326</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.007786686392387849</v>
+        <v>0.02396433176378827</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1449752262303823</v>
+        <v>0.1527579874918305</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1671123373289137</v>
+        <v>0.1634641723050287</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0008889517173097532</v>
+        <v>0.07616906680480102</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07116395896628878</v>
+        <v>0.06513464179324181</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09520078935234452</v>
+        <v>0.06655736332133116</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01356325068962435</v>
+        <v>0.0007764487388316206</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01255747446724804</v>
+        <v>0.01492858336181201</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0607308294636028</v>
+        <v>0.04563484367625562</v>
       </c>
       <c r="L44" t="n">
-        <v>0.05839320682495264</v>
+        <v>0.04365426931333483</v>
       </c>
       <c r="M44" t="n">
-        <v>0.03513993642252258</v>
+        <v>0.05631022289684344</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0002599599517675337</v>
+        <v>0.0029791894702164</v>
       </c>
       <c r="O44" t="n">
-        <v>0.002143156910052789</v>
+        <v>0.007263250913403357</v>
       </c>
       <c r="P44" t="n">
-        <v>0.03067191585518116</v>
+        <v>0.001026541944309603</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.03446846722676385</v>
+        <v>0.08983468541530797</v>
       </c>
       <c r="R44" t="n">
-        <v>0.06442314736267632</v>
+        <v>0.09355744368693036</v>
       </c>
       <c r="S44" t="n">
-        <v>0.08849106053824998</v>
+        <v>0.04056508053236397</v>
       </c>
       <c r="T44" t="n">
-        <v>0.04992070047146597</v>
+        <v>0.02745624775797729</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1006044953160087</v>
+        <v>0.0497862037725084</v>
       </c>
       <c r="V44" t="n">
-        <v>0.02863452175113257</v>
+        <v>0.02022033574469069</v>
       </c>
       <c r="W44" t="n">
-        <v>0.02496964449458001</v>
+        <v>0.06502529690259802</v>
       </c>
       <c r="X44" t="n">
-        <v>0.03252360924386895</v>
+        <v>0.05753439424312109</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.01690559822137759</v>
+        <v>0.01876796108416284</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.1016785082018308</v>
+        <v>0.08408224154865998</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.04176858207014481</v>
+        <v>0.03509984755293474</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.03489823448100569</v>
+        <v>0.03763583952436392</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.009475087163798891</v>
+        <v>-0.008772972536095085</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2421144258582628</v>
+        <v>0.2359802485462868</v>
       </c>
       <c r="F45" t="n">
-        <v>0.005858858813456938</v>
+        <v>0.04133849844521071</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0607297825153177</v>
+        <v>0.01795018475585385</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01029668325432415</v>
+        <v>0.02734884111932563</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0816632293781246</v>
+        <v>0.09660986819221318</v>
       </c>
       <c r="J45" t="n">
-        <v>0.004209220595703498</v>
+        <v>0.009854388679201282</v>
       </c>
       <c r="K45" t="n">
-        <v>0.09586790678920856</v>
+        <v>0.09271975927233377</v>
       </c>
       <c r="L45" t="n">
-        <v>0.09746485573500761</v>
+        <v>0.07255124053767963</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01712104342721568</v>
+        <v>0.008945270183387694</v>
       </c>
       <c r="N45" t="n">
-        <v>0.04219597417484896</v>
+        <v>0.002461822530780666</v>
       </c>
       <c r="O45" t="n">
-        <v>0.06475024517993636</v>
+        <v>0.03251142287628149</v>
       </c>
       <c r="P45" t="n">
-        <v>0.06046292411224716</v>
+        <v>0.009373634840243636</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01987833639305834</v>
+        <v>0.006645687534027897</v>
       </c>
       <c r="R45" t="n">
-        <v>0.009981532560760082</v>
+        <v>0.04309943108073303</v>
       </c>
       <c r="S45" t="n">
-        <v>0.004436311044799088</v>
+        <v>0.05070404839637522</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01967947924106528</v>
+        <v>0.007614756981575216</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09065098275685944</v>
+        <v>0.08568107162553078</v>
       </c>
       <c r="V45" t="n">
-        <v>0.01954696298856637</v>
+        <v>0.01269579401708179</v>
       </c>
       <c r="W45" t="n">
-        <v>0.04505112242319612</v>
+        <v>0.08949802870861345</v>
       </c>
       <c r="X45" t="n">
-        <v>0.06075169153377594</v>
+        <v>0.05843052915079053</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.002053747325022173</v>
+        <v>0.04786697061093002</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.1001397432797396</v>
+        <v>0.07261441618298434</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.0140800572698135</v>
+        <v>0.05238925700146228</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.07312930920795274</v>
+        <v>0.06109507727738391</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.005084800236594285</v>
+        <v>-0.0007497534914795126</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.156534625072217</v>
+        <v>0.1571213251293355</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09239380285275219</v>
+        <v>0.07008515940967672</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08171165443211861</v>
+        <v>0.06125538858559708</v>
       </c>
       <c r="H46" t="n">
-        <v>0.006389472260510385</v>
+        <v>0.01003743997947397</v>
       </c>
       <c r="I46" t="n">
-        <v>0.001506916422233133</v>
+        <v>0.0348389987207205</v>
       </c>
       <c r="J46" t="n">
-        <v>0.04403092351737006</v>
+        <v>0.05819976690790154</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0002107553181547301</v>
+        <v>0.0293104180894997</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0270192997233383</v>
+        <v>0.005818946318361732</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01257258065151477</v>
+        <v>0.01787816935495792</v>
       </c>
       <c r="N46" t="n">
-        <v>0.08761935163166011</v>
+        <v>0.05229285586101239</v>
       </c>
       <c r="O46" t="n">
-        <v>0.07689142514539443</v>
+        <v>0.009160864279764059</v>
       </c>
       <c r="P46" t="n">
-        <v>0.03423232521199837</v>
+        <v>0.06944263445657139</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.07416600425435564</v>
+        <v>0.00466618887846265</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1074037242882853</v>
+        <v>0.09063956431661892</v>
       </c>
       <c r="S46" t="n">
-        <v>0.051477539349351</v>
+        <v>0.0008581674346217556</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0002328602454577544</v>
+        <v>0.01263678249311535</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004102734281326815</v>
+        <v>0.08733170085436903</v>
       </c>
       <c r="V46" t="n">
-        <v>0.00917694885969674</v>
+        <v>0.04939680255976728</v>
       </c>
       <c r="W46" t="n">
-        <v>0.09501832967280456</v>
+        <v>0.07143132034403928</v>
       </c>
       <c r="X46" t="n">
-        <v>0.03205561100035915</v>
+        <v>0.04606670240542915</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1085068735784157</v>
+        <v>0.03573114975615915</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.03854721360993848</v>
+        <v>0.09303917069796065</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.0001621053171896035</v>
+        <v>0.08501896922194996</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.01457154837577427</v>
+        <v>0.0048628390739697</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.01057402027488038</v>
+        <v>-0.006803958036114187</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1927256947131526</v>
+        <v>0.1895422960221024</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05549196841772258</v>
+        <v>0.01546754818499652</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01003996835836725</v>
+        <v>0.07649875132166131</v>
       </c>
       <c r="H47" t="n">
-        <v>0.006116394007013968</v>
+        <v>0.007358414522376518</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06825072920457537</v>
+        <v>0.08257695913693334</v>
       </c>
       <c r="J47" t="n">
-        <v>0.04429573124567227</v>
+        <v>0.07306698470789057</v>
       </c>
       <c r="K47" t="n">
-        <v>0.07956558847909434</v>
+        <v>0.05956544227304301</v>
       </c>
       <c r="L47" t="n">
-        <v>0.08917154622985494</v>
+        <v>0.08216396828355313</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03677475226163247</v>
+        <v>0.06680880464022003</v>
       </c>
       <c r="N47" t="n">
-        <v>0.02432815170690356</v>
+        <v>0.02419771954791252</v>
       </c>
       <c r="O47" t="n">
-        <v>0.06906361249677639</v>
+        <v>0.04929320332840689</v>
       </c>
       <c r="P47" t="n">
-        <v>0.06766769089928676</v>
+        <v>0.08495240522399385</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.01377045871233037</v>
+        <v>0.01150477937820249</v>
       </c>
       <c r="R47" t="n">
-        <v>0.01772359135268999</v>
+        <v>0.03406883772857619</v>
       </c>
       <c r="S47" t="n">
-        <v>0.02359596575197781</v>
+        <v>0.0657323485461792</v>
       </c>
       <c r="T47" t="n">
-        <v>0.05495069784954106</v>
+        <v>0.02640079580772448</v>
       </c>
       <c r="U47" t="n">
-        <v>0.08900721186583878</v>
+        <v>0.05083184768953923</v>
       </c>
       <c r="V47" t="n">
-        <v>0.009654713951320046</v>
+        <v>0.04071389141946226</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06365643333639301</v>
+        <v>0.0273316281644303</v>
       </c>
       <c r="X47" t="n">
-        <v>0.05481103874133635</v>
+        <v>0.01224451938844799</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.03908203992501215</v>
+        <v>0.0003260363351864411</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.01313429260704223</v>
+        <v>0.03091431231002284</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.06427605633369046</v>
+        <v>0.06731835406057425</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.005571366265927799</v>
+        <v>0.01066244800066682</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.02601085296065285</v>
+        <v>-0.007415655403798909</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1238179365723642</v>
+        <v>0.1257586060565092</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04164256898616325</v>
+        <v>0.03291115974509146</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0868236153398944</v>
+        <v>0.08288320017105638</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03284267894516776</v>
+        <v>0.004614960545771044</v>
       </c>
       <c r="I48" t="n">
-        <v>0.06237146825311048</v>
+        <v>0.05124933666419326</v>
       </c>
       <c r="J48" t="n">
-        <v>0.008898629466793064</v>
+        <v>0.005931523337163147</v>
       </c>
       <c r="K48" t="n">
-        <v>0.006047382178373307</v>
+        <v>0.009852714969546211</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01389633440469633</v>
+        <v>0.001724457218844996</v>
       </c>
       <c r="M48" t="n">
-        <v>0.06733799846853428</v>
+        <v>0.09019245475814902</v>
       </c>
       <c r="N48" t="n">
-        <v>0.01340461255914628</v>
+        <v>0.009248794078765254</v>
       </c>
       <c r="O48" t="n">
-        <v>0.001835721130195889</v>
+        <v>0.01179246392526703</v>
       </c>
       <c r="P48" t="n">
-        <v>0.02794250796295547</v>
+        <v>0.05809472853239266</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.04624860838426827</v>
+        <v>0.1049609336072827</v>
       </c>
       <c r="R48" t="n">
-        <v>0.09395139567028619</v>
+        <v>0.04915852438755656</v>
       </c>
       <c r="S48" t="n">
-        <v>0.06221501010309664</v>
+        <v>0.0705960619391179</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01537126167744301</v>
+        <v>0.0002220962157862224</v>
       </c>
       <c r="U48" t="n">
-        <v>0.07355137358956285</v>
+        <v>0.05625269496221062</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01502790329452324</v>
+        <v>0.02100448644727438</v>
       </c>
       <c r="W48" t="n">
-        <v>0.03860952521844369</v>
+        <v>0.05795791849445297</v>
       </c>
       <c r="X48" t="n">
-        <v>0.08299191249604365</v>
+        <v>0.073796094990524</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.02460758199439131</v>
+        <v>0.03190868994134908</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.06558514691729879</v>
+        <v>0.07249511727864937</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.06714058544617692</v>
+        <v>0.08982902107752729</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.0516561775134349</v>
+        <v>0.01332256671202861</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.06111628288279508</v>
+        <v>0.06015623641561887</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1620737848207607</v>
+        <v>0.1650724033880534</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03790046677025271</v>
+        <v>0.0357369971815106</v>
       </c>
       <c r="G49" t="n">
-        <v>0.001072528011898083</v>
+        <v>0.02849974112410088</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0009901729658830455</v>
+        <v>0.08764413531204351</v>
       </c>
       <c r="I49" t="n">
-        <v>0.08964060531075956</v>
+        <v>0.09256551702659495</v>
       </c>
       <c r="J49" t="n">
-        <v>0.07335592719778965</v>
+        <v>0.06134909193524438</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04476364647028942</v>
+        <v>0.0541810696251341</v>
       </c>
       <c r="L49" t="n">
-        <v>0.08221521211416813</v>
+        <v>0.09439672726433608</v>
       </c>
       <c r="M49" t="n">
-        <v>0.09446692312635971</v>
+        <v>0.07881182923746162</v>
       </c>
       <c r="N49" t="n">
-        <v>0.03614247619625163</v>
+        <v>0.006183996896212533</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0559359649525628</v>
+        <v>0.01757478004075311</v>
       </c>
       <c r="P49" t="n">
-        <v>0.07062284553194169</v>
+        <v>0.05167897749993925</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01054717097444819</v>
+        <v>0.01202452598723763</v>
       </c>
       <c r="R49" t="n">
-        <v>0.01668923002125515</v>
+        <v>0.01343147892519452</v>
       </c>
       <c r="S49" t="n">
-        <v>0.03067407631557903</v>
+        <v>0.09177246594258565</v>
       </c>
       <c r="T49" t="n">
-        <v>0.06542402163531227</v>
+        <v>0.003499149842588696</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0779334786504656</v>
+        <v>0.06224609516928712</v>
       </c>
       <c r="V49" t="n">
-        <v>0.007416248952250501</v>
+        <v>0.01808010463952801</v>
       </c>
       <c r="W49" t="n">
-        <v>0.04534688968648463</v>
+        <v>0.06514726699695852</v>
       </c>
       <c r="X49" t="n">
-        <v>0.04345890015316083</v>
+        <v>0.02315389036438579</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.002192716237206853</v>
+        <v>0.0223464162630496</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.05814720104725629</v>
+        <v>0.0008731155047409981</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.03754162189136453</v>
+        <v>0.076302712078416</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.01752167578705985</v>
+        <v>0.002499915142696491</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.07175347568865321</v>
+        <v>0.06206414010345319</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1423352382782994</v>
+        <v>0.1431880624829922</v>
       </c>
       <c r="F50" t="n">
-        <v>0.05624226887204767</v>
+        <v>0.03918013446099004</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08037234621516795</v>
+        <v>0.01247960593294848</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0009265556681853278</v>
+        <v>0.006868964244222489</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01272851006467781</v>
+        <v>0.0004493144884022591</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01254105354869601</v>
+        <v>0.02157594943989879</v>
       </c>
       <c r="K50" t="n">
-        <v>0.001029490584291999</v>
+        <v>0.04613282355484844</v>
       </c>
       <c r="L50" t="n">
-        <v>0.03066007507591252</v>
+        <v>0.009978830009762799</v>
       </c>
       <c r="M50" t="n">
-        <v>0.09028880881723909</v>
+        <v>0.08502282718598794</v>
       </c>
       <c r="N50" t="n">
-        <v>0.06997536679008931</v>
+        <v>0.05009015964389931</v>
       </c>
       <c r="O50" t="n">
-        <v>0.05471990245202191</v>
+        <v>0.07151059118274823</v>
       </c>
       <c r="P50" t="n">
-        <v>0.009787547106004754</v>
+        <v>0.008454022330175798</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.03661465435705499</v>
+        <v>0.07688456381438723</v>
       </c>
       <c r="R50" t="n">
-        <v>0.001905622785391695</v>
+        <v>0.003854798977683716</v>
       </c>
       <c r="S50" t="n">
-        <v>0.06449592220387218</v>
+        <v>0.08606721803624214</v>
       </c>
       <c r="T50" t="n">
-        <v>0.03503487488833789</v>
+        <v>0.08687761485021778</v>
       </c>
       <c r="U50" t="n">
-        <v>0.09091114071886007</v>
+        <v>0.09317884244078095</v>
       </c>
       <c r="V50" t="n">
-        <v>0.05239980752790456</v>
+        <v>0.00764445807169153</v>
       </c>
       <c r="W50" t="n">
-        <v>0.03452025154991754</v>
+        <v>0.02595566319197602</v>
       </c>
       <c r="X50" t="n">
-        <v>0.0730989196886709</v>
+        <v>0.03274989375848802</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.04831825398053081</v>
+        <v>0.02695977180166195</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.07102367215815437</v>
+        <v>0.08953021139820769</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.06770136359113464</v>
+        <v>0.05991628607647059</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.004703591355836228</v>
+        <v>0.05863745510830774</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1364161820132598</v>
+        <v>0.1482925717581902</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.498112000483838</v>
+        <v>0.4483188779362122</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01017871437738778</v>
+        <v>0.01417811338328007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01347669256248686</v>
+        <v>0.02105621352647501</v>
       </c>
       <c r="H51" t="n">
-        <v>0.06687288346900433</v>
+        <v>0.03447353762778151</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1189860512249083</v>
+        <v>0.0893646915427249</v>
       </c>
       <c r="J51" t="n">
-        <v>0.001298839634381235</v>
+        <v>0.08857583651710745</v>
       </c>
       <c r="K51" t="n">
-        <v>0.07110622384991669</v>
+        <v>0.03512454664943855</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01998701507916409</v>
+        <v>0.02941375605931258</v>
       </c>
       <c r="M51" t="n">
-        <v>0.07335845866069972</v>
+        <v>0.0197934990816869</v>
       </c>
       <c r="N51" t="n">
-        <v>0.05430959849480017</v>
+        <v>0.005772049651153672</v>
       </c>
       <c r="O51" t="n">
-        <v>0.06242081075026425</v>
+        <v>0.02177597704721027</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01262738595838203</v>
+        <v>0.02783175982923157</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.05774534703388539</v>
+        <v>0.03174031121169653</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1129806473384348</v>
+        <v>0.100456961579217</v>
       </c>
       <c r="S51" t="n">
-        <v>0.02870048004919929</v>
+        <v>0.09875418598053856</v>
       </c>
       <c r="T51" t="n">
-        <v>0.01879083486086333</v>
+        <v>0.06065033085798533</v>
       </c>
       <c r="U51" t="n">
-        <v>0.1000678656357505</v>
+        <v>0.03206474181315769</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0509241739644609</v>
+        <v>0.09858502827656172</v>
       </c>
       <c r="W51" t="n">
-        <v>0.006282803453481881</v>
+        <v>0.02485882392690529</v>
       </c>
       <c r="X51" t="n">
-        <v>0.01965174686829696</v>
+        <v>0.06216082665355543</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.02167503579539496</v>
+        <v>0.05119757033628633</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.01679320833788365</v>
+        <v>0.01690751715562192</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.05813876060100927</v>
+        <v>0.0267529551915038</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.003626421999943443</v>
+        <v>0.008510766101567662</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1529660957478109</v>
+        <v>0.1548138082436349</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1988866832765533</v>
+        <v>0.1927306662879162</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04040374915279131</v>
+        <v>0.09730249013078572</v>
       </c>
       <c r="G52" t="n">
-        <v>0.007141504486840905</v>
+        <v>0.00194458065778054</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01011323429164987</v>
+        <v>0.06485475588469586</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01404430864226687</v>
+        <v>0.007801214037988465</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02738592477928168</v>
+        <v>0.02900091614284633</v>
       </c>
       <c r="K52" t="n">
-        <v>0.08913430038891347</v>
+        <v>0.03945898158001186</v>
       </c>
       <c r="L52" t="n">
-        <v>0.04936308393387355</v>
+        <v>0.09751060928598843</v>
       </c>
       <c r="M52" t="n">
-        <v>0.03251029611695829</v>
+        <v>0.08516309839577681</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0001456115312249392</v>
+        <v>0.02672865519026973</v>
       </c>
       <c r="O52" t="n">
-        <v>0.07208179565395016</v>
+        <v>0.03696328002964864</v>
       </c>
       <c r="P52" t="n">
-        <v>0.04951976297717249</v>
+        <v>0.05550520214250154</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.04148987395681628</v>
+        <v>0.01963153921024421</v>
       </c>
       <c r="R52" t="n">
-        <v>0.002299691136326951</v>
+        <v>0.01039020403463024</v>
       </c>
       <c r="S52" t="n">
-        <v>0.09028300101406847</v>
+        <v>0.03522837251572846</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0003491069375026031</v>
+        <v>0.02259525367929501</v>
       </c>
       <c r="U52" t="n">
-        <v>0.008836758209628086</v>
+        <v>0.01369174249275503</v>
       </c>
       <c r="V52" t="n">
-        <v>0.09099771767357395</v>
+        <v>0.07830026983957379</v>
       </c>
       <c r="W52" t="n">
-        <v>0.07164035356199598</v>
+        <v>0.02619739860746178</v>
       </c>
       <c r="X52" t="n">
-        <v>0.03302193773000608</v>
+        <v>0.02506865458224443</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.1027720088707101</v>
+        <v>0.05882644444055925</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.08818249806370027</v>
+        <v>0.0930595197040285</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.02997389411257014</v>
+        <v>0.03985935585768156</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.04830958677817784</v>
+        <v>0.03491746155750381</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1880782984102244</v>
+        <v>-0.1715577974739761</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.4846523342223643</v>
+        <v>0.3226546079850252</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001435944647230148</v>
+        <v>0.005699449980649915</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01321004026102366</v>
+        <v>0.02879858546817576</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0584988088854583</v>
+        <v>0.056865322947229</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06689761948959151</v>
+        <v>0.05562769446632371</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04767488195483625</v>
+        <v>0.01799927484003431</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0828646903549211</v>
+        <v>0.02974497886767113</v>
       </c>
       <c r="L53" t="n">
-        <v>0.08835905309387052</v>
+        <v>0.09070169443040238</v>
       </c>
       <c r="M53" t="n">
-        <v>0.02926620478957845</v>
+        <v>0.07688796053695122</v>
       </c>
       <c r="N53" t="n">
-        <v>0.01488099632678806</v>
+        <v>0.08034080867149257</v>
       </c>
       <c r="O53" t="n">
-        <v>0.03392676309713091</v>
+        <v>0.02658476347786896</v>
       </c>
       <c r="P53" t="n">
-        <v>0.05563924550689577</v>
+        <v>0.05526447628593278</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.003230715014657634</v>
+        <v>0.03987436849945278</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08530388679858386</v>
+        <v>0.02654286273759323</v>
       </c>
       <c r="S53" t="n">
-        <v>0.06545969586450574</v>
+        <v>0.0969561739992976</v>
       </c>
       <c r="T53" t="n">
-        <v>0.01225945770668444</v>
+        <v>0.03663069521912237</v>
       </c>
       <c r="U53" t="n">
-        <v>0.03127020665718973</v>
+        <v>0.007247825524823494</v>
       </c>
       <c r="V53" t="n">
-        <v>0.07322572474182117</v>
+        <v>0.08559481398929883</v>
       </c>
       <c r="W53" t="n">
-        <v>0.07174968177866066</v>
+        <v>0.1056818671967302</v>
       </c>
       <c r="X53" t="n">
-        <v>0.08015239449515936</v>
+        <v>0.02177624893650489</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.003105259639820627</v>
+        <v>0.004642168167058441</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.01596250028402961</v>
+        <v>0.026831184513131</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.05164652953548805</v>
+        <v>0.01358912262523189</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.01397969907607449</v>
+        <v>0.01011765861902353</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.1397260522627475</v>
+        <v>-0.1294462584653656</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1622133086106584</v>
+        <v>0.1621389138707284</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06326194454545947</v>
+        <v>0.08790703597747244</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07852698992950745</v>
+        <v>0.07198151471728323</v>
       </c>
       <c r="H54" t="n">
-        <v>0.05019281421883703</v>
+        <v>0.009359255984596785</v>
       </c>
       <c r="I54" t="n">
-        <v>0.001432744685705447</v>
+        <v>0.01197980600525586</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0005269676018071902</v>
+        <v>0.006596272405084027</v>
       </c>
       <c r="K54" t="n">
-        <v>0.100576067170771</v>
+        <v>0.01968069653830996</v>
       </c>
       <c r="L54" t="n">
-        <v>0.006332852952393085</v>
+        <v>0.002433102314223901</v>
       </c>
       <c r="M54" t="n">
-        <v>0.08166810483988696</v>
+        <v>0.05564187049407197</v>
       </c>
       <c r="N54" t="n">
-        <v>0.008614596455294969</v>
+        <v>0.08079242643497378</v>
       </c>
       <c r="O54" t="n">
-        <v>0.05948941956447638</v>
+        <v>0.002168783621755141</v>
       </c>
       <c r="P54" t="n">
-        <v>0.02679823653101886</v>
+        <v>0.08569596389548952</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.01337105828544659</v>
+        <v>0.02293669356289911</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0453801438726883</v>
+        <v>0.02901997014466221</v>
       </c>
       <c r="S54" t="n">
-        <v>0.0107565526802152</v>
+        <v>0.00286928190873909</v>
       </c>
       <c r="T54" t="n">
-        <v>0.09430658682518349</v>
+        <v>0.08728006428969756</v>
       </c>
       <c r="U54" t="n">
-        <v>0.02829228745514611</v>
+        <v>0.08670118554977996</v>
       </c>
       <c r="V54" t="n">
-        <v>0.003704581785705228</v>
+        <v>0.08346199172907201</v>
       </c>
       <c r="W54" t="n">
-        <v>0.02299252180907208</v>
+        <v>0.005438718785523007</v>
       </c>
       <c r="X54" t="n">
-        <v>0.09318634676733671</v>
+        <v>0.09264747513370936</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.006384265346164742</v>
+        <v>0.008338765001513796</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.09907544066477884</v>
+        <v>0.0137251064763284</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.04271543225399163</v>
+        <v>0.07331427282647356</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.06241404375911324</v>
+        <v>0.06002974620308543</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.1117980072647329</v>
+        <v>0.106692625326148</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1804362760617934</v>
+        <v>0.1739559699561193</v>
       </c>
       <c r="F55" t="n">
-        <v>0.006238227135967233</v>
+        <v>0.005674146337093775</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05969581442268387</v>
+        <v>0.04885563265041688</v>
       </c>
       <c r="H55" t="n">
-        <v>0.004220421920499124</v>
+        <v>0.04734827671103017</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03228737234661547</v>
+        <v>0.015085163507368</v>
       </c>
       <c r="J55" t="n">
-        <v>0.04079439636682873</v>
+        <v>0.04454857259418417</v>
       </c>
       <c r="K55" t="n">
-        <v>0.08639196624754734</v>
+        <v>0.07466248632765574</v>
       </c>
       <c r="L55" t="n">
-        <v>0.05258584662852797</v>
+        <v>0.03906903271251527</v>
       </c>
       <c r="M55" t="n">
-        <v>0.09235107992588953</v>
+        <v>0.08972786475243567</v>
       </c>
       <c r="N55" t="n">
-        <v>0.03209718333973231</v>
+        <v>0.02768769175001925</v>
       </c>
       <c r="O55" t="n">
-        <v>0.02267795563018233</v>
+        <v>0.06708642121374891</v>
       </c>
       <c r="P55" t="n">
-        <v>0.06024666524309311</v>
+        <v>0.02295296450922745</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.04175350464894122</v>
+        <v>0.01474846370630233</v>
       </c>
       <c r="R55" t="n">
-        <v>0.09495660052687735</v>
+        <v>0.09955487153511471</v>
       </c>
       <c r="S55" t="n">
-        <v>0.04108516232125985</v>
+        <v>0.02057621805874366</v>
       </c>
       <c r="T55" t="n">
-        <v>0.006941998164660728</v>
+        <v>0.02573362866135659</v>
       </c>
       <c r="U55" t="n">
-        <v>0.06693410884032978</v>
+        <v>0.02290688995560222</v>
       </c>
       <c r="V55" t="n">
-        <v>0.08924232638174943</v>
+        <v>0.05019232398081575</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0351365415621287</v>
+        <v>0.0926759211856044</v>
       </c>
       <c r="X55" t="n">
-        <v>0.08487228062561107</v>
+        <v>0.08575671210167631</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.007340487277976819</v>
+        <v>0.001286925135467918</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.002007404867253281</v>
+        <v>0.03636297770614041</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.009557935140730084</v>
+        <v>0.0602981277888553</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.03058472043491508</v>
+        <v>0.007208687118625249</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.1107944668064794</v>
+        <v>0.1112856976080556</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1808334192478893</v>
+        <v>0.1838127229178488</v>
       </c>
       <c r="F56" t="n">
-        <v>0.08890392229826249</v>
+        <v>0.04925992447236175</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04406643932881844</v>
+        <v>0.06211968827045295</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02216830823099058</v>
+        <v>0.05897415794389312</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01507924056700855</v>
+        <v>0.02909746379832963</v>
       </c>
       <c r="J56" t="n">
-        <v>0.02445681514738758</v>
+        <v>0.02175679340261679</v>
       </c>
       <c r="K56" t="n">
-        <v>0.03223738376562495</v>
+        <v>0.07800573897876879</v>
       </c>
       <c r="L56" t="n">
-        <v>0.06079064639922595</v>
+        <v>0.04822891639306744</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1135839382983843</v>
+        <v>0.0747560366215749</v>
       </c>
       <c r="N56" t="n">
-        <v>0.06551022347828005</v>
+        <v>0.03716630630423113</v>
       </c>
       <c r="O56" t="n">
-        <v>0.1060349165293687</v>
+        <v>0.04357059749621599</v>
       </c>
       <c r="P56" t="n">
-        <v>0.02091726405059481</v>
+        <v>0.02726306640885191</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.04041282580076107</v>
+        <v>0.08504559231584291</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1160727114734026</v>
+        <v>0.0612248726112983</v>
       </c>
       <c r="S56" t="n">
-        <v>0.02016174111263893</v>
+        <v>0.005982512298210434</v>
       </c>
       <c r="T56" t="n">
-        <v>0.0232399628693415</v>
+        <v>0.01697495904395162</v>
       </c>
       <c r="U56" t="n">
-        <v>0.01842819540069568</v>
+        <v>0.06371533551326133</v>
       </c>
       <c r="V56" t="n">
-        <v>0.005029910071412492</v>
+        <v>0.00358988666952729</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05977522758375738</v>
+        <v>0.06913478202332848</v>
       </c>
       <c r="X56" t="n">
-        <v>0.02803333384629429</v>
+        <v>0.06125666325183684</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.01873408881744774</v>
+        <v>0.01122735151063481</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.02242284257721409</v>
+        <v>0.007783287175110296</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.03518253362754062</v>
+        <v>0.07116687801972674</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.01875752872554706</v>
+        <v>0.01269918947690646</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.01972015669265693</v>
+        <v>-0.02256687437287529</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2267896186882744</v>
+        <v>0.2045325340980658</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02315571256772032</v>
+        <v>0.07054556099306196</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03248807004071025</v>
+        <v>0.05144559695743123</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05699976680531638</v>
+        <v>0.009906482638086423</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03204999744455501</v>
+        <v>0.02023687042500564</v>
       </c>
       <c r="J57" t="n">
-        <v>0.04445862857836629</v>
+        <v>0.0003855864628927915</v>
       </c>
       <c r="K57" t="n">
-        <v>0.03336898599419848</v>
+        <v>0.07067710510134026</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0236030905080927</v>
+        <v>0.008191818427101387</v>
       </c>
       <c r="M57" t="n">
-        <v>0.09754596543246712</v>
+        <v>0.1131669242009004</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01806939733615155</v>
+        <v>0.04608403177834446</v>
       </c>
       <c r="O57" t="n">
-        <v>0.05763799143710126</v>
+        <v>0.02634367609372145</v>
       </c>
       <c r="P57" t="n">
-        <v>0.07410813580545303</v>
+        <v>0.03998720275599922</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01436754829948374</v>
+        <v>0.02191163056254703</v>
       </c>
       <c r="R57" t="n">
-        <v>0.01638492084990363</v>
+        <v>0.06499981988962598</v>
       </c>
       <c r="S57" t="n">
-        <v>0.05685603482709954</v>
+        <v>0.07367678323585652</v>
       </c>
       <c r="T57" t="n">
-        <v>0.08814278836122545</v>
+        <v>0.01071824416649223</v>
       </c>
       <c r="U57" t="n">
-        <v>0.02171106934878756</v>
+        <v>0.0177414462678452</v>
       </c>
       <c r="V57" t="n">
-        <v>0.1315635607109722</v>
+        <v>0.09546724422209488</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03872670451873742</v>
+        <v>0.05943539097645872</v>
       </c>
       <c r="X57" t="n">
-        <v>0.05316516882625295</v>
+        <v>0.09362665125633747</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.02866969588027369</v>
+        <v>0.00696497123495918</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.03332545949151463</v>
+        <v>0.01410651212785074</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02303526877428888</v>
+        <v>0.07347065703890873</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.0005660381613279542</v>
+        <v>0.0109097931871382</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.02750377474479362</v>
+        <v>-0.02637834686491473</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.192666998093844</v>
+        <v>0.1928345527646224</v>
       </c>
       <c r="F58" t="n">
-        <v>0.005930856763105397</v>
+        <v>0.01449294417977243</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04762819549864888</v>
+        <v>0.01737989415764465</v>
       </c>
       <c r="H58" t="n">
-        <v>0.006098128187876758</v>
+        <v>0.06006758810665299</v>
       </c>
       <c r="I58" t="n">
-        <v>0.009736412577957067</v>
+        <v>0.05580402614918321</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0002585345472849558</v>
+        <v>0.07174818056841742</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1296344855883065</v>
+        <v>0.0253189389509844</v>
       </c>
       <c r="L58" t="n">
-        <v>0.06643582501553376</v>
+        <v>0.003833498438980918</v>
       </c>
       <c r="M58" t="n">
-        <v>0.1110306346482307</v>
+        <v>0.04759785157148422</v>
       </c>
       <c r="N58" t="n">
-        <v>0.01008011768827109</v>
+        <v>0.008657722450864243</v>
       </c>
       <c r="O58" t="n">
-        <v>0.09912520787567787</v>
+        <v>0.0473653457216092</v>
       </c>
       <c r="P58" t="n">
-        <v>0.02272054125631681</v>
+        <v>0.03415030993837911</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.008692759561044558</v>
+        <v>0.003246164892916794</v>
       </c>
       <c r="R58" t="n">
-        <v>0.01328635424258236</v>
+        <v>0.08136748299923842</v>
       </c>
       <c r="S58" t="n">
-        <v>0.03852525818559936</v>
+        <v>0.06027051571424859</v>
       </c>
       <c r="T58" t="n">
-        <v>0.01253825909204912</v>
+        <v>0.007208054215795372</v>
       </c>
       <c r="U58" t="n">
-        <v>0.004703736064487931</v>
+        <v>0.1087384747273034</v>
       </c>
       <c r="V58" t="n">
-        <v>0.006926073471711425</v>
+        <v>0.03797210400479216</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1048539847586905</v>
+        <v>0.07388836486008349</v>
       </c>
       <c r="X58" t="n">
-        <v>0.1231906823336621</v>
+        <v>0.1003891553927397</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.03845845858556116</v>
+        <v>0.002304845820278753</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.08885237469196344</v>
+        <v>0.04846072760688555</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.0381437581412207</v>
+        <v>0.06896270974783458</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.01314936122421776</v>
+        <v>0.02077509978391039</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.04110046564293043</v>
+        <v>0.04962168846540198</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.2388331927524024</v>
+        <v>0.2168950023207117</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1300057348575163</v>
+        <v>0.094676773483622</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0164636904911709</v>
+        <v>0.09205089832428232</v>
       </c>
       <c r="H59" t="n">
-        <v>0.002449371449774462</v>
+        <v>0.05172766993519079</v>
       </c>
       <c r="I59" t="n">
-        <v>0.09187943138331341</v>
+        <v>0.01976604147939814</v>
       </c>
       <c r="J59" t="n">
-        <v>0.06226288023270236</v>
+        <v>0.01250311477753177</v>
       </c>
       <c r="K59" t="n">
-        <v>0.02314219029461615</v>
+        <v>0.05306597617381585</v>
       </c>
       <c r="L59" t="n">
-        <v>0.01251192038552761</v>
+        <v>0.02200734704623376</v>
       </c>
       <c r="M59" t="n">
-        <v>0.06827758110978638</v>
+        <v>0.08579569556365117</v>
       </c>
       <c r="N59" t="n">
-        <v>0.01492336463117675</v>
+        <v>0.007675070472735544</v>
       </c>
       <c r="O59" t="n">
-        <v>0.02827936293372522</v>
+        <v>0.03202414900836034</v>
       </c>
       <c r="P59" t="n">
-        <v>0.04455667733711114</v>
+        <v>0.03360045918896298</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.02745090534991738</v>
+        <v>0.005468105982700664</v>
       </c>
       <c r="R59" t="n">
-        <v>0.009325904621203539</v>
+        <v>0.004817339189145165</v>
       </c>
       <c r="S59" t="n">
-        <v>0.01101860584938185</v>
+        <v>0.05747325810624791</v>
       </c>
       <c r="T59" t="n">
-        <v>0.08117451243412402</v>
+        <v>0.004321999189322735</v>
       </c>
       <c r="U59" t="n">
-        <v>0.09639420765529992</v>
+        <v>0.07221620855711759</v>
       </c>
       <c r="V59" t="n">
-        <v>0.06152748326072328</v>
+        <v>0.03580917962242019</v>
       </c>
       <c r="W59" t="n">
-        <v>0.003440258189530955</v>
+        <v>0.1075129794862758</v>
       </c>
       <c r="X59" t="n">
-        <v>0.003334144993380845</v>
+        <v>0.02964285422874884</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.009835165439900588</v>
+        <v>0.007142608377665092</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.08251841935995671</v>
+        <v>0.08439017129401086</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.1191013029344612</v>
+        <v>0.08092072257185715</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.0001268848056989879</v>
+        <v>0.005391377940703358</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.08097584729081388</v>
+        <v>0.07047688978439125</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2101287204836893</v>
+        <v>0.2122821948210206</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01352920426774101</v>
+        <v>0.007626838138314177</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0292519574253499</v>
+        <v>0.02659635752463148</v>
       </c>
       <c r="H60" t="n">
-        <v>0.02263477877032789</v>
+        <v>0.07762701288189432</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02245390597845926</v>
+        <v>0.04175680009208015</v>
       </c>
       <c r="J60" t="n">
-        <v>0.05208214966078249</v>
+        <v>0.04669743974668977</v>
       </c>
       <c r="K60" t="n">
-        <v>0.01676608816602383</v>
+        <v>0.05746531821603739</v>
       </c>
       <c r="L60" t="n">
-        <v>0.04015068410205612</v>
+        <v>0.00117879883860302</v>
       </c>
       <c r="M60" t="n">
-        <v>0.08056224651527398</v>
+        <v>0.09010639889964321</v>
       </c>
       <c r="N60" t="n">
-        <v>0.002094738435460051</v>
+        <v>0.01178102644023205</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0850704234346867</v>
+        <v>0.04482145670173585</v>
       </c>
       <c r="P60" t="n">
-        <v>0.07451927275999733</v>
+        <v>0.003063771261606191</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.001088853557769282</v>
+        <v>0.004640212253086353</v>
       </c>
       <c r="R60" t="n">
-        <v>0.06752126289895752</v>
+        <v>0.07548217251784231</v>
       </c>
       <c r="S60" t="n">
-        <v>0.02503273110179376</v>
+        <v>0.04477555994389307</v>
       </c>
       <c r="T60" t="n">
-        <v>0.02814153705822727</v>
+        <v>0.0569907981503944</v>
       </c>
       <c r="U60" t="n">
-        <v>0.07267202589501105</v>
+        <v>0.07618035752101361</v>
       </c>
       <c r="V60" t="n">
-        <v>0.05018644854980108</v>
+        <v>0.05971262422146049</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06996832824650125</v>
+        <v>0.008053582509846112</v>
       </c>
       <c r="X60" t="n">
-        <v>0.05698575652120179</v>
+        <v>0.07612362893134199</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.02249862412528336</v>
+        <v>0.004096975698900661</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.0772101415792659</v>
+        <v>0.0765593378699867</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.04243079158964114</v>
+        <v>0.08829117123570271</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.04714804936038779</v>
+        <v>0.02037236040506406</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.06960502182728184</v>
+        <v>0.07526740431833416</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.3047565578866036</v>
+        <v>0.24280900246483</v>
       </c>
       <c r="F61" t="n">
-        <v>0.08252012162327825</v>
+        <v>0.04675671011272989</v>
       </c>
       <c r="G61" t="n">
-        <v>0.06782288151690639</v>
+        <v>0.02411680055324704</v>
       </c>
       <c r="H61" t="n">
-        <v>0.03262166184725043</v>
+        <v>0.005024381240624918</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0008990066358054415</v>
+        <v>0.001928648506911944</v>
       </c>
       <c r="J61" t="n">
-        <v>0.01473941402946926</v>
+        <v>0.06051632303994242</v>
       </c>
       <c r="K61" t="n">
-        <v>0.01420599947946655</v>
+        <v>0.02809195231133758</v>
       </c>
       <c r="L61" t="n">
-        <v>0.07202464954334534</v>
+        <v>0.05053378814793918</v>
       </c>
       <c r="M61" t="n">
-        <v>0.06090681735821457</v>
+        <v>0.100146920831845</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0203493177310252</v>
+        <v>0.01530232357947784</v>
       </c>
       <c r="O61" t="n">
-        <v>0.06895379321536621</v>
+        <v>0.03837264292843197</v>
       </c>
       <c r="P61" t="n">
-        <v>0.05065038082444465</v>
+        <v>0.06592883123035161</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.005096890621091863</v>
+        <v>0.02572633102467599</v>
       </c>
       <c r="R61" t="n">
-        <v>0.06928133353927472</v>
+        <v>0.07688385649441351</v>
       </c>
       <c r="S61" t="n">
-        <v>0.07882172062943113</v>
+        <v>0.08394084949239576</v>
       </c>
       <c r="T61" t="n">
-        <v>0.004569666884059759</v>
+        <v>0.02385541957738178</v>
       </c>
       <c r="U61" t="n">
-        <v>0.04266396452878514</v>
+        <v>0.07343696729115373</v>
       </c>
       <c r="V61" t="n">
-        <v>0.067933945272469</v>
+        <v>0.0660609900517574</v>
       </c>
       <c r="W61" t="n">
-        <v>0.08071195231564494</v>
+        <v>0.004465351057808099</v>
       </c>
       <c r="X61" t="n">
-        <v>0.01716538723798092</v>
+        <v>0.01745187040915836</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.01306419963685005</v>
+        <v>0.01007236884886641</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.09543138264918485</v>
+        <v>0.0644344729694506</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.03301812598751779</v>
+        <v>0.06248012313185901</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.006547386893137674</v>
+        <v>0.05447207716823994</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.08130271126037301</v>
+        <v>0.07002927229736566</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2108211254859103</v>
+        <v>0.2072173130808546</v>
       </c>
       <c r="F62" t="n">
-        <v>0.07733056146936221</v>
+        <v>0.03627005266610103</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001697125152499159</v>
+        <v>0.06397686697841991</v>
       </c>
       <c r="H62" t="n">
-        <v>0.03815353283557308</v>
+        <v>0.09065203723598042</v>
       </c>
       <c r="I62" t="n">
-        <v>0.02361726961390158</v>
+        <v>0.02511435693481289</v>
       </c>
       <c r="J62" t="n">
-        <v>0.06676576880846853</v>
+        <v>0.02792578852215011</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01170309633002033</v>
+        <v>0.07946373655853933</v>
       </c>
       <c r="L62" t="n">
-        <v>0.05951357170747573</v>
+        <v>0.05401974162077047</v>
       </c>
       <c r="M62" t="n">
-        <v>0.07652883568120639</v>
+        <v>0.06231304833195595</v>
       </c>
       <c r="N62" t="n">
-        <v>0.07916139849434924</v>
+        <v>0.0386029841297851</v>
       </c>
       <c r="O62" t="n">
-        <v>0.06527970261554231</v>
+        <v>0.0616098835895573</v>
       </c>
       <c r="P62" t="n">
-        <v>0.06484319448473508</v>
+        <v>0.05477252165216842</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.0624704501044246</v>
+        <v>0.06156735611044424</v>
       </c>
       <c r="R62" t="n">
-        <v>0.07510211521390991</v>
+        <v>0.07796794851850249</v>
       </c>
       <c r="S62" t="n">
-        <v>0.01214814640103387</v>
+        <v>0.008034625558848374</v>
       </c>
       <c r="T62" t="n">
-        <v>0.02032442509345226</v>
+        <v>0.00312027397613335</v>
       </c>
       <c r="U62" t="n">
-        <v>0.04440485384137184</v>
+        <v>0.0645798442488143</v>
       </c>
       <c r="V62" t="n">
-        <v>0.00667492143905811</v>
+        <v>0.006809146542805067</v>
       </c>
       <c r="W62" t="n">
-        <v>0.02383971578934772</v>
+        <v>0.06273483836918281</v>
       </c>
       <c r="X62" t="n">
-        <v>0.06785354294018675</v>
+        <v>0.0481834172482043</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.01110798695445042</v>
+        <v>0.01925913309246703</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.09007683776575715</v>
+        <v>0.04527402144932114</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.005035872001115343</v>
+        <v>0.004094233277174287</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.01636707526275845</v>
+        <v>0.003654143387861712</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.05208887078238711</v>
+        <v>0.05672765506653829</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.4681757670060935</v>
+        <v>0.3233817500031905</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02484954462451263</v>
+        <v>0.09388280809751719</v>
       </c>
       <c r="G63" t="n">
-        <v>0.003529432998190393</v>
+        <v>0.0131140584471128</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01046641318393639</v>
+        <v>0.04745674581421393</v>
       </c>
       <c r="I63" t="n">
-        <v>0.07456066312415054</v>
+        <v>0.1198689252231504</v>
       </c>
       <c r="J63" t="n">
-        <v>0.07157580347018896</v>
+        <v>0.07292622490512944</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1094442063959816</v>
+        <v>0.02859843070735021</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0536055013674644</v>
+        <v>0.03646543626288743</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0004099133313417818</v>
+        <v>0.006718483410738278</v>
       </c>
       <c r="N63" t="n">
-        <v>0.02176638999288246</v>
+        <v>0.01969806376447918</v>
       </c>
       <c r="O63" t="n">
-        <v>0.09225392114660977</v>
+        <v>0.06939910656188225</v>
       </c>
       <c r="P63" t="n">
-        <v>0.006796031214702757</v>
+        <v>0.01885040791714544</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01307589041458084</v>
+        <v>0.003206788841035827</v>
       </c>
       <c r="R63" t="n">
-        <v>0.08047975601384373</v>
+        <v>0.001993142725823902</v>
       </c>
       <c r="S63" t="n">
-        <v>0.0362569061692585</v>
+        <v>0.04350595994188371</v>
       </c>
       <c r="T63" t="n">
-        <v>0.01354212497587316</v>
+        <v>0.1189609874320152</v>
       </c>
       <c r="U63" t="n">
-        <v>0.1063223101165867</v>
+        <v>0.02765744520888995</v>
       </c>
       <c r="V63" t="n">
-        <v>0.005082166827814654</v>
+        <v>0.01441887589657267</v>
       </c>
       <c r="W63" t="n">
-        <v>0.01759870876310646</v>
+        <v>0.09602582597688694</v>
       </c>
       <c r="X63" t="n">
-        <v>0.07798052643654707</v>
+        <v>0.009670261395225884</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.01639000714789859</v>
+        <v>0.03823382861553516</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.03408358788782013</v>
+        <v>0.009414117293358034</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.1094826174293805</v>
+        <v>0.0163938501498163</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.02044757696732801</v>
+        <v>0.09354022541134986</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.0547461991295388</v>
+        <v>0.06020291762802309</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2153021326699422</v>
+        <v>0.2147545814368178</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04329149701203895</v>
+        <v>0.03535808098292869</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06782266835845428</v>
+        <v>0.01077607024038073</v>
       </c>
       <c r="H64" t="n">
-        <v>0.03528767313985093</v>
+        <v>0.08149493497585801</v>
       </c>
       <c r="I64" t="n">
-        <v>0.07644344879926772</v>
+        <v>0.02509988057603015</v>
       </c>
       <c r="J64" t="n">
-        <v>0.04255201998691752</v>
+        <v>0.002355005372759846</v>
       </c>
       <c r="K64" t="n">
-        <v>0.07353113497489187</v>
+        <v>0.07755129565338303</v>
       </c>
       <c r="L64" t="n">
-        <v>0.06008886412013815</v>
+        <v>0.04818317847515448</v>
       </c>
       <c r="M64" t="n">
-        <v>0.04816152461978353</v>
+        <v>0.07449259478343667</v>
       </c>
       <c r="N64" t="n">
-        <v>0.04985692981317529</v>
+        <v>0.006430718966054151</v>
       </c>
       <c r="O64" t="n">
-        <v>0.06504913583741841</v>
+        <v>0.04168377882098188</v>
       </c>
       <c r="P64" t="n">
-        <v>0.07684439871540408</v>
+        <v>0.06353361777851188</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.05169682065766862</v>
+        <v>0.005863868445398052</v>
       </c>
       <c r="R64" t="n">
-        <v>0.01644245646493784</v>
+        <v>0.06539653750617308</v>
       </c>
       <c r="S64" t="n">
-        <v>0.01735582271603988</v>
+        <v>0.08371849771219646</v>
       </c>
       <c r="T64" t="n">
-        <v>0.00902079875203806</v>
+        <v>0.01511151397791149</v>
       </c>
       <c r="U64" t="n">
-        <v>0.05554550611354513</v>
+        <v>0.05531627780086644</v>
       </c>
       <c r="V64" t="n">
-        <v>0.002011202602295951</v>
+        <v>0.003539094816693974</v>
       </c>
       <c r="W64" t="n">
-        <v>0.01559439231018596</v>
+        <v>0.0484201928349686</v>
       </c>
       <c r="X64" t="n">
-        <v>0.07348575502223961</v>
+        <v>0.07454664603628858</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.07631952307943397</v>
+        <v>0.07434783926799259</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.006576098464558354</v>
+        <v>0.01383262837293121</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.018641594690824</v>
+        <v>0.01162433847849648</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.01838073374889181</v>
+        <v>0.08132340812460367</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.005402420019937308</v>
+        <v>-0.0299662225131561</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2596648297478762</v>
+        <v>0.2436746766849826</v>
       </c>
       <c r="F65" t="n">
-        <v>0.08370224538189211</v>
+        <v>0.101691442626848</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009480770091009909</v>
+        <v>0.03476530595494342</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0752281815758802</v>
+        <v>0.07575159232248409</v>
       </c>
       <c r="I65" t="n">
-        <v>0.05057811376982706</v>
+        <v>0.03735986552621024</v>
       </c>
       <c r="J65" t="n">
-        <v>0.005302371417938182</v>
+        <v>0.02299082022361417</v>
       </c>
       <c r="K65" t="n">
-        <v>0.001670264581626061</v>
+        <v>0.01394850961080059</v>
       </c>
       <c r="L65" t="n">
-        <v>0.00329398433316054</v>
+        <v>0.04432716973168709</v>
       </c>
       <c r="M65" t="n">
-        <v>0.008868493890172174</v>
+        <v>0.008300776887942306</v>
       </c>
       <c r="N65" t="n">
-        <v>0.04923514080125155</v>
+        <v>0.06975773729459563</v>
       </c>
       <c r="O65" t="n">
-        <v>0.08901218208139842</v>
+        <v>0.05055762184357604</v>
       </c>
       <c r="P65" t="n">
-        <v>0.02705125895797033</v>
+        <v>0.0005296989874064546</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.0835288868230189</v>
+        <v>0.1076535455150842</v>
       </c>
       <c r="R65" t="n">
-        <v>0.03859755997477907</v>
+        <v>0.06684163178046422</v>
       </c>
       <c r="S65" t="n">
-        <v>0.07681284518683361</v>
+        <v>0.02495364729567913</v>
       </c>
       <c r="T65" t="n">
-        <v>0.05327042792593862</v>
+        <v>0.04239702867821855</v>
       </c>
       <c r="U65" t="n">
-        <v>0.0007571444226328978</v>
+        <v>0.06872104443190501</v>
       </c>
       <c r="V65" t="n">
-        <v>0.01832714497935018</v>
+        <v>0.01030459855047537</v>
       </c>
       <c r="W65" t="n">
-        <v>0.07555123782864454</v>
+        <v>0.01221136158844902</v>
       </c>
       <c r="X65" t="n">
-        <v>0.05544247714677981</v>
+        <v>0.03067789331161284</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.07353367146266243</v>
+        <v>0.08694576246653998</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.01085839655946906</v>
+        <v>0.02048051597708228</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.07665580481905519</v>
+        <v>0.03866209502319894</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.03324139598870911</v>
+        <v>0.03017033437118247</v>
       </c>
       <c r="AC65" t="n">
-        <v>-0.003915631975341612</v>
+        <v>0.009694747136775605</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1725064765582126</v>
+        <v>0.1714513982545221</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003449712070659979</v>
+        <v>0.01078445865216562</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03668200040369306</v>
+        <v>0.05583013887020069</v>
       </c>
       <c r="H66" t="n">
-        <v>0.07769433895348098</v>
+        <v>0.01359054977314919</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02615868005937277</v>
+        <v>0.06827214929731878</v>
       </c>
       <c r="J66" t="n">
-        <v>0.02220990979138854</v>
+        <v>0.07848568175932155</v>
       </c>
       <c r="K66" t="n">
-        <v>0.08485172044587483</v>
+        <v>0.05583850978424911</v>
       </c>
       <c r="L66" t="n">
-        <v>0.07135424014866804</v>
+        <v>0.02845879288788176</v>
       </c>
       <c r="M66" t="n">
-        <v>0.03711088250395841</v>
+        <v>0.09334153069589084</v>
       </c>
       <c r="N66" t="n">
-        <v>0.03246524413606022</v>
+        <v>0.006832065664940531</v>
       </c>
       <c r="O66" t="n">
-        <v>0.05607563689683358</v>
+        <v>0.05495769020403184</v>
       </c>
       <c r="P66" t="n">
-        <v>0.05257410762200206</v>
+        <v>0.03951399589293735</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01897321343665035</v>
+        <v>0.01182206517309213</v>
       </c>
       <c r="R66" t="n">
-        <v>0.04687158966300025</v>
+        <v>0.06441322942187196</v>
       </c>
       <c r="S66" t="n">
-        <v>0.04373580072433923</v>
+        <v>0.04657975124216458</v>
       </c>
       <c r="T66" t="n">
-        <v>0.04057000808497848</v>
+        <v>0.002528244892115266</v>
       </c>
       <c r="U66" t="n">
-        <v>0.0396356448714297</v>
+        <v>0.08805022455541628</v>
       </c>
       <c r="V66" t="n">
-        <v>0.004601964404052544</v>
+        <v>0.03272905893357722</v>
       </c>
       <c r="W66" t="n">
-        <v>0.08120598881856686</v>
+        <v>0.08136232173626751</v>
       </c>
       <c r="X66" t="n">
-        <v>0.08669162300033778</v>
+        <v>0.01913430635887012</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.003161194122467523</v>
+        <v>0.005469208683134285</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.07101510403035607</v>
+        <v>0.07126779903490535</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.02365690594026944</v>
+        <v>0.06375869578732966</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.03925448987155915</v>
+        <v>0.006979530699168615</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.06823246015193106</v>
+        <v>0.04419971712923735</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.5233095449694958</v>
+        <v>0.2862618143176264</v>
       </c>
       <c r="F67" t="n">
-        <v>0.114263980629965</v>
+        <v>0.0754237582146266</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03081332358271239</v>
+        <v>0.002804311129217059</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02042712841321264</v>
+        <v>0.0484825188666167</v>
       </c>
       <c r="I67" t="n">
-        <v>0.003402083445541453</v>
+        <v>0.01653474217776509</v>
       </c>
       <c r="J67" t="n">
-        <v>0.07109610301975393</v>
+        <v>0.03255750143140919</v>
       </c>
       <c r="K67" t="n">
-        <v>0.04930566045951261</v>
+        <v>0.01605105530224045</v>
       </c>
       <c r="L67" t="n">
-        <v>0.09768481672913759</v>
+        <v>0.001749484624665795</v>
       </c>
       <c r="M67" t="n">
-        <v>0.03144898244663955</v>
+        <v>0.02288824215556644</v>
       </c>
       <c r="N67" t="n">
-        <v>0.009336268093646086</v>
+        <v>0.002728436882918574</v>
       </c>
       <c r="O67" t="n">
-        <v>0.07641634140749536</v>
+        <v>0.07490839462711452</v>
       </c>
       <c r="P67" t="n">
-        <v>0.01146449134945201</v>
+        <v>0.06367419427579146</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0518240392691935</v>
+        <v>0.07710709468960555</v>
       </c>
       <c r="R67" t="n">
-        <v>0.03096921433802381</v>
+        <v>0.006070878161358066</v>
       </c>
       <c r="S67" t="n">
-        <v>0.01347189235185581</v>
+        <v>0.06866951330115301</v>
       </c>
       <c r="T67" t="n">
-        <v>0.1118405147417898</v>
+        <v>0.00798431277148583</v>
       </c>
       <c r="U67" t="n">
-        <v>0.009352672803104986</v>
+        <v>0.069895089322033</v>
       </c>
       <c r="V67" t="n">
-        <v>0.04395790385115945</v>
+        <v>0.05950692319938652</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0610629103202569</v>
+        <v>0.0677140446755108</v>
       </c>
       <c r="X67" t="n">
-        <v>0.06809368362679669</v>
+        <v>0.04698861689900097</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.008470733216479035</v>
+        <v>0.09895199930302495</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.02260047245238009</v>
+        <v>0.09165164583097046</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.05604229437210172</v>
+        <v>0.04684441849131149</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.006654489079789833</v>
+        <v>0.0008128236672273876</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.05132886627199526</v>
+        <v>-0.00574132886836934</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.149736717157352</v>
+        <v>0.1520070500979967</v>
       </c>
       <c r="F68" t="n">
-        <v>0.009887125093222489</v>
+        <v>0.01338391766220512</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03151436532632661</v>
+        <v>0.03492686033110292</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08646834634363088</v>
+        <v>0.08822385283816732</v>
       </c>
       <c r="I68" t="n">
-        <v>0.07929407778340804</v>
+        <v>0.0476740938295421</v>
       </c>
       <c r="J68" t="n">
-        <v>0.02145968434765364</v>
+        <v>0.01167816523540745</v>
       </c>
       <c r="K68" t="n">
-        <v>0.03901812133671002</v>
+        <v>0.05874261268069251</v>
       </c>
       <c r="L68" t="n">
-        <v>0.06438627619853059</v>
+        <v>0.04809908272916245</v>
       </c>
       <c r="M68" t="n">
-        <v>0.01883171040654414</v>
+        <v>0.08261391081812443</v>
       </c>
       <c r="N68" t="n">
-        <v>0.006942391781330112</v>
+        <v>0.04018194903135425</v>
       </c>
       <c r="O68" t="n">
-        <v>0.01565444478465736</v>
+        <v>0.005898440817917112</v>
       </c>
       <c r="P68" t="n">
-        <v>0.005951632354578372</v>
+        <v>0.07055720708237656</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.04166902409501941</v>
+        <v>0.01277067644453623</v>
       </c>
       <c r="R68" t="n">
-        <v>0.1002471978754182</v>
+        <v>0.06800537151444903</v>
       </c>
       <c r="S68" t="n">
-        <v>0.07039710063889804</v>
+        <v>0.0867155952371574</v>
       </c>
       <c r="T68" t="n">
-        <v>0.03932764784795104</v>
+        <v>0.008158588940492055</v>
       </c>
       <c r="U68" t="n">
-        <v>0.08406333514618702</v>
+        <v>0.0218285026863148</v>
       </c>
       <c r="V68" t="n">
-        <v>0.03627066211766219</v>
+        <v>0.05602718324334298</v>
       </c>
       <c r="W68" t="n">
-        <v>0.08093053914257327</v>
+        <v>0.0380069000553854</v>
       </c>
       <c r="X68" t="n">
-        <v>0.03098725435901253</v>
+        <v>0.06208010391246975</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.004083409179010047</v>
+        <v>0.00721300001985162</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.06467566190496873</v>
+        <v>0.06522945853469214</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.0623809565111163</v>
+        <v>0.0706963157838186</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.00555903542559098</v>
+        <v>0.001288210571437805</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.03571448348794981</v>
+        <v>-0.02588825344596269</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.2097412316088532</v>
+        <v>0.2025842953474022</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0351995053303376</v>
+        <v>0.04014982367787149</v>
       </c>
       <c r="G69" t="n">
-        <v>0.07740125688791222</v>
+        <v>0.02787572579184619</v>
       </c>
       <c r="H69" t="n">
-        <v>0.08313020327911494</v>
+        <v>0.03875227930275893</v>
       </c>
       <c r="I69" t="n">
-        <v>0.08513874148157953</v>
+        <v>0.06140472157395965</v>
       </c>
       <c r="J69" t="n">
-        <v>0.03509568068859369</v>
+        <v>0.0245703187987702</v>
       </c>
       <c r="K69" t="n">
-        <v>0.06248509734709238</v>
+        <v>0.04820070391260034</v>
       </c>
       <c r="L69" t="n">
-        <v>0.02054591709041531</v>
+        <v>0.02450058433007552</v>
       </c>
       <c r="M69" t="n">
-        <v>0.05351971592326848</v>
+        <v>0.1037473712676326</v>
       </c>
       <c r="N69" t="n">
-        <v>0.05157479613936115</v>
+        <v>0.01384274876500022</v>
       </c>
       <c r="O69" t="n">
-        <v>0.09065904111342654</v>
+        <v>0.07390754795773607</v>
       </c>
       <c r="P69" t="n">
-        <v>0.02135124547554394</v>
+        <v>0.03327430483091135</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.00531519806219747</v>
+        <v>0.02508624304779612</v>
       </c>
       <c r="R69" t="n">
-        <v>0.03470234386212964</v>
+        <v>0.03047183056745952</v>
       </c>
       <c r="S69" t="n">
-        <v>0.02987229666482917</v>
+        <v>0.01607300492891271</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01194601642119128</v>
+        <v>0.01063677876252029</v>
       </c>
       <c r="U69" t="n">
-        <v>0.01054762279317751</v>
+        <v>0.02355546986562199</v>
       </c>
       <c r="V69" t="n">
-        <v>0.1071190122191362</v>
+        <v>0.100487099885414</v>
       </c>
       <c r="W69" t="n">
-        <v>0.04528971924017135</v>
+        <v>0.01866880152599911</v>
       </c>
       <c r="X69" t="n">
-        <v>0.015051794041068</v>
+        <v>0.0640391274689802</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.1035409593476451</v>
+        <v>0.1164436475908034</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.003532370736778344</v>
+        <v>0.07823810606636979</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.01186205379768621</v>
+        <v>0.0006434441371778195</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.005119412057343848</v>
+        <v>0.02543031594378236</v>
       </c>
       <c r="AC69" t="n">
-        <v>-0.01942987367203679</v>
+        <v>0.01391485300303564</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1300838455889867</v>
+        <v>0.1304391233771032</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08003293164825287</v>
+        <v>0.03742863449119405</v>
       </c>
       <c r="G70" t="n">
-        <v>0.005995799357068972</v>
+        <v>0.005974413548019578</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1026052220775893</v>
+        <v>0.07416356653714894</v>
       </c>
       <c r="I70" t="n">
-        <v>0.002474296683534603</v>
+        <v>0.05318373183097174</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02633029827723678</v>
+        <v>0.05934136483167744</v>
       </c>
       <c r="K70" t="n">
-        <v>0.005501707427467198</v>
+        <v>0.003544291291479748</v>
       </c>
       <c r="L70" t="n">
-        <v>0.04789290806762021</v>
+        <v>0.07107430422529358</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01065919668374674</v>
+        <v>0.04137202169216597</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0007492290821003289</v>
+        <v>0.001581534822408011</v>
       </c>
       <c r="O70" t="n">
-        <v>0.0616892119567409</v>
+        <v>0.07567261948488864</v>
       </c>
       <c r="P70" t="n">
-        <v>0.03146620074335682</v>
+        <v>0.06889482690470841</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.01300957716017599</v>
+        <v>0.03464274472948538</v>
       </c>
       <c r="R70" t="n">
-        <v>0.0196906231724599</v>
+        <v>0.05818266705628039</v>
       </c>
       <c r="S70" t="n">
-        <v>0.05563095847866062</v>
+        <v>0.05606423284875529</v>
       </c>
       <c r="T70" t="n">
-        <v>0.02919581942762469</v>
+        <v>0.02695361721520223</v>
       </c>
       <c r="U70" t="n">
-        <v>0.06552185558906826</v>
+        <v>0.04467593187650768</v>
       </c>
       <c r="V70" t="n">
-        <v>0.02057452298259303</v>
+        <v>0.004762427063401005</v>
       </c>
       <c r="W70" t="n">
-        <v>0.09824787251853184</v>
+        <v>0.07474498251987086</v>
       </c>
       <c r="X70" t="n">
-        <v>0.1012696466517571</v>
+        <v>0.05527538278314506</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.008864297169764512</v>
+        <v>0.013986404661184</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.08824949828920027</v>
+        <v>0.05577704560454255</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.09587118101514761</v>
+        <v>0.05864322762984521</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.02847714554030159</v>
+        <v>0.02406002635182411</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.01992507918868098</v>
+        <v>-0.04338650056215061</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1551381660675281</v>
+        <v>0.1476492599674413</v>
       </c>
       <c r="F71" t="n">
-        <v>0.08609321513016481</v>
+        <v>0.06381876343279587</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03452868545520681</v>
+        <v>0.01216551779644719</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0177481152513746</v>
+        <v>0.005258051070872755</v>
       </c>
       <c r="I71" t="n">
-        <v>0.09737290408752303</v>
+        <v>0.008173112957136698</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0052717992887198</v>
+        <v>0.01639376605465727</v>
       </c>
       <c r="K71" t="n">
-        <v>0.04868818665316581</v>
+        <v>0.1039088908725141</v>
       </c>
       <c r="L71" t="n">
-        <v>0.02942830848684988</v>
+        <v>0.01616674783733972</v>
       </c>
       <c r="M71" t="n">
-        <v>0.02188708438167441</v>
+        <v>0.06821562404579348</v>
       </c>
       <c r="N71" t="n">
-        <v>0.04940464486810348</v>
+        <v>0.02494851785468836</v>
       </c>
       <c r="O71" t="n">
-        <v>0.08675143415031682</v>
+        <v>0.07324310148498381</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0693886480968786</v>
+        <v>0.01278463042563737</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.07662065030568123</v>
+        <v>0.08748356023317293</v>
       </c>
       <c r="R71" t="n">
-        <v>0.006983113022545641</v>
+        <v>0.1034303463382956</v>
       </c>
       <c r="S71" t="n">
-        <v>0.009520417222731887</v>
+        <v>0.01325805267885348</v>
       </c>
       <c r="T71" t="n">
-        <v>0.04833854104491978</v>
+        <v>0.07256219286343185</v>
       </c>
       <c r="U71" t="n">
-        <v>0.04275853020256801</v>
+        <v>0.01010365542857108</v>
       </c>
       <c r="V71" t="n">
-        <v>0.005885301763321057</v>
+        <v>0.03521384811592531</v>
       </c>
       <c r="W71" t="n">
-        <v>0.002424606849558528</v>
+        <v>0.02782000704772578</v>
       </c>
       <c r="X71" t="n">
-        <v>0.007950459412177636</v>
+        <v>0.01870261763902556</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.100040499832054</v>
+        <v>0.08008619042870495</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.07917284200343146</v>
+        <v>0.02487879851100386</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.0324415027545119</v>
+        <v>0.1133590527557203</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.04130050973652095</v>
+        <v>0.00802495412670262</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.06659038507724785</v>
+        <v>-0.05618025430817563</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1144819491535555</v>
+        <v>0.113768912117321</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04469303588416557</v>
+        <v>0.06798885914891664</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04716977380760166</v>
+        <v>0.0772658364498871</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0008748300300534332</v>
+        <v>0.01556770746012058</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03192852600232885</v>
+        <v>5.966060321444668e-05</v>
       </c>
       <c r="J72" t="n">
-        <v>0.05748421761942876</v>
+        <v>0.1024723597685686</v>
       </c>
       <c r="K72" t="n">
-        <v>0.03434298607575219</v>
+        <v>0.06595020111707717</v>
       </c>
       <c r="L72" t="n">
-        <v>0.02804457208431375</v>
+        <v>0.03543743291828395</v>
       </c>
       <c r="M72" t="n">
-        <v>0.02815205890042791</v>
+        <v>0.001982370115828111</v>
       </c>
       <c r="N72" t="n">
-        <v>0.006390520789423991</v>
+        <v>0.002819634783174504</v>
       </c>
       <c r="O72" t="n">
-        <v>0.0330634297451124</v>
+        <v>0.08215221519200855</v>
       </c>
       <c r="P72" t="n">
-        <v>0.07844040752067676</v>
+        <v>0.1073171473137141</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.02893449124380689</v>
+        <v>0.02847140303215351</v>
       </c>
       <c r="R72" t="n">
-        <v>0.01418223816658859</v>
+        <v>0.06214020018340787</v>
       </c>
       <c r="S72" t="n">
-        <v>0.06348063644518585</v>
+        <v>0.01062428566488369</v>
       </c>
       <c r="T72" t="n">
-        <v>0.06258995540501253</v>
+        <v>0.03798952032429987</v>
       </c>
       <c r="U72" t="n">
-        <v>0.08688288465295664</v>
+        <v>0.108386001674056</v>
       </c>
       <c r="V72" t="n">
-        <v>0.0232297018960858</v>
+        <v>0.0002029724205081301</v>
       </c>
       <c r="W72" t="n">
-        <v>0.07897467235926814</v>
+        <v>0.01478718675555981</v>
       </c>
       <c r="X72" t="n">
-        <v>0.07574893584584814</v>
+        <v>0.06784762543072907</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.02304322842507991</v>
+        <v>0.003021583403020425</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.05976072568236296</v>
+        <v>0.05870211738843061</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.02660608555001061</v>
+        <v>0.01734708051386641</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.06598208586850868</v>
+        <v>0.03146659833829074</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1377918717084664</v>
+        <v>-0.1467221920145771</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1316334907590392</v>
+        <v>0.1295438598317192</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1165208258330642</v>
+        <v>0.0531775460323333</v>
       </c>
       <c r="G73" t="n">
-        <v>0.09272094621274107</v>
+        <v>0.1180565338870204</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01162008511051339</v>
+        <v>0.01846758391978747</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01168552153178452</v>
+        <v>0.07970924473794636</v>
       </c>
       <c r="J73" t="n">
-        <v>0.02085687928749256</v>
+        <v>0.02058216072193581</v>
       </c>
       <c r="K73" t="n">
-        <v>0.05497838990958748</v>
+        <v>0.07564818030845682</v>
       </c>
       <c r="L73" t="n">
-        <v>0.05036295127793745</v>
+        <v>0.05520734708757851</v>
       </c>
       <c r="M73" t="n">
-        <v>0.05396196096096831</v>
+        <v>0.07540678396410007</v>
       </c>
       <c r="N73" t="n">
-        <v>0.008621674393391886</v>
+        <v>0.001178052030153675</v>
       </c>
       <c r="O73" t="n">
-        <v>0.00437966524176986</v>
+        <v>0.01554750211781705</v>
       </c>
       <c r="P73" t="n">
-        <v>0.02364194759137738</v>
+        <v>0.01577591871942903</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.008587126384722067</v>
+        <v>0.1018280746020921</v>
       </c>
       <c r="R73" t="n">
-        <v>0.04813180955247851</v>
+        <v>0.01310829354191261</v>
       </c>
       <c r="S73" t="n">
-        <v>0.04329452146662728</v>
+        <v>0.0182376038632507</v>
       </c>
       <c r="T73" t="n">
-        <v>0.03524810332108595</v>
+        <v>0.01375646406529421</v>
       </c>
       <c r="U73" t="n">
-        <v>0.01535011773870189</v>
+        <v>0.02051821351626685</v>
       </c>
       <c r="V73" t="n">
-        <v>0.09354998584541227</v>
+        <v>0.05959802935351565</v>
       </c>
       <c r="W73" t="n">
-        <v>0.02046735430068069</v>
+        <v>0.0288145415276579</v>
       </c>
       <c r="X73" t="n">
-        <v>0.01740059312371426</v>
+        <v>0.009112432141692982</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.09244483589599868</v>
+        <v>0.07374701367090747</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.1297211722736315</v>
+        <v>0.0500428258092029</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.007154275131831464</v>
+        <v>0.07913396794511092</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.03929925761448744</v>
+        <v>0.003345686436536914</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.1766709723679629</v>
+        <v>-0.1594948385759187</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1254703244246507</v>
+        <v>0.1257833932841538</v>
       </c>
       <c r="F74" t="n">
-        <v>0.03927711079013651</v>
+        <v>0.05336450873959453</v>
       </c>
       <c r="G74" t="n">
-        <v>0.06141243988065752</v>
+        <v>0.05811886387897283</v>
       </c>
       <c r="H74" t="n">
-        <v>0.002534551843056196</v>
+        <v>0.0646484491105845</v>
       </c>
       <c r="I74" t="n">
-        <v>0.003111183587220281</v>
+        <v>0.02469492197405415</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02241416969048337</v>
+        <v>0.01763601984201429</v>
       </c>
       <c r="K74" t="n">
-        <v>0.03670286003897856</v>
+        <v>0.08099115764642446</v>
       </c>
       <c r="L74" t="n">
-        <v>0.007326869031270621</v>
+        <v>0.08815543139745617</v>
       </c>
       <c r="M74" t="n">
-        <v>0.08909444921933851</v>
+        <v>0.05599555133077613</v>
       </c>
       <c r="N74" t="n">
-        <v>0.01168266763000257</v>
+        <v>0.009327934790458252</v>
       </c>
       <c r="O74" t="n">
-        <v>0.006862288003673661</v>
+        <v>0.00626164311663862</v>
       </c>
       <c r="P74" t="n">
-        <v>0.06469705474077177</v>
+        <v>0.06968322049843513</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.06224501207547277</v>
+        <v>0.09977574348743831</v>
       </c>
       <c r="R74" t="n">
-        <v>0.05167189008379128</v>
+        <v>0.001757905521125718</v>
       </c>
       <c r="S74" t="n">
-        <v>0.01286889461230312</v>
+        <v>0.003701224119701067</v>
       </c>
       <c r="T74" t="n">
-        <v>0.04223948715133195</v>
+        <v>0.007302781508291387</v>
       </c>
       <c r="U74" t="n">
-        <v>0.06682661115364211</v>
+        <v>0.0983404871409484</v>
       </c>
       <c r="V74" t="n">
-        <v>0.01450865772613541</v>
+        <v>0.007803339983570915</v>
       </c>
       <c r="W74" t="n">
-        <v>0.05009966511475219</v>
+        <v>0.03011076950089309</v>
       </c>
       <c r="X74" t="n">
-        <v>0.1018610841188087</v>
+        <v>0.09076166513163049</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.07007269666534557</v>
+        <v>0.04446906030813348</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.1092380815478204</v>
+        <v>0.02689558342754704</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.03011912786156344</v>
+        <v>0.03231110553151864</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.04313314743344363</v>
+        <v>0.02789263201379219</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.1467574933048519</v>
+        <v>0.1272297770201104</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1306656280353246</v>
+        <v>0.1399003863618523</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0579062109718554</v>
+        <v>0.08510569420994499</v>
       </c>
       <c r="G75" t="n">
-        <v>0.003234305006047109</v>
+        <v>0.03184984682149607</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0876130261974999</v>
+        <v>0.0453569193301962</v>
       </c>
       <c r="I75" t="n">
-        <v>0.00283068599626952</v>
+        <v>0.005920796406294652</v>
       </c>
       <c r="J75" t="n">
-        <v>0.06413275627724423</v>
+        <v>0.01786544670197412</v>
       </c>
       <c r="K75" t="n">
-        <v>0.004131364901078187</v>
+        <v>0.001075557612855605</v>
       </c>
       <c r="L75" t="n">
-        <v>0.02076361254703564</v>
+        <v>0.07082983984813514</v>
       </c>
       <c r="M75" t="n">
-        <v>0.07098450652623348</v>
+        <v>0.07860922578622183</v>
       </c>
       <c r="N75" t="n">
-        <v>0.006391774722763198</v>
+        <v>0.04251942255086615</v>
       </c>
       <c r="O75" t="n">
-        <v>0.006631196438014516</v>
+        <v>0.01370088687131127</v>
       </c>
       <c r="P75" t="n">
-        <v>0.08559321109753815</v>
+        <v>0.08644471830678248</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.05101122481530919</v>
+        <v>0.01415904810557944</v>
       </c>
       <c r="R75" t="n">
-        <v>0.01965314791440504</v>
+        <v>0.02384432382035208</v>
       </c>
       <c r="S75" t="n">
-        <v>0.06441134212204795</v>
+        <v>0.06806886929237281</v>
       </c>
       <c r="T75" t="n">
-        <v>0.02291008089923567</v>
+        <v>0.04534178603062626</v>
       </c>
       <c r="U75" t="n">
-        <v>0.06101449312304039</v>
+        <v>0.009466661942515471</v>
       </c>
       <c r="V75" t="n">
-        <v>0.04384551457491879</v>
+        <v>0.02650271464239933</v>
       </c>
       <c r="W75" t="n">
-        <v>0.0277743503083058</v>
+        <v>0.09115779880326563</v>
       </c>
       <c r="X75" t="n">
-        <v>0.05941668058512603</v>
+        <v>0.00885772136570363</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.09226096222115406</v>
+        <v>0.05426582170988178</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.08214570720285375</v>
+        <v>0.08550203952717883</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.02111762830908078</v>
+        <v>0.06679508843271749</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.04422621724294334</v>
+        <v>0.02675977188132901</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1383480723548173</v>
+        <v>0.1508622974937688</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1287158911634794</v>
+        <v>0.1265065710187823</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01639325068261459</v>
+        <v>0.05129619752724671</v>
       </c>
       <c r="G76" t="n">
-        <v>0.06103115913130232</v>
+        <v>0.007698408521551563</v>
       </c>
       <c r="H76" t="n">
-        <v>0.05947357262649031</v>
+        <v>0.08770668472865499</v>
       </c>
       <c r="I76" t="n">
-        <v>0.00981433670230117</v>
+        <v>0.06605792285167875</v>
       </c>
       <c r="J76" t="n">
-        <v>0.02105996767884358</v>
+        <v>0.04003965909014773</v>
       </c>
       <c r="K76" t="n">
-        <v>0.01041230458217333</v>
+        <v>0.01391141854769774</v>
       </c>
       <c r="L76" t="n">
-        <v>0.09541458354960529</v>
+        <v>0.05559960672591308</v>
       </c>
       <c r="M76" t="n">
-        <v>0.04577797073400013</v>
+        <v>0.08176559248095974</v>
       </c>
       <c r="N76" t="n">
-        <v>0.01164360579303907</v>
+        <v>0.006959859782618482</v>
       </c>
       <c r="O76" t="n">
-        <v>0.06118874068795287</v>
+        <v>0.04025666656902929</v>
       </c>
       <c r="P76" t="n">
-        <v>0.06692953970540114</v>
+        <v>0.07525494897350626</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.07844834306632649</v>
+        <v>0.08600013607288004</v>
       </c>
       <c r="R76" t="n">
-        <v>0.03271311901955488</v>
+        <v>0.008811192096864056</v>
       </c>
       <c r="S76" t="n">
-        <v>0.001382273937962197</v>
+        <v>0.001693922192651746</v>
       </c>
       <c r="T76" t="n">
-        <v>0.04184551592289567</v>
+        <v>0.03176998111058176</v>
       </c>
       <c r="U76" t="n">
-        <v>0.08888630876150552</v>
+        <v>0.05622991583048911</v>
       </c>
       <c r="V76" t="n">
-        <v>0.05556617989889116</v>
+        <v>0.005639945309964248</v>
       </c>
       <c r="W76" t="n">
-        <v>0.06623409633304284</v>
+        <v>0.08940024012594451</v>
       </c>
       <c r="X76" t="n">
-        <v>0.009387302244733598</v>
+        <v>0.01546639840298066</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.052783934789798</v>
+        <v>0.07475041512445944</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.001096306059556371</v>
+        <v>0.006287186218714692</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.05384793489033782</v>
+        <v>0.07110536365360708</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.05866965320167182</v>
+        <v>0.02629833806185808</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.0878560261411637</v>
+        <v>-0.04146851843065622</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.2377465422942196</v>
+        <v>0.2063586964314274</v>
       </c>
       <c r="F77" t="n">
-        <v>0.08423644926843561</v>
+        <v>0.07765734710473549</v>
       </c>
       <c r="G77" t="n">
-        <v>0.002931138571910396</v>
+        <v>0.01806497474404285</v>
       </c>
       <c r="H77" t="n">
-        <v>0.02100444644208995</v>
+        <v>0.01998066317128689</v>
       </c>
       <c r="I77" t="n">
-        <v>0.06842370045005924</v>
+        <v>0.02168637067586844</v>
       </c>
       <c r="J77" t="n">
-        <v>0.04578170018698528</v>
+        <v>0.05668826818094552</v>
       </c>
       <c r="K77" t="n">
-        <v>0.004964061937573108</v>
+        <v>0.002569546568078388</v>
       </c>
       <c r="L77" t="n">
-        <v>0.08236484163257721</v>
+        <v>0.03405026512900437</v>
       </c>
       <c r="M77" t="n">
-        <v>0.07607062601314242</v>
+        <v>0.06507190651964083</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01672395148299125</v>
+        <v>0.0169013053471814</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009253360358318453</v>
+        <v>0.01561589101780577</v>
       </c>
       <c r="P77" t="n">
-        <v>0.03227390605113756</v>
+        <v>0.02941477149887086</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.07216114588241083</v>
+        <v>0.08669148728702779</v>
       </c>
       <c r="R77" t="n">
-        <v>0.01845939319639509</v>
+        <v>0.08172491243785515</v>
       </c>
       <c r="S77" t="n">
-        <v>0.02187069675742018</v>
+        <v>0.00242059252702281</v>
       </c>
       <c r="T77" t="n">
-        <v>0.0549774257796766</v>
+        <v>0.03306614858166922</v>
       </c>
       <c r="U77" t="n">
-        <v>0.01155879819533889</v>
+        <v>0.04373941753710454</v>
       </c>
       <c r="V77" t="n">
-        <v>0.06489548949352396</v>
+        <v>0.07635628591574747</v>
       </c>
       <c r="W77" t="n">
-        <v>0.009142536967753868</v>
+        <v>0.01166516195595367</v>
       </c>
       <c r="X77" t="n">
-        <v>0.07565825586011912</v>
+        <v>0.07818252171160116</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.03992928536747132</v>
+        <v>0.06915903713527059</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.1153446912330081</v>
+        <v>0.08580782178512684</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.04999178033396724</v>
+        <v>0.05842577460757171</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.02198231853769439</v>
+        <v>0.01505952856058813</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.0620567886087444</v>
+        <v>-0.06310320470778977</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1270554612330725</v>
+        <v>0.1313819863761473</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00630403640734192</v>
+        <v>0.001194504288082305</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0712686814820422</v>
+        <v>0.06828006987647857</v>
       </c>
       <c r="H78" t="n">
-        <v>0.09475727360924396</v>
+        <v>0.01516160890357224</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01164760147622281</v>
+        <v>0.02310842802877997</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02961929158885608</v>
+        <v>0.04717950603517058</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009804735622073117</v>
+        <v>0.03250554101022851</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0129339485445193</v>
+        <v>0.006206331880048015</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0764479328760508</v>
+        <v>0.04810942252442387</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0058620366360789</v>
+        <v>0.01838629533904949</v>
       </c>
       <c r="O78" t="n">
-        <v>0.05379237225897519</v>
+        <v>0.06540314188278488</v>
       </c>
       <c r="P78" t="n">
-        <v>0.09483578391824912</v>
+        <v>0.07447776577489736</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.09160999773007247</v>
+        <v>0.08485778596025582</v>
       </c>
       <c r="R78" t="n">
-        <v>0.01794717734257087</v>
+        <v>0.01156499421576264</v>
       </c>
       <c r="S78" t="n">
-        <v>0.0002533513850800447</v>
+        <v>0.03613782812192041</v>
       </c>
       <c r="T78" t="n">
-        <v>0.06196789280362527</v>
+        <v>0.07356094211504653</v>
       </c>
       <c r="U78" t="n">
-        <v>0.0112566299830864</v>
+        <v>0.04055460812423024</v>
       </c>
       <c r="V78" t="n">
-        <v>0.01387550320152857</v>
+        <v>0.02398977144145025</v>
       </c>
       <c r="W78" t="n">
-        <v>0.09091567336498742</v>
+        <v>0.06980359641748334</v>
       </c>
       <c r="X78" t="n">
-        <v>0.07836108363510502</v>
+        <v>0.01433143414233175</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.06844988314680779</v>
+        <v>0.07772670718249108</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.03411890069954997</v>
+        <v>0.08920397548821489</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.01080533997001703</v>
+        <v>0.02445499366363258</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.05316487231791569</v>
+        <v>0.05380074758366447</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.08608894621073446</v>
+        <v>0.08610082721727157</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1572920768788985</v>
+        <v>0.1590358884457106</v>
       </c>
       <c r="F79" t="n">
-        <v>0.09671399404602354</v>
+        <v>0.09109770746469402</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0600722535721353</v>
+        <v>0.02135820324243764</v>
       </c>
       <c r="H79" t="n">
-        <v>3.936325166260093e-05</v>
+        <v>0.0457579277285282</v>
       </c>
       <c r="I79" t="n">
-        <v>0.02117916476353943</v>
+        <v>0.00721422296913975</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0380167156826071</v>
+        <v>0.04120142281707651</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01582445242099153</v>
+        <v>0.01339858491274816</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04031442061685502</v>
+        <v>0.04280130547506154</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01348510371344088</v>
+        <v>0.1004657348467906</v>
       </c>
       <c r="N79" t="n">
-        <v>0.006028460833166638</v>
+        <v>0.01226022653439078</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02977576167769111</v>
+        <v>0.01705497372060513</v>
       </c>
       <c r="P79" t="n">
-        <v>0.09147964763586534</v>
+        <v>0.05097399205867159</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.1016161504032881</v>
+        <v>0.03569697867101046</v>
       </c>
       <c r="R79" t="n">
-        <v>0.05908886883220521</v>
+        <v>0.0310228386257308</v>
       </c>
       <c r="S79" t="n">
-        <v>0.006682889720900025</v>
+        <v>0.1009263636252262</v>
       </c>
       <c r="T79" t="n">
-        <v>0.02733657955154043</v>
+        <v>0.03844603206105619</v>
       </c>
       <c r="U79" t="n">
-        <v>0.005961657874759396</v>
+        <v>0.04656335599261318</v>
       </c>
       <c r="V79" t="n">
-        <v>0.0276241946030709</v>
+        <v>0.02394455641361198</v>
       </c>
       <c r="W79" t="n">
-        <v>0.001805294739026883</v>
+        <v>0.00285521981420115</v>
       </c>
       <c r="X79" t="n">
-        <v>0.08864134379569595</v>
+        <v>0.06910919320980011</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.08638296814372946</v>
+        <v>0.1084354219328419</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.04775139467774403</v>
+        <v>0.05608544201883935</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.09402906638752799</v>
+        <v>0.008338184816724131</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.04015025305653329</v>
+        <v>0.03499211104820057</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.1063874414704065</v>
+        <v>0.08707362625885948</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1452730204744108</v>
+        <v>0.1397650188241459</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03296296645441524</v>
+        <v>0.002994881370785277</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04727864727344641</v>
+        <v>0.08683351214091722</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07175345124229965</v>
+        <v>0.002541506587079078</v>
       </c>
       <c r="I80" t="n">
-        <v>0.010380557195909</v>
+        <v>0.03018038384419462</v>
       </c>
       <c r="J80" t="n">
-        <v>0.05522714235624653</v>
+        <v>0.06036386179347081</v>
       </c>
       <c r="K80" t="n">
-        <v>0.05015457207457595</v>
+        <v>0.006452956966456518</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06540281826339425</v>
+        <v>0.03843114080962231</v>
       </c>
       <c r="M80" t="n">
-        <v>0.003978702686122638</v>
+        <v>0.009745996950419772</v>
       </c>
       <c r="N80" t="n">
-        <v>0.003320712737236265</v>
+        <v>0.03215516620105102</v>
       </c>
       <c r="O80" t="n">
-        <v>0.008681891167075288</v>
+        <v>0.08489235917729079</v>
       </c>
       <c r="P80" t="n">
-        <v>0.002631372797926101</v>
+        <v>0.04937237002158643</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.09004996243280865</v>
+        <v>0.07536223606768871</v>
       </c>
       <c r="R80" t="n">
-        <v>0.005727883794196242</v>
+        <v>0.08200800977131391</v>
       </c>
       <c r="S80" t="n">
-        <v>0.06357474097827107</v>
+        <v>0.07102980615499285</v>
       </c>
       <c r="T80" t="n">
-        <v>0.09023693350876504</v>
+        <v>0.06548303297407318</v>
       </c>
       <c r="U80" t="n">
-        <v>0.1060128422461129</v>
+        <v>0.07766502804407591</v>
       </c>
       <c r="V80" t="n">
-        <v>0.00245485153534632</v>
+        <v>0.009147373507439133</v>
       </c>
       <c r="W80" t="n">
-        <v>0.08478042591925324</v>
+        <v>0.07341948712088289</v>
       </c>
       <c r="X80" t="n">
-        <v>0.01319266664487847</v>
+        <v>0.02525260197660154</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.09264481127736375</v>
+        <v>0.06676442346456765</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.0827199187366154</v>
+        <v>0.01250031380336706</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.01220827915359927</v>
+        <v>0.02918270054159616</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.00462384952414227</v>
+        <v>0.008220850710527276</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.2137798715081172</v>
+        <v>-0.1719484673256274</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.162519119017614</v>
+        <v>0.1572511760132651</v>
       </c>
       <c r="F81" t="n">
-        <v>0.07159306518657531</v>
+        <v>0.03891370806610438</v>
       </c>
       <c r="G81" t="n">
-        <v>0.07995255833435347</v>
+        <v>0.06192252256743196</v>
       </c>
       <c r="H81" t="n">
-        <v>0.004442098753195534</v>
+        <v>0.00895274911351842</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01494306619251924</v>
+        <v>0.01769494566549697</v>
       </c>
       <c r="J81" t="n">
-        <v>0.007186540259215131</v>
+        <v>0.008727507450932608</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01630725785473175</v>
+        <v>0.01714967875415796</v>
       </c>
       <c r="L81" t="n">
-        <v>0.02631328422048937</v>
+        <v>0.006868107132981636</v>
       </c>
       <c r="M81" t="n">
-        <v>0.06021141874760368</v>
+        <v>0.003399292466469199</v>
       </c>
       <c r="N81" t="n">
-        <v>0.003954881006026048</v>
+        <v>0.02543563184331541</v>
       </c>
       <c r="O81" t="n">
-        <v>0.09161677069139879</v>
+        <v>0.07459687152987422</v>
       </c>
       <c r="P81" t="n">
-        <v>0.01486985388886819</v>
+        <v>0.003342841782232661</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.07990430449246012</v>
+        <v>0.05019264623122961</v>
       </c>
       <c r="R81" t="n">
-        <v>0.00723386011971595</v>
+        <v>0.00305725775229429</v>
       </c>
       <c r="S81" t="n">
-        <v>0.03858643086568017</v>
+        <v>0.03048922956435901</v>
       </c>
       <c r="T81" t="n">
-        <v>0.08792963822829618</v>
+        <v>0.05366379918625957</v>
       </c>
       <c r="U81" t="n">
-        <v>0.01918345492712214</v>
+        <v>0.03488993703969108</v>
       </c>
       <c r="V81" t="n">
-        <v>0.01620787712792656</v>
+        <v>0.05234526876703283</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1005593609902646</v>
+        <v>0.08748295231546273</v>
       </c>
       <c r="X81" t="n">
-        <v>0.07678756048053607</v>
+        <v>0.09376291865098814</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.03543222615623747</v>
+        <v>0.1093513232031759</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.06784768864841764</v>
+        <v>0.1016518112299283</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.01748329957048153</v>
+        <v>0.02727370171644484</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.06145350325788501</v>
+        <v>0.08883529797061825</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.2049090135341464</v>
+        <v>-0.1955303726566369</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.2024011742873703</v>
+        <v>0.2045018796627123</v>
       </c>
       <c r="F82" t="n">
-        <v>0.08094335817989158</v>
+        <v>0.002911044876680158</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05338608008978608</v>
+        <v>0.07384530551551259</v>
       </c>
       <c r="H82" t="n">
-        <v>0.05369505495096589</v>
+        <v>0.03689509062975866</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0253204364276181</v>
+        <v>0.05186546051531549</v>
       </c>
       <c r="J82" t="n">
-        <v>0.002122831364911678</v>
+        <v>0.005329283876014241</v>
       </c>
       <c r="K82" t="n">
-        <v>0.00718944836179551</v>
+        <v>0.01343114565452482</v>
       </c>
       <c r="L82" t="n">
-        <v>0.007319399680685092</v>
+        <v>0.04197993638785029</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0557934308223733</v>
+        <v>0.06653190932414217</v>
       </c>
       <c r="N82" t="n">
-        <v>0.002294767256442234</v>
+        <v>0.01563821473531257</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0566171853347897</v>
+        <v>0.03416282230341595</v>
       </c>
       <c r="P82" t="n">
-        <v>0.02555356137701957</v>
+        <v>0.1060778445258708</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.07412965942336799</v>
+        <v>0.07694408174122645</v>
       </c>
       <c r="R82" t="n">
-        <v>0.05977830282868121</v>
+        <v>0.0900169236061977</v>
       </c>
       <c r="S82" t="n">
-        <v>0.07610518071527586</v>
+        <v>0.009385697071767434</v>
       </c>
       <c r="T82" t="n">
-        <v>0.0008860026821684871</v>
+        <v>0.03184834958498908</v>
       </c>
       <c r="U82" t="n">
-        <v>0.07865094138305828</v>
+        <v>0.0693232006598907</v>
       </c>
       <c r="V82" t="n">
-        <v>0.001326814366611858</v>
+        <v>0.000457007791163442</v>
       </c>
       <c r="W82" t="n">
-        <v>0.06389939871341577</v>
+        <v>0.02866958892875925</v>
       </c>
       <c r="X82" t="n">
-        <v>0.05092074999024672</v>
+        <v>0.03025291580466696</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.05743005686638198</v>
+        <v>0.06069871586414648</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.06530091948002129</v>
+        <v>0.04063602880427665</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.05452553909395871</v>
+        <v>0.08178088586537781</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.04681088061053285</v>
+        <v>0.03131854593314012</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.1652591466990643</v>
+        <v>0.162597476642189</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2153208758260327</v>
+        <v>0.2312616280025824</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04357331623621645</v>
+        <v>0.05092714256954775</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01318030142179526</v>
+        <v>0.08831857006487917</v>
       </c>
       <c r="H83" t="n">
-        <v>0.009240467397242901</v>
+        <v>0.005309834764684443</v>
       </c>
       <c r="I83" t="n">
-        <v>0.05264153503927154</v>
+        <v>0.03507004975143391</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0005357926799633548</v>
+        <v>0.00416488832482476</v>
       </c>
       <c r="K83" t="n">
-        <v>0.006750981159910103</v>
+        <v>0.006504745835067759</v>
       </c>
       <c r="L83" t="n">
-        <v>0.01442634041052504</v>
+        <v>0.02371451870356906</v>
       </c>
       <c r="M83" t="n">
-        <v>0.07602499473388834</v>
+        <v>0.08707847469572648</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0265801907255596</v>
+        <v>0.07488495276887701</v>
       </c>
       <c r="O83" t="n">
-        <v>0.1002044774358687</v>
+        <v>0.1040606680222296</v>
       </c>
       <c r="P83" t="n">
-        <v>0.02878577930117382</v>
+        <v>0.08136669805298986</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.04097307329363178</v>
+        <v>0.04266869500898481</v>
       </c>
       <c r="R83" t="n">
-        <v>0.095358249958741</v>
+        <v>0.01421505035066347</v>
       </c>
       <c r="S83" t="n">
-        <v>0.06172353889161948</v>
+        <v>0.02835258599257558</v>
       </c>
       <c r="T83" t="n">
-        <v>0.02592138315705811</v>
+        <v>0.02788347001184695</v>
       </c>
       <c r="U83" t="n">
-        <v>0.08898321711242929</v>
+        <v>0.007582461833236638</v>
       </c>
       <c r="V83" t="n">
-        <v>0.06993822193822885</v>
+        <v>0.007056512241399446</v>
       </c>
       <c r="W83" t="n">
-        <v>0.04905606574047996</v>
+        <v>0.06501232664050424</v>
       </c>
       <c r="X83" t="n">
-        <v>0.01087042431255146</v>
+        <v>0.01144360952542227</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.050589537788274</v>
+        <v>0.08210557894252271</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.09006619835529661</v>
+        <v>0.08180551284075992</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.000572303498582007</v>
+        <v>0.005606557074037275</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.04400360941169237</v>
+        <v>0.06486709598421683</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.1769682345928579</v>
+        <v>0.1908089206885961</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.215045287882452</v>
+        <v>0.2180728467545281</v>
       </c>
       <c r="F84" t="n">
-        <v>0.04360964606094712</v>
+        <v>0.0563493645924557</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05676973177170282</v>
+        <v>0.02743172741658421</v>
       </c>
       <c r="H84" t="n">
-        <v>0.07722783167919563</v>
+        <v>0.02898554314769549</v>
       </c>
       <c r="I84" t="n">
-        <v>0.06874317733409127</v>
+        <v>0.02143437812320148</v>
       </c>
       <c r="J84" t="n">
-        <v>0.000853955639702101</v>
+        <v>0.01768273547957965</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03522861107344444</v>
+        <v>0.02144729280189641</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0004808275317622571</v>
+        <v>0.0151169449518302</v>
       </c>
       <c r="M84" t="n">
-        <v>0.08399132664785787</v>
+        <v>0.004251165983379802</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02142729259706048</v>
+        <v>0.02547479105698797</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01761421785965127</v>
+        <v>0.008376134479793323</v>
       </c>
       <c r="P84" t="n">
-        <v>0.08106282603801408</v>
+        <v>0.07935584863625664</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.07409479882449756</v>
+        <v>0.08466520520224202</v>
       </c>
       <c r="R84" t="n">
-        <v>0.07152300649887335</v>
+        <v>0.08441794270560951</v>
       </c>
       <c r="S84" t="n">
-        <v>0.02564723824781287</v>
+        <v>0.06099358209149031</v>
       </c>
       <c r="T84" t="n">
-        <v>0.03716344427161285</v>
+        <v>0.08070772325582858</v>
       </c>
       <c r="U84" t="n">
-        <v>0.05491321524166842</v>
+        <v>0.04481981338875296</v>
       </c>
       <c r="V84" t="n">
-        <v>0.001327736202451675</v>
+        <v>0.01826243370450724</v>
       </c>
       <c r="W84" t="n">
-        <v>0.04882003382444249</v>
+        <v>0.08072862014034807</v>
       </c>
       <c r="X84" t="n">
-        <v>0.01833261436358354</v>
+        <v>0.085919537818145</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.0690800174916846</v>
+        <v>0.0896440413472523</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.08678912326842435</v>
+        <v>0.02057474887659371</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.01104919530966388</v>
+        <v>0.03057788099729749</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.01425013222185507</v>
+        <v>0.0127825438022718</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.0191571265030936</v>
+        <v>0.05743076112559856</v>
       </c>
     </row>
     <row r="85">
@@ -8476,82 +8476,82 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2724494464453264</v>
+        <v>0.2661891634161434</v>
       </c>
       <c r="F85" t="n">
-        <v>0.07683790936552323</v>
+        <v>0.0926234578692699</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03994091449657459</v>
+        <v>0.01418664728334348</v>
       </c>
       <c r="H85" t="n">
-        <v>0.002026380162390021</v>
+        <v>0.007653605507299542</v>
       </c>
       <c r="I85" t="n">
-        <v>0.05793023292095622</v>
+        <v>0.01333654276864757</v>
       </c>
       <c r="J85" t="n">
-        <v>0.006404132307150043</v>
+        <v>0.008224237315791593</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01460231344154693</v>
+        <v>0.0148929571424807</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03886197173718685</v>
+        <v>0.01761647613913879</v>
       </c>
       <c r="M85" t="n">
-        <v>0.04135032884088211</v>
+        <v>0.09246979879676064</v>
       </c>
       <c r="N85" t="n">
-        <v>0.007029408705744666</v>
+        <v>0.001819994100107261</v>
       </c>
       <c r="O85" t="n">
-        <v>0.06997875873775446</v>
+        <v>0.05069759750493595</v>
       </c>
       <c r="P85" t="n">
-        <v>0.06812072984234703</v>
+        <v>0.06680910241432021</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.05817507248918909</v>
+        <v>0.003102157293095491</v>
       </c>
       <c r="R85" t="n">
-        <v>0.07759492374267578</v>
+        <v>0.06340405138413006</v>
       </c>
       <c r="S85" t="n">
-        <v>0.03529273469108721</v>
+        <v>0.074629407915222</v>
       </c>
       <c r="T85" t="n">
-        <v>0.01120081035424209</v>
+        <v>0.07757511616029995</v>
       </c>
       <c r="U85" t="n">
-        <v>0.01930665911099509</v>
+        <v>0.02181536482074163</v>
       </c>
       <c r="V85" t="n">
-        <v>0.05519982420352275</v>
+        <v>0.08922539610264225</v>
       </c>
       <c r="W85" t="n">
-        <v>0.07504467405320385</v>
+        <v>0.01383570351268746</v>
       </c>
       <c r="X85" t="n">
-        <v>0.04765177545568454</v>
+        <v>0.03086860496487859</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.07811895971118231</v>
+        <v>0.08742154506817382</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.06420922266914275</v>
+        <v>0.06320237791804449</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.0331028751643551</v>
+        <v>0.03026395082774277</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.02201938779666312</v>
+        <v>0.06432590719024599</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.04087498526755463</v>
+        <v>0.04943497850950154</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>